--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -507,9 +507,9 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -836,22 +836,22 @@
         <v>93</v>
       </c>
       <c r="G9">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2507643390959974</v>
+        <v>-0.2478183746269235</v>
       </c>
       <c r="J9">
-        <v>0.0003231023309013967</v>
+        <v>0.0003757589036624954</v>
       </c>
       <c r="K9">
-        <v>-0.3815512758990249</v>
+        <v>-0.3784833155682115</v>
       </c>
       <c r="L9">
-        <v>8.97332325279517E-05</v>
+        <v>0.0001032931167420872</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -874,7 +874,7 @@
         <v>48</v>
       </c>
       <c r="G10">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -912,7 +912,7 @@
         <v>48</v>
       </c>
       <c r="G11">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -950,7 +950,7 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -988,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -1292,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -1330,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1368,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1406,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1444,7 +1444,7 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>16</v>
@@ -1482,7 +1482,7 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>16</v>
@@ -1520,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>16</v>
@@ -1558,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -1596,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>16</v>
@@ -5220,22 +5220,22 @@
         <v>69</v>
       </c>
       <c r="G9">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2172150876814274</v>
+        <v>-0.2153978895161592</v>
       </c>
       <c r="J9">
-        <v>0.003114011105198172</v>
+        <v>0.003422549212990788</v>
       </c>
       <c r="K9">
-        <v>-0.30434314379726</v>
+        <v>-0.3011065798445393</v>
       </c>
       <c r="L9">
-        <v>0.002080141568835018</v>
+        <v>0.002333088653324443</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5258,7 +5258,7 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -5296,7 +5296,7 @@
         <v>41</v>
       </c>
       <c r="G11">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -5334,7 +5334,7 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -5372,7 +5372,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -5410,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -5448,7 +5448,7 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -5486,7 +5486,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -5524,7 +5524,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -5562,7 +5562,7 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -5600,7 +5600,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -5638,7 +5638,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -5676,7 +5676,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -5714,7 +5714,7 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -5752,7 +5752,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -5790,7 +5790,7 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -5825,25 +5825,25 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.2608745973749755</v>
+        <v>-0.31352722326441</v>
       </c>
       <c r="J25">
-        <v>0.189459515366179</v>
+        <v>0.1131685336545776</v>
       </c>
       <c r="K25">
-        <v>-0.3941471994340144</v>
+        <v>-0.4479914656638877</v>
       </c>
       <c r="L25">
-        <v>0.1308813812945024</v>
+        <v>0.08182143505121871</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5863,25 +5863,25 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.3540440964374667</v>
+        <v>-0.3872983346207417</v>
       </c>
       <c r="J26">
-        <v>0.07494263177455186</v>
+        <v>0.05036597579032801</v>
       </c>
       <c r="K26">
-        <v>-0.4534975499279393</v>
+        <v>-0.5070173682344674</v>
       </c>
       <c r="L26">
-        <v>0.07768807638224377</v>
+        <v>0.04501930875693567</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5901,25 +5901,25 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.14034022285596</v>
+        <v>0.08334047874242113</v>
       </c>
       <c r="J27">
-        <v>0.481699512487204</v>
+        <v>0.6747078413451294</v>
       </c>
       <c r="K27">
-        <v>0.1568611789958072</v>
+        <v>0.08027373462987823</v>
       </c>
       <c r="L27">
-        <v>0.5618076700772363</v>
+        <v>0.7675926515511813</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5939,25 +5939,25 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.03774256780481986</v>
+        <v>0.09338863578008762</v>
       </c>
       <c r="J28">
-        <v>0.8508111952177798</v>
+        <v>0.6401498414586226</v>
       </c>
       <c r="K28">
-        <v>0.06715718224198458</v>
+        <v>0.1305442024324843</v>
       </c>
       <c r="L28">
-        <v>0.8048182163992386</v>
+        <v>0.6298840619248964</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5977,25 +5977,25 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.07453559924999299</v>
+        <v>0.1290994448735805</v>
       </c>
       <c r="J29">
-        <v>0.7077285315990198</v>
+        <v>0.5142199988155506</v>
       </c>
       <c r="K29">
-        <v>0.07913380065856659</v>
+        <v>0.1619428608987702</v>
       </c>
       <c r="L29">
-        <v>0.770810224273788</v>
+        <v>0.5490376092324329</v>
       </c>
     </row>
   </sheetData>

--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9675CDC-A23B-4ED3-A445-1A8CBFCEE988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_tools" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="infer" sheetId="4" r:id="rId4"/>
     <sheet name="openjml" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -140,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +205,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,12 +536,1140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>-0.33772774774302539</v>
+      </c>
+      <c r="J2">
+        <v>3.7619414014275793E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.39768022528514663</v>
+      </c>
+      <c r="L2">
+        <v>6.0216356265286271E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>-0.42754829069287381</v>
+      </c>
+      <c r="J3">
+        <v>7.6410404822778357E-3</v>
+      </c>
+      <c r="K3">
+        <v>-0.54528674124323695</v>
+      </c>
+      <c r="L3">
+        <v>7.124393687845218E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0.41117066001056379</v>
+      </c>
+      <c r="J4">
+        <v>9.8210126151251805E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.53600031718611207</v>
+      </c>
+      <c r="L4">
+        <v>8.3820912440796345E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>-0.31333978072025609</v>
+      </c>
+      <c r="J5">
+        <v>0.18846999090100591</v>
+      </c>
+      <c r="K5">
+        <v>-0.31783041284413188</v>
+      </c>
+      <c r="L5">
+        <v>0.31406107950112661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>-0.45260190548481433</v>
+      </c>
+      <c r="J6">
+        <v>5.7483531731336357E-2</v>
+      </c>
+      <c r="K6">
+        <v>-0.46935421431633428</v>
+      </c>
+      <c r="L6">
+        <v>0.12370498159100569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>-0.38297084310253521</v>
+      </c>
+      <c r="J7">
+        <v>0.1079738014574666</v>
+      </c>
+      <c r="K7">
+        <v>-0.45826710689153899</v>
+      </c>
+      <c r="L7">
+        <v>0.13405987835546679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0.13926212476455829</v>
+      </c>
+      <c r="J8">
+        <v>0.5588858290416201</v>
+      </c>
+      <c r="K8">
+        <v>0.20326363612124709</v>
+      </c>
+      <c r="L8">
+        <v>0.52633237245257225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>93</v>
+      </c>
+      <c r="G9">
+        <v>829</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>-0.24781837462692349</v>
+      </c>
+      <c r="J9">
+        <v>3.7575890366249538E-4</v>
+      </c>
+      <c r="K9">
+        <v>-0.37848331556821152</v>
+      </c>
+      <c r="L9">
+        <v>1.032931167420872E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>903</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>-1.7889603976091351E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.88317001415190322</v>
+      </c>
+      <c r="K10">
+        <v>-1.605248793883186E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.91189838284295555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>903</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>-3.1906673122880203E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.78376723002502158</v>
+      </c>
+      <c r="K11">
+        <v>-3.0450757918651868E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.83372859902226093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>903</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>-0.2441570787714312</v>
+      </c>
+      <c r="J12">
+        <v>3.4554165539190287E-2</v>
+      </c>
+      <c r="K12">
+        <v>-0.3094340106343606</v>
+      </c>
+      <c r="L12">
+        <v>2.8767011302358939E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>-0.45353942022497418</v>
+      </c>
+      <c r="J13">
+        <v>8.0702142650775008E-2</v>
+      </c>
+      <c r="K13">
+        <v>-0.55121305011822486</v>
+      </c>
+      <c r="L13">
+        <v>9.8623981234731539E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>-2.387049580131443E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.92675547372308997</v>
+      </c>
+      <c r="K14">
+        <v>-9.2901075862622182E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.79852375483041349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>9.6560909917053517E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.71207939800449394</v>
+      </c>
+      <c r="K15">
+        <v>0.14288194994774761</v>
+      </c>
+      <c r="L15">
+        <v>0.69374882809573024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>71</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>-0.73998536984074725</v>
+      </c>
+      <c r="J16">
+        <v>4.375235749920733E-3</v>
+      </c>
+      <c r="K16">
+        <v>-0.86707670805114045</v>
+      </c>
+      <c r="L16">
+        <v>1.1597682651924429E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>-0.31031644541708758</v>
+      </c>
+      <c r="J17">
+        <v>0.2320634889020341</v>
+      </c>
+      <c r="K17">
+        <v>-0.41495813885304572</v>
+      </c>
+      <c r="L17">
+        <v>0.233093730241445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0.45353942022497418</v>
+      </c>
+      <c r="J18">
+        <v>8.0702142650775008E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.56359986023324127</v>
+      </c>
+      <c r="L18">
+        <v>8.9749395582016778E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0.48280454958526747</v>
+      </c>
+      <c r="J19">
+        <v>6.4990394720760764E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.59327070521782144</v>
+      </c>
+      <c r="L19">
+        <v>7.0620217929152296E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>-0.35805743701971637</v>
+      </c>
+      <c r="J20">
+        <v>0.16792075329459241</v>
+      </c>
+      <c r="K20">
+        <v>-0.49547240460065162</v>
+      </c>
+      <c r="L20">
+        <v>0.14532945229106239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>-0.45353942022497418</v>
+      </c>
+      <c r="J21">
+        <v>8.0702142650775008E-2</v>
+      </c>
+      <c r="K21">
+        <v>-0.60076029057829006</v>
+      </c>
+      <c r="L21">
+        <v>6.6252950743798139E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0.1193524790065721</v>
+      </c>
+      <c r="J22">
+        <v>0.64577567683708237</v>
+      </c>
+      <c r="K22">
+        <v>0.14864172138019549</v>
+      </c>
+      <c r="L22">
+        <v>0.68193556386864729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>0.16709347060920099</v>
+      </c>
+      <c r="J23">
+        <v>0.51990361734558355</v>
+      </c>
+      <c r="K23">
+        <v>0.27250982253035838</v>
+      </c>
+      <c r="L23">
+        <v>0.44621564369007899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>-0.35805743701971637</v>
+      </c>
+      <c r="J24">
+        <v>0.16792075329459241</v>
+      </c>
+      <c r="K24">
+        <v>-0.47069878437061913</v>
+      </c>
+      <c r="L24">
+        <v>0.1697475039817557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>-0.18077538151554681</v>
+      </c>
+      <c r="J25">
+        <v>0.35419549047641641</v>
+      </c>
+      <c r="K25">
+        <v>-0.25760491865965418</v>
+      </c>
+      <c r="L25">
+        <v>0.33543451842856847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>-0.18077538151554681</v>
+      </c>
+      <c r="J26">
+        <v>0.35419549047641641</v>
+      </c>
+      <c r="K26">
+        <v>-0.26664368773543162</v>
+      </c>
+      <c r="L26">
+        <v>0.31814146487031808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0.35399003814832852</v>
+      </c>
+      <c r="J27">
+        <v>7.0561368518920295E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.43418028330340558</v>
+      </c>
+      <c r="L27">
+        <v>9.2881780630843944E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>-0.1647705109143269</v>
+      </c>
+      <c r="J28">
+        <v>0.40275465389762488</v>
+      </c>
+      <c r="K28">
+        <v>-0.2493004677260264</v>
+      </c>
+      <c r="L28">
+        <v>0.35178584403845531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>-0.1265427670608828</v>
+      </c>
+      <c r="J29">
+        <v>0.51663737981598823</v>
+      </c>
+      <c r="K29">
+        <v>-0.1491396897503261</v>
+      </c>
+      <c r="L29">
+        <v>0.58145132599759985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -507,12 +1680,11 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -567,28 +1739,28 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.3377277477430254</v>
+        <v>-0.2277100170213244</v>
       </c>
       <c r="J2">
-        <v>0.03761941401427579</v>
+        <v>0.20032802218695259</v>
       </c>
       <c r="K2">
-        <v>-0.3976802252851466</v>
+        <v>-0.27197235029387162</v>
       </c>
       <c r="L2">
-        <v>0.06021635626528627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.20932509565963231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -605,28 +1777,28 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.4275482906928738</v>
+        <v>-0.26347777762091701</v>
       </c>
       <c r="J3">
-        <v>0.007641040482277836</v>
+        <v>0.1329850671160174</v>
       </c>
       <c r="K3">
-        <v>-0.5452867412432369</v>
+        <v>-0.32017787305285961</v>
       </c>
       <c r="L3">
-        <v>0.007124393687845218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.13637641008504059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -643,28 +1815,28 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.4111706600105638</v>
+        <v>0.2297034206521828</v>
       </c>
       <c r="J4">
-        <v>0.00982101261512518</v>
+        <v>0.18729084163390899</v>
       </c>
       <c r="K4">
-        <v>0.5360003171861121</v>
+        <v>0.28096954242303013</v>
       </c>
       <c r="L4">
-        <v>0.008382091244079634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.19405167261558409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -681,28 +1853,16 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>12</v>
       </c>
-      <c r="I5">
-        <v>-0.3133397807202561</v>
-      </c>
-      <c r="J5">
-        <v>0.1884699909010059</v>
-      </c>
-      <c r="K5">
-        <v>-0.3178304128441319</v>
-      </c>
-      <c r="L5">
-        <v>0.3140610795011266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -719,28 +1879,16 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
-      <c r="I6">
-        <v>-0.4526019054848143</v>
-      </c>
-      <c r="J6">
-        <v>0.05748353173133636</v>
-      </c>
-      <c r="K6">
-        <v>-0.4693542143163343</v>
-      </c>
-      <c r="L6">
-        <v>0.1237049815910057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -757,28 +1905,16 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
-      <c r="I7">
-        <v>-0.3829708431025352</v>
-      </c>
-      <c r="J7">
-        <v>0.1079738014574666</v>
-      </c>
-      <c r="K7">
-        <v>-0.458267106891539</v>
-      </c>
-      <c r="L7">
-        <v>0.1340598783554668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -795,28 +1931,16 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>12</v>
       </c>
-      <c r="I8">
-        <v>0.1392621247645583</v>
-      </c>
-      <c r="J8">
-        <v>0.5588858290416201</v>
-      </c>
-      <c r="K8">
-        <v>0.2032636361212471</v>
-      </c>
-      <c r="L8">
-        <v>0.5263323724525723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -833,28 +1957,28 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>829</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2478183746269235</v>
+        <v>-0.22890415976703279</v>
       </c>
       <c r="J9">
-        <v>0.0003757589036624954</v>
+        <v>4.1540622048766972E-3</v>
       </c>
       <c r="K9">
-        <v>-0.3784833155682115</v>
+        <v>-0.28726717466178431</v>
       </c>
       <c r="L9">
-        <v>0.0001032931167420872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.7567205497513649E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -871,28 +1995,28 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>903</v>
+        <v>83</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01788960397609135</v>
+        <v>-1.7889603976091351E-2</v>
       </c>
       <c r="J10">
-        <v>0.8831700141519032</v>
+        <v>0.88317001415190322</v>
       </c>
       <c r="K10">
-        <v>-0.01605248793883186</v>
+        <v>-2.1745521452022229E-2</v>
       </c>
       <c r="L10">
-        <v>0.9118983828429555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.88084937555910936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -909,28 +2033,28 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>903</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.0319066731228802</v>
+        <v>-2.439922062337898E-2</v>
       </c>
       <c r="J11">
-        <v>0.7837672300250216</v>
+        <v>0.83378844789272755</v>
       </c>
       <c r="K11">
-        <v>-0.03045075791865187</v>
+        <v>-2.8051607294758089E-2</v>
       </c>
       <c r="L11">
-        <v>0.8337285990222609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.84666464123863983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -947,28 +2071,28 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>903</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2441570787714312</v>
+        <v>-0.25161225674918491</v>
       </c>
       <c r="J12">
-        <v>0.03455416553919029</v>
+        <v>2.940004335865699E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3094340106343606</v>
+        <v>-0.31183200892839741</v>
       </c>
       <c r="L12">
-        <v>0.02876701130235894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.7488825966879269E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -985,28 +2109,28 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4535394202249742</v>
+        <v>0.36514837167011083</v>
       </c>
       <c r="J13">
-        <v>0.08070214265077501</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K13">
-        <v>-0.5512130501182249</v>
+        <v>0.42640143271122077</v>
       </c>
       <c r="L13">
-        <v>0.09862398123473154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1023,28 +2147,28 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.02387049580131443</v>
+        <v>0.73029674334022154</v>
       </c>
       <c r="J14">
-        <v>0.92675547372309</v>
+        <v>1.0515245935858911E-2</v>
       </c>
       <c r="K14">
-        <v>-0.09290107586262218</v>
+        <v>0.85280286542244166</v>
       </c>
       <c r="L14">
-        <v>0.7985237548304135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.712874149321468E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1061,28 +2185,28 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.09656090991705352</v>
+        <v>0.73854894587599651</v>
       </c>
       <c r="J15">
-        <v>0.7120793980044939</v>
+        <v>1.0282048221948951E-2</v>
       </c>
       <c r="K15">
-        <v>0.1428819499477476</v>
+        <v>0.85539892276830165</v>
       </c>
       <c r="L15">
-        <v>0.6937488280957302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.600453316805279E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1099,28 +2223,28 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.7399853698407473</v>
+        <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.004375235749920733</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K16">
-        <v>-0.8670767080511405</v>
+        <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.001159768265192443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1137,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.3103164454170876</v>
+        <v>-0.54772255750516619</v>
       </c>
       <c r="J17">
-        <v>0.2320634889020341</v>
+        <v>5.5008833629265723E-2</v>
       </c>
       <c r="K17">
-        <v>-0.4149581388530457</v>
+        <v>-0.63960214906683133</v>
       </c>
       <c r="L17">
-        <v>0.233093730241445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.6434617671581753E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1175,28 +2299,28 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.4535394202249742</v>
+        <v>-0.36514837167011083</v>
       </c>
       <c r="J18">
-        <v>0.08070214265077501</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K18">
-        <v>0.5635998602332413</v>
+        <v>-0.42640143271122077</v>
       </c>
       <c r="L18">
-        <v>0.08974939558201678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1213,28 +2337,28 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.4828045495852675</v>
+        <v>-0.30772872744833191</v>
       </c>
       <c r="J19">
-        <v>0.06499039472076076</v>
+        <v>0.28495764066842988</v>
       </c>
       <c r="K19">
-        <v>0.5932707052178214</v>
+        <v>-0.35641621782012572</v>
       </c>
       <c r="L19">
-        <v>0.0706202179291523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.31206113232683802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1251,28 +2375,28 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.3580574370197164</v>
+        <v>0.3042903097250923</v>
       </c>
       <c r="J20">
-        <v>0.1679207532945924</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K20">
-        <v>-0.4954724046006516</v>
+        <v>0.35533452725935072</v>
       </c>
       <c r="L20">
-        <v>0.1453294522910624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1289,28 +2413,28 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.4535394202249742</v>
+        <v>-0.36514837167011083</v>
       </c>
       <c r="J21">
-        <v>0.08070214265077501</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K21">
-        <v>-0.6007602905782901</v>
+        <v>-0.42640143271122077</v>
       </c>
       <c r="L21">
-        <v>0.06625295074379814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1327,28 +2451,28 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1193524790065721</v>
+        <v>0.3042903097250923</v>
       </c>
       <c r="J22">
-        <v>0.6457756768370824</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K22">
-        <v>0.1486417213801955</v>
+        <v>0.35533452725935072</v>
       </c>
       <c r="L22">
-        <v>0.6819355638686473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1365,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.167093470609201</v>
+        <v>0.36514837167011083</v>
       </c>
       <c r="J23">
-        <v>0.5199036173455835</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K23">
-        <v>0.2725098225303584</v>
+        <v>0.42640143271122077</v>
       </c>
       <c r="L23">
-        <v>0.446215643690079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1403,28 +2527,28 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.3580574370197164</v>
+        <v>-0.42600643361512919</v>
       </c>
       <c r="J24">
-        <v>0.1679207532945924</v>
+        <v>0.13559300126630219</v>
       </c>
       <c r="K24">
-        <v>-0.4706987843706191</v>
+        <v>-0.497468338163091</v>
       </c>
       <c r="L24">
-        <v>0.1697475039817557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.14346146559508571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1441,28 +2565,28 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1807753815155468</v>
+        <v>-0.10232343558582011</v>
       </c>
       <c r="J25">
-        <v>0.3541954904764164</v>
+        <v>0.63773289005018841</v>
       </c>
       <c r="K25">
-        <v>-0.2576049186596542</v>
+        <v>-0.12157835800107809</v>
       </c>
       <c r="L25">
-        <v>0.3354345184285685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.65376710935384819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1479,28 +2603,28 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1807753815155468</v>
+        <v>-1.4617633655117149E-2</v>
       </c>
       <c r="J26">
-        <v>0.3541954904764164</v>
+        <v>0.94636892512423998</v>
       </c>
       <c r="K26">
-        <v>-0.2666436877354316</v>
+        <v>-1.736833685729687E-2</v>
       </c>
       <c r="L26">
-        <v>0.3181414648703181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.94909603273704102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1517,28 +2641,28 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3539900381483285</v>
+        <v>0.27889955205754868</v>
       </c>
       <c r="J27">
-        <v>0.07056136851892029</v>
+        <v>0.20089032653971309</v>
       </c>
       <c r="K27">
-        <v>0.4341802833034056</v>
+        <v>0.3302413141237342</v>
       </c>
       <c r="L27">
-        <v>0.09288178063084394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.21158246186830859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1555,28 +2679,28 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1647705109143269</v>
+        <v>-0.16284238361758671</v>
       </c>
       <c r="J28">
-        <v>0.4027546538976249</v>
+        <v>0.45801098838521898</v>
       </c>
       <c r="K28">
-        <v>-0.2493004677260264</v>
+        <v>-0.19161611347062391</v>
       </c>
       <c r="L28">
-        <v>0.3517858440384553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.4771333722542902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1593,1120 +2717,40 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.1265427670608828</v>
+        <v>-0.24849977213699159</v>
       </c>
       <c r="J29">
-        <v>0.5166373798159882</v>
+        <v>0.25281290101640808</v>
       </c>
       <c r="K29">
-        <v>-0.1491396897503261</v>
+        <v>-0.29526172657404681</v>
       </c>
       <c r="L29">
-        <v>0.5814513259975999</v>
+        <v>0.26690125229506823</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>-0.2277100170213244</v>
-      </c>
-      <c r="J2">
-        <v>0.2003280221869526</v>
-      </c>
-      <c r="K2">
-        <v>-0.2719723502938716</v>
-      </c>
-      <c r="L2">
-        <v>0.2093250956596323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>-0.263477777620917</v>
-      </c>
-      <c r="J3">
-        <v>0.1329850671160174</v>
-      </c>
-      <c r="K3">
-        <v>-0.3201778730528596</v>
-      </c>
-      <c r="L3">
-        <v>0.1363764100850406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0.2297034206521828</v>
-      </c>
-      <c r="J4">
-        <v>0.187290841633909</v>
-      </c>
-      <c r="K4">
-        <v>0.2809695424230301</v>
-      </c>
-      <c r="L4">
-        <v>0.1940516726155841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>52</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>-0.2289041597670328</v>
-      </c>
-      <c r="J9">
-        <v>0.004154062204876697</v>
-      </c>
-      <c r="K9">
-        <v>-0.2872671746617843</v>
-      </c>
-      <c r="L9">
-        <v>0.003756720549751365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>83</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <v>-0.01788960397609135</v>
-      </c>
-      <c r="J10">
-        <v>0.8831700141519032</v>
-      </c>
-      <c r="K10">
-        <v>-0.02174552145202223</v>
-      </c>
-      <c r="L10">
-        <v>0.8808493755591094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>83</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-      <c r="I11">
-        <v>-0.02439922062337898</v>
-      </c>
-      <c r="J11">
-        <v>0.8337884478927275</v>
-      </c>
-      <c r="K11">
-        <v>-0.02805160729475809</v>
-      </c>
-      <c r="L11">
-        <v>0.8466646412386398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>28</v>
-      </c>
-      <c r="G12">
-        <v>83</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <v>-0.2516122567491849</v>
-      </c>
-      <c r="J12">
-        <v>0.02940004335865699</v>
-      </c>
-      <c r="K12">
-        <v>-0.3118320089283974</v>
-      </c>
-      <c r="L12">
-        <v>0.02748882596687927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0.3651483716701108</v>
-      </c>
-      <c r="J13">
-        <v>0.2008251226951454</v>
-      </c>
-      <c r="K13">
-        <v>0.4264014327112208</v>
-      </c>
-      <c r="L13">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0.7302967433402215</v>
-      </c>
-      <c r="J14">
-        <v>0.01051524593585891</v>
-      </c>
-      <c r="K14">
-        <v>0.8528028654224417</v>
-      </c>
-      <c r="L14">
-        <v>0.001712874149321468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.7385489458759965</v>
-      </c>
-      <c r="J15">
-        <v>0.01028204822194895</v>
-      </c>
-      <c r="K15">
-        <v>0.8553989227683017</v>
-      </c>
-      <c r="L15">
-        <v>0.001600453316805279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>-0.1217161238900369</v>
-      </c>
-      <c r="J16">
-        <v>0.6698153575994166</v>
-      </c>
-      <c r="K16">
-        <v>-0.1421338109037403</v>
-      </c>
-      <c r="L16">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>-0.5477225575051662</v>
-      </c>
-      <c r="J17">
-        <v>0.05500883362926572</v>
-      </c>
-      <c r="K17">
-        <v>-0.6396021490668313</v>
-      </c>
-      <c r="L17">
-        <v>0.04643461767158175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>-0.3651483716701108</v>
-      </c>
-      <c r="J18">
-        <v>0.2008251226951454</v>
-      </c>
-      <c r="K18">
-        <v>-0.4264014327112208</v>
-      </c>
-      <c r="L18">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>-0.3077287274483319</v>
-      </c>
-      <c r="J19">
-        <v>0.2849576406684299</v>
-      </c>
-      <c r="K19">
-        <v>-0.3564162178201257</v>
-      </c>
-      <c r="L19">
-        <v>0.312061132326838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0.3042903097250923</v>
-      </c>
-      <c r="J20">
-        <v>0.2864220227778588</v>
-      </c>
-      <c r="K20">
-        <v>0.3553345272593507</v>
-      </c>
-      <c r="L20">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>-0.3651483716701108</v>
-      </c>
-      <c r="J21">
-        <v>0.2008251226951454</v>
-      </c>
-      <c r="K21">
-        <v>-0.4264014327112208</v>
-      </c>
-      <c r="L21">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0.3042903097250923</v>
-      </c>
-      <c r="J22">
-        <v>0.2864220227778588</v>
-      </c>
-      <c r="K22">
-        <v>0.3553345272593507</v>
-      </c>
-      <c r="L22">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0.3651483716701108</v>
-      </c>
-      <c r="J23">
-        <v>0.2008251226951454</v>
-      </c>
-      <c r="K23">
-        <v>0.4264014327112208</v>
-      </c>
-      <c r="L23">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>-0.4260064336151292</v>
-      </c>
-      <c r="J24">
-        <v>0.1355930012663022</v>
-      </c>
-      <c r="K24">
-        <v>-0.497468338163091</v>
-      </c>
-      <c r="L24">
-        <v>0.1434614655950857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>-0.1023234355858201</v>
-      </c>
-      <c r="J25">
-        <v>0.6377328900501884</v>
-      </c>
-      <c r="K25">
-        <v>-0.1215783580010781</v>
-      </c>
-      <c r="L25">
-        <v>0.6537671093538482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>-0.01461763365511715</v>
-      </c>
-      <c r="J26">
-        <v>0.94636892512424</v>
-      </c>
-      <c r="K26">
-        <v>-0.01736833685729687</v>
-      </c>
-      <c r="L26">
-        <v>0.949096032737041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>0.2788995520575487</v>
-      </c>
-      <c r="J27">
-        <v>0.2008903265397131</v>
-      </c>
-      <c r="K27">
-        <v>0.3302413141237342</v>
-      </c>
-      <c r="L27">
-        <v>0.2115824618683086</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>-0.1628423836175867</v>
-      </c>
-      <c r="J28">
-        <v>0.458010988385219</v>
-      </c>
-      <c r="K28">
-        <v>-0.1916161134706239</v>
-      </c>
-      <c r="L28">
-        <v>0.4771333722542902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>-0.2484997721369916</v>
-      </c>
-      <c r="J29">
-        <v>0.2528129010164081</v>
-      </c>
-      <c r="K29">
-        <v>-0.2952617265740468</v>
-      </c>
-      <c r="L29">
-        <v>0.2669012522950682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2722,7 +2766,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2786,19 +2830,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.1707825127659933</v>
+        <v>-0.17078251276599329</v>
       </c>
       <c r="J2">
         <v>0.3368221511559395</v>
       </c>
       <c r="K2">
-        <v>-0.2206327958702234</v>
+        <v>-0.22063279587022341</v>
       </c>
       <c r="L2">
-        <v>0.3117066831945562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.31170668319455619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2824,19 +2868,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.2155727271443866</v>
+        <v>-0.21557272714438661</v>
       </c>
       <c r="J3">
         <v>0.2189727791934982</v>
       </c>
       <c r="K3">
-        <v>-0.2830068271047704</v>
+        <v>-0.28300682710477038</v>
       </c>
       <c r="L3">
-        <v>0.1907013837125806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.19070138371258061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2865,16 +2909,16 @@
         <v>0.182178575000007</v>
       </c>
       <c r="J4">
-        <v>0.2956465760209075</v>
+        <v>0.29564657602090749</v>
       </c>
       <c r="K4">
-        <v>0.2404694281998906</v>
+        <v>0.24046942819989059</v>
       </c>
       <c r="L4">
-        <v>0.2690489763203219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.26904897632032188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2900,19 +2944,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.1113404428537808</v>
+        <v>-0.11134044285378079</v>
       </c>
       <c r="J5">
-        <v>0.6639079018776488</v>
+        <v>0.66390790187764881</v>
       </c>
       <c r="K5">
-        <v>-0.131013944022344</v>
+        <v>-0.13101394402234401</v>
       </c>
       <c r="L5">
-        <v>0.6848487144273757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.68484871442737572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2938,19 +2982,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.2597943666588219</v>
+        <v>-0.25979436665882188</v>
       </c>
       <c r="J6">
-        <v>0.3106354563374008</v>
+        <v>0.31063545633740081</v>
       </c>
       <c r="K6">
-        <v>-0.3056992027188027</v>
+        <v>-0.30569920271880269</v>
       </c>
       <c r="L6">
-        <v>0.3338931364506602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.33389313645066021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2976,19 +3020,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>0.1113404428537808</v>
+        <v>0.11134044285378079</v>
       </c>
       <c r="J7">
-        <v>0.6639079018776488</v>
+        <v>0.66390790187764881</v>
       </c>
       <c r="K7">
-        <v>0.131013944022344</v>
+        <v>0.13101394402234401</v>
       </c>
       <c r="L7">
-        <v>0.6848487144273757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.68484871442737572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3014,19 +3058,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>-0.2597943666588219</v>
+        <v>-0.25979436665882188</v>
       </c>
       <c r="J8">
-        <v>0.3106354563374008</v>
+        <v>0.31063545633740081</v>
       </c>
       <c r="K8">
-        <v>-0.3056992027188027</v>
+        <v>-0.30569920271880269</v>
       </c>
       <c r="L8">
-        <v>0.3338931364506602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.33389313645066021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3052,19 +3096,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459341</v>
+        <v>-0.15625137459340999</v>
       </c>
       <c r="J9">
-        <v>0.0301286154880051</v>
+        <v>3.0128615488005099E-2</v>
       </c>
       <c r="K9">
         <v>-0.2203331090972887</v>
       </c>
       <c r="L9">
-        <v>0.0276105659239954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.7610565923995401E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3090,19 +3134,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01391413642584883</v>
+        <v>-1.3914136425848831E-2</v>
       </c>
       <c r="J10">
-        <v>0.9090032366864784</v>
+        <v>0.90900323668647842</v>
       </c>
       <c r="K10">
-        <v>-0.01026612600739247</v>
+        <v>-1.0266126007392471E-2</v>
       </c>
       <c r="L10">
-        <v>0.9435901857829745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.94359018578297449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3128,19 +3172,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02815294687312959</v>
+        <v>-2.8152946873129591E-2</v>
       </c>
       <c r="J11">
-        <v>0.8086800956106934</v>
+        <v>0.80868009561069343</v>
       </c>
       <c r="K11">
-        <v>-0.0299893827986723</v>
+        <v>-2.99893827986723E-2</v>
       </c>
       <c r="L11">
-        <v>0.8362130272367809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.83621302723678093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3166,19 +3210,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.247884667760308</v>
+        <v>-0.24788466776030799</v>
       </c>
       <c r="J12">
-        <v>0.03188792894690582</v>
+        <v>3.1887928946905821E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3096184720415943</v>
+        <v>-0.30961847204159432</v>
       </c>
       <c r="L12">
-        <v>0.02866696147428332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.8666961474283319E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3204,19 +3248,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4787549991450212</v>
+        <v>-0.47875499914502118</v>
       </c>
       <c r="J13">
-        <v>0.07217560549492458</v>
+        <v>7.2175605494924577E-2</v>
       </c>
       <c r="K13">
-        <v>-0.6292853089020909</v>
+        <v>-0.62928530890209089</v>
       </c>
       <c r="L13">
-        <v>0.05124855216842294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.1248552168422938E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3242,19 +3286,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.2267786838055363</v>
+        <v>-0.22677868380553631</v>
       </c>
       <c r="J14">
-        <v>0.3943870594034554</v>
+        <v>0.39438705940345542</v>
       </c>
       <c r="K14">
-        <v>-0.2860387767736777</v>
+        <v>-0.28603877677367773</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.42302039244413581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3283,16 +3327,16 @@
         <v>-0.1019294382875251</v>
       </c>
       <c r="J15">
-        <v>0.7040542681897126</v>
+        <v>0.70405426818971262</v>
       </c>
       <c r="K15">
-        <v>-0.0765092055676006</v>
+        <v>-7.6509205567600602E-2</v>
       </c>
       <c r="L15">
         <v>0.8336123677972922</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3318,19 +3362,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.579545525280815</v>
+        <v>-0.57954552528081504</v>
       </c>
       <c r="J16">
-        <v>0.02951512807757192</v>
+        <v>2.9515128077571919E-2</v>
       </c>
       <c r="K16">
-        <v>-0.7119187333033755</v>
+        <v>-0.71191873330337552</v>
       </c>
       <c r="L16">
-        <v>0.02091481468718881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.091481468718881E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3356,19 +3400,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1259881576697424</v>
+        <v>-0.12598815766974239</v>
       </c>
       <c r="J17">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K17">
-        <v>-0.1906925178491184</v>
+        <v>-0.19069251784911839</v>
       </c>
       <c r="L17">
         <v>0.5977007516614028</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3394,19 +3438,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.579545525280815</v>
+        <v>0.57954552528081504</v>
       </c>
       <c r="J18">
-        <v>0.02951512807757192</v>
+        <v>2.9515128077571919E-2</v>
       </c>
       <c r="K18">
-        <v>0.7437008196115621</v>
+        <v>0.74370081961156209</v>
       </c>
       <c r="L18">
-        <v>0.01366958411527145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.3669584115271451E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3432,19 +3476,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.560611910581388</v>
+        <v>0.56061191058138804</v>
       </c>
       <c r="J19">
-        <v>0.0366903087793031</v>
+        <v>3.6690308779303099E-2</v>
       </c>
       <c r="K19">
-        <v>0.7172738021962557</v>
+        <v>0.71727380219625569</v>
       </c>
       <c r="L19">
-        <v>0.01954204435368506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.9542044353685058E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3470,19 +3514,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.4787549991450212</v>
+        <v>-0.47875499914502118</v>
       </c>
       <c r="J20">
-        <v>0.07217560549492458</v>
+        <v>7.2175605494924577E-2</v>
       </c>
       <c r="K20">
-        <v>-0.6419981434253655</v>
+        <v>-0.64199814342536554</v>
       </c>
       <c r="L20">
-        <v>0.04536158917864154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.536158917864154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3508,19 +3552,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2771739468734333</v>
+        <v>-0.27717394687343327</v>
       </c>
       <c r="J21">
-        <v>0.2978975979923409</v>
+        <v>0.29789759799234089</v>
       </c>
       <c r="K21">
-        <v>-0.3750286184365996</v>
+        <v>-0.37502861843659963</v>
       </c>
       <c r="L21">
-        <v>0.2855969029688312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.28559690296883122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3546,19 +3590,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1259881576697424</v>
+        <v>0.12598815766974239</v>
       </c>
       <c r="J22">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K22">
         <v>0.1461975970176575</v>
       </c>
       <c r="L22">
-        <v>0.6869410188538527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.68694101885385273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3584,19 +3628,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1259881576697424</v>
+        <v>0.12598815766974239</v>
       </c>
       <c r="J23">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K23">
-        <v>0.2161181868956676</v>
+        <v>0.21611818689566761</v>
       </c>
       <c r="L23">
-        <v>0.5487107060733141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.54871070607331407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3622,19 +3666,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2267786838055363</v>
+        <v>-0.22677868380553631</v>
       </c>
       <c r="J24">
-        <v>0.3943870594034554</v>
+        <v>0.39438705940345542</v>
       </c>
       <c r="K24">
-        <v>-0.3114644458202268</v>
+        <v>-0.31146444582022681</v>
       </c>
       <c r="L24">
-        <v>0.3810089567050594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.38100895670505941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3660,19 +3704,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>0.08475793795260131</v>
+        <v>8.4757937952601309E-2</v>
       </c>
       <c r="J25">
-        <v>0.6923284900281212</v>
+        <v>0.69232849002812125</v>
       </c>
       <c r="K25">
         <v>0.1099316484014564</v>
       </c>
       <c r="L25">
-        <v>0.685265005536689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.68526500553668901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3698,19 +3742,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>0.08475793795260131</v>
+        <v>8.4757937952601309E-2</v>
       </c>
       <c r="J26">
-        <v>0.6923284900281212</v>
+        <v>0.69232849002812125</v>
       </c>
       <c r="K26">
         <v>0.1099316484014564</v>
       </c>
       <c r="L26">
-        <v>0.685265005536689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.68526500553668901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3736,19 +3780,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3404532748240978</v>
+        <v>0.34045327482409782</v>
       </c>
       <c r="J27">
         <v>0.1131965364706231</v>
       </c>
       <c r="K27">
-        <v>0.4029530171380015</v>
+        <v>0.40295301713800152</v>
       </c>
       <c r="L27">
         <v>0.1217337691688223</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3774,19 +3818,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.4978586625371179</v>
+        <v>-0.49785866253711791</v>
       </c>
       <c r="J28">
-        <v>0.02133732054563453</v>
+        <v>2.1337320545634531E-2</v>
       </c>
       <c r="K28">
-        <v>-0.5769230769230769</v>
+        <v>-0.57692307692307687</v>
       </c>
       <c r="L28">
-        <v>0.01929785020805572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>1.929785020805572E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3812,30 +3856,31 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.01695158759052026</v>
+        <v>-1.6951587590520258E-2</v>
       </c>
       <c r="J29">
-        <v>0.9369217280976989</v>
+        <v>0.93692172809769891</v>
       </c>
       <c r="K29">
-        <v>-0.03834824944236852</v>
+        <v>-3.8348249442368518E-2</v>
       </c>
       <c r="L29">
-        <v>0.8878693028318899</v>
+        <v>0.88786930283188992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3851,7 +3896,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +3960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +4012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +4038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4019,7 +4064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +4090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +4116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4100,16 +4145,16 @@
         <v>-0.1325530043077417</v>
       </c>
       <c r="J9">
-        <v>0.1086826442074059</v>
+        <v>0.10868264420740591</v>
       </c>
       <c r="K9">
-        <v>-0.1612223880273475</v>
+        <v>-0.16122238802734751</v>
       </c>
       <c r="L9">
         <v>0.1090548020620709</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4135,19 +4180,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.004001088444105332</v>
+        <v>-4.0010884441053322E-3</v>
       </c>
       <c r="J10">
-        <v>0.9739374982488735</v>
+        <v>0.97393749824887355</v>
       </c>
       <c r="K10">
-        <v>-0.004014544573191041</v>
+        <v>-4.0145445731910407E-3</v>
       </c>
       <c r="L10">
-        <v>0.9779259755977681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.97792597559776806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4173,19 +4218,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.01888959038201153</v>
+        <v>-1.8889590382011531E-2</v>
       </c>
       <c r="J11">
         <v>0.8717029852220165</v>
       </c>
       <c r="K11">
-        <v>-0.02206154843492711</v>
+        <v>-2.2061548434927108E-2</v>
       </c>
       <c r="L11">
-        <v>0.8791305588586364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.87913055885863645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4211,19 +4256,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2476064162497625</v>
+        <v>-0.24760641624976251</v>
       </c>
       <c r="J12">
-        <v>0.0331142128596994</v>
+        <v>3.3114212859699399E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3099127537051835</v>
+        <v>-0.30991275370518351</v>
       </c>
       <c r="L12">
-        <v>0.02850794708171081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.850794708171081E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4261,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4290,16 +4335,16 @@
         <v>0.6085806194501846</v>
       </c>
       <c r="J14">
-        <v>0.03300625766123251</v>
+        <v>3.300625766123251E-2</v>
       </c>
       <c r="K14">
-        <v>0.7106690545187014</v>
+        <v>0.71066905451870144</v>
       </c>
       <c r="L14">
-        <v>0.02124449212877441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.1244492128774412E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4325,19 +4370,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.6770032003863301</v>
+        <v>0.67700320038633011</v>
       </c>
       <c r="J15">
-        <v>0.01865536081150319</v>
+        <v>1.865536081150319E-2</v>
       </c>
       <c r="K15">
-        <v>0.7841156792042765</v>
+        <v>0.78411567920427649</v>
       </c>
       <c r="L15">
-        <v>0.007255789526699558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>7.2557895266995576E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4366,16 +4411,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4404,16 +4449,16 @@
         <v>-0.3042903097250923</v>
       </c>
       <c r="J17">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K17">
-        <v>-0.3553345272593507</v>
+        <v>-0.35533452725935072</v>
       </c>
       <c r="L17">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4439,19 +4484,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.06085806194501846</v>
+        <v>6.0858061945018457E-2</v>
       </c>
       <c r="J18">
-        <v>0.8311704095417624</v>
+        <v>0.83117040954176236</v>
       </c>
       <c r="K18">
-        <v>0.07106690545187015</v>
+        <v>7.1066905451870152E-2</v>
       </c>
       <c r="L18">
-        <v>0.8453239136912953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.84532391369129534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4477,19 +4522,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.09231861823449956</v>
+        <v>9.2318618234499564E-2</v>
       </c>
       <c r="J19">
-        <v>0.7483812122920345</v>
+        <v>0.74838121229203447</v>
       </c>
       <c r="K19">
-        <v>0.1069248653460377</v>
+        <v>0.10692486534603771</v>
       </c>
       <c r="L19">
-        <v>0.7687577033932652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.76875770339326521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4515,19 +4560,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.06085806194501846</v>
+        <v>-6.0858061945018457E-2</v>
       </c>
       <c r="J20">
-        <v>0.8311704095417624</v>
+        <v>0.83117040954176236</v>
       </c>
       <c r="K20">
-        <v>-0.07106690545187015</v>
+        <v>-7.1066905451870152E-2</v>
       </c>
       <c r="L20">
-        <v>0.8453239136912953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.84532391369129534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4553,19 +4598,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2434322477800739</v>
+        <v>-0.24343224778007391</v>
       </c>
       <c r="J21">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K21">
-        <v>-0.2842676218074806</v>
+        <v>-0.28426762180748061</v>
       </c>
       <c r="L21">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4594,16 +4639,16 @@
         <v>0.1217161238900369</v>
       </c>
       <c r="J22">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K22">
         <v>0.1421338109037403</v>
       </c>
       <c r="L22">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4629,19 +4674,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.2434322477800739</v>
+        <v>0.24343224778007391</v>
       </c>
       <c r="J23">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K23">
-        <v>0.2842676218074806</v>
+        <v>0.28426762180748061</v>
       </c>
       <c r="L23">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4667,19 +4712,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2434322477800739</v>
+        <v>-0.24343224778007391</v>
       </c>
       <c r="J24">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K24">
-        <v>-0.2842676218074806</v>
+        <v>-0.28426762180748061</v>
       </c>
       <c r="L24">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4705,19 +4750,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.3535533905932737</v>
+        <v>-0.35355339059327368</v>
       </c>
       <c r="J25">
         <v>0.1037416782365415</v>
       </c>
       <c r="K25">
-        <v>-0.4200840252084029</v>
+        <v>-0.42008402520840288</v>
       </c>
       <c r="L25">
         <v>0.105228057983522</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4743,19 +4788,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1649915822768611</v>
+        <v>-0.16499158227686109</v>
       </c>
       <c r="J26">
         <v>0.4476990724652935</v>
       </c>
       <c r="K26">
-        <v>-0.1960392117639214</v>
+        <v>-0.19603921176392139</v>
       </c>
       <c r="L26">
         <v>0.4668248490265503</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4781,19 +4826,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.02366905341655754</v>
+        <v>2.3669053416557541E-2</v>
       </c>
       <c r="J27">
-        <v>0.9135633303377861</v>
+        <v>0.91356333033778614</v>
       </c>
       <c r="K27">
-        <v>0.02802621677476181</v>
+        <v>2.802621677476181E-2</v>
       </c>
       <c r="L27">
-        <v>0.9179387985999929</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.91793879859999294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4819,19 +4864,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.2625754538144587</v>
+        <v>-0.26257545381445868</v>
       </c>
       <c r="J28">
-        <v>0.2314460271038938</v>
+        <v>0.23144602710389381</v>
       </c>
       <c r="K28">
-        <v>-0.3089716991054783</v>
+        <v>-0.30897169910547828</v>
       </c>
       <c r="L28">
-        <v>0.2442606266224961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.24426062662249609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4857,13 +4902,13 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.2592724864350675</v>
+        <v>0.25927248643506751</v>
       </c>
       <c r="J29">
         <v>0.2328233516916538</v>
       </c>
       <c r="K29">
-        <v>0.3080616184861621</v>
+        <v>0.30806161848616209</v>
       </c>
       <c r="L29">
         <v>0.2457251662216493</v>
@@ -4871,16 +4916,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -4896,7 +4942,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4960,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.2588600915717736</v>
+        <v>-0.25886009157177359</v>
       </c>
       <c r="J2">
         <v>0.1185826134820492</v>
@@ -4972,7 +5018,7 @@
         <v>0.157096814687567</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5001,16 +5047,16 @@
         <v>-0.3630554894720564</v>
       </c>
       <c r="J3">
-        <v>0.02649782086730554</v>
+        <v>2.6497820867305542E-2</v>
       </c>
       <c r="K3">
-        <v>-0.4471228632493155</v>
+        <v>-0.44712286324931549</v>
       </c>
       <c r="L3">
-        <v>0.03242678547292783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>3.2426785472927828E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5036,19 +5082,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.3826849293392768</v>
+        <v>0.38268492933927678</v>
       </c>
       <c r="J4">
-        <v>0.01856470797931634</v>
+        <v>1.856470797931634E-2</v>
       </c>
       <c r="K4">
-        <v>0.4532739558663172</v>
+        <v>0.45327395586631719</v>
       </c>
       <c r="L4">
-        <v>0.0298421137496698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.9842113749669798E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5077,16 +5123,16 @@
         <v>-0.2018433569398328</v>
       </c>
       <c r="J5">
-        <v>0.4065712940338708</v>
+        <v>0.40657129403387082</v>
       </c>
       <c r="K5">
         <v>-0.2056848110006326</v>
       </c>
       <c r="L5">
-        <v>0.521309719682044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.52130971968204398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5112,10 +5158,10 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.2385421491107114</v>
+        <v>-0.23854214911071139</v>
       </c>
       <c r="J6">
-        <v>0.326671088638757</v>
+        <v>0.32667108863875699</v>
       </c>
       <c r="K6">
         <v>-0.2437745908155646</v>
@@ -5124,7 +5170,7 @@
         <v>0.4451488240391529</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5150,19 +5196,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.4954336943068622</v>
+        <v>-0.49543369430686218</v>
       </c>
       <c r="J7">
-        <v>0.0416368567827736</v>
+        <v>4.1636856782773603E-2</v>
       </c>
       <c r="K7">
-        <v>-0.5561107852980067</v>
+        <v>-0.55611078529800673</v>
       </c>
       <c r="L7">
-        <v>0.06043495620092659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.0434956200926593E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5188,19 +5234,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.3486385256233475</v>
+        <v>0.34863852562334752</v>
       </c>
       <c r="J8">
-        <v>0.1517044197305971</v>
+        <v>0.15170441973059709</v>
       </c>
       <c r="K8">
-        <v>0.4037516660382788</v>
+        <v>0.40375166603827878</v>
       </c>
       <c r="L8">
-        <v>0.1930534976448194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.19305349764481941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5226,19 +5272,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2153978895161592</v>
+        <v>-0.21539788951615921</v>
       </c>
       <c r="J9">
-        <v>0.003422549212990788</v>
+        <v>3.4225492129907882E-3</v>
       </c>
       <c r="K9">
-        <v>-0.3011065798445393</v>
+        <v>-0.30110657984453931</v>
       </c>
       <c r="L9">
-        <v>0.002333088653324443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.3330886533244428E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5264,19 +5310,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.02584053907657639</v>
+        <v>-2.584053907657639E-2</v>
       </c>
       <c r="J10">
-        <v>0.8319012317886401</v>
+        <v>0.83190123178864006</v>
       </c>
       <c r="K10">
-        <v>-0.02491868767248899</v>
+        <v>-2.491868767248899E-2</v>
       </c>
       <c r="L10">
-        <v>0.8636170341288709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.86361703412887092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5302,19 +5348,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02439922062337898</v>
+        <v>-2.439922062337898E-2</v>
       </c>
       <c r="J11">
-        <v>0.8337884478927275</v>
+        <v>0.83378844789272755</v>
       </c>
       <c r="K11">
-        <v>-0.02888208251072132</v>
+        <v>-2.8882082510721319E-2</v>
       </c>
       <c r="L11">
-        <v>0.8421820698041393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.84218206980413934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5340,19 +5386,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2516122567491849</v>
+        <v>-0.25161225674918491</v>
       </c>
       <c r="J12">
-        <v>0.02940004335865699</v>
+        <v>2.940004335865699E-2</v>
       </c>
       <c r="K12">
-        <v>-0.311094163299463</v>
+        <v>-0.31109416329946299</v>
       </c>
       <c r="L12">
-        <v>0.02787696039183273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.7876960391832729E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5378,19 +5424,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.04969039949999533</v>
+        <v>4.9690399499995333E-2</v>
       </c>
       <c r="J13">
-        <v>0.8509806870320558</v>
+        <v>0.85098068703205576</v>
       </c>
       <c r="K13">
-        <v>0.01262892050706804</v>
+        <v>1.262892050706804E-2</v>
       </c>
       <c r="L13">
-        <v>0.9723786419920799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.97237864199207991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5416,19 +5462,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.149071198499986</v>
+        <v>-0.14907119849998601</v>
       </c>
       <c r="J14">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K14">
         <v>-0.1894338076060206</v>
       </c>
       <c r="L14">
-        <v>0.6001664342511973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.60016643425119731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5454,19 +5500,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1256297269074015</v>
+        <v>-0.12562972690740151</v>
       </c>
       <c r="J15">
-        <v>0.6374017405958849</v>
+        <v>0.63740174059588495</v>
       </c>
       <c r="K15">
-        <v>-0.152008377581442</v>
+        <v>-0.15200837758144201</v>
       </c>
       <c r="L15">
-        <v>0.6750590889374006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.67505908893740063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5492,19 +5538,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.298142396999972</v>
+        <v>-0.29814239699997203</v>
       </c>
       <c r="J16">
-        <v>0.2596563563704499</v>
+        <v>0.25965635637044993</v>
       </c>
       <c r="K16">
-        <v>-0.3788676152120412</v>
+        <v>-0.37886761521204121</v>
       </c>
       <c r="L16">
-        <v>0.2802942824523375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.28029428245233751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5533,16 +5579,16 @@
         <v>-0.1987615979999813</v>
       </c>
       <c r="J17">
-        <v>0.4523703606773608</v>
+        <v>0.45237036067736081</v>
       </c>
       <c r="K17">
-        <v>-0.3409808536908371</v>
+        <v>-0.34098085369083708</v>
       </c>
       <c r="L17">
-        <v>0.3349456951179903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.33494569511799033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5568,19 +5614,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.149071198499986</v>
+        <v>0.14907119849998601</v>
       </c>
       <c r="J18">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K18">
-        <v>0.1641759665918845</v>
+        <v>0.16417596659188449</v>
       </c>
       <c r="L18">
-        <v>0.6503895621649565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.65038956216495647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5606,19 +5652,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.07537783614444091</v>
+        <v>7.5377836144440907E-2</v>
       </c>
       <c r="J19">
-        <v>0.7773295263554205</v>
+        <v>0.77732952635542052</v>
       </c>
       <c r="K19">
         <v>0.1076726007868547</v>
       </c>
       <c r="L19">
-        <v>0.7671778789420547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.76717787894205469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5644,19 +5690,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.09938079899999065</v>
+        <v>-9.9380798999990652E-2</v>
       </c>
       <c r="J20">
         <v>0.7071142312899612</v>
       </c>
       <c r="K20">
-        <v>-0.1262892050706804</v>
+        <v>-0.12628920507068039</v>
       </c>
       <c r="L20">
-        <v>0.7281063840216824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.72810638402168237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5682,19 +5728,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.149071198499986</v>
+        <v>-0.14907119849998601</v>
       </c>
       <c r="J21">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K21">
         <v>-0.2399494896342928</v>
       </c>
       <c r="L21">
-        <v>0.5043017190353258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.50430171903532583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5720,19 +5766,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3975231959999626</v>
+        <v>0.39752319599996261</v>
       </c>
       <c r="J22">
         <v>0.1328549557310538</v>
       </c>
       <c r="K22">
-        <v>0.5304146612968577</v>
+        <v>0.53041466129685766</v>
       </c>
       <c r="L22">
         <v>0.1147392659290222</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5758,19 +5804,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.298142396999972</v>
+        <v>0.29814239699997203</v>
       </c>
       <c r="J23">
-        <v>0.2596563563704499</v>
+        <v>0.25965635637044993</v>
       </c>
       <c r="K23">
-        <v>0.4041254562261773</v>
+        <v>0.40412545622617729</v>
       </c>
       <c r="L23">
-        <v>0.2467547295422347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.24675472954223471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5799,16 +5845,16 @@
         <v>-0.2484519974999766</v>
       </c>
       <c r="J24">
-        <v>0.347558036741169</v>
+        <v>0.34755803674116897</v>
       </c>
       <c r="K24">
-        <v>-0.4293832972403134</v>
+        <v>-0.42938329724031338</v>
       </c>
       <c r="L24">
-        <v>0.2155824117700313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.21558241177003129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5834,7 +5880,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.31352722326441002</v>
       </c>
       <c r="J25">
         <v>0.1131685336545776</v>
@@ -5843,10 +5889,10 @@
         <v>-0.4479914656638877</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>8.1821435051218708E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5875,16 +5921,16 @@
         <v>-0.3872983346207417</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>5.0365975790328012E-2</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.50701736823446741</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>4.5019308756935668E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5910,19 +5956,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>8.3340478742421134E-2</v>
       </c>
       <c r="J27">
         <v>0.6747078413451294</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>8.0273734629878232E-2</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.76759265155118128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5948,19 +5994,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>9.3388635780087617E-2</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.64014984145862264</v>
       </c>
       <c r="K28">
         <v>0.1305442024324843</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.62988406192489643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5986,19 +6032,20 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.12909944487358049</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.51421999881555058</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.16194286089877019</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.54903760923243294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9675CDC-A23B-4ED3-A445-1A8CBFCEE988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="all_tools" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="infer" sheetId="4" r:id="rId4"/>
     <sheet name="openjml" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -141,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +204,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,27 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,24 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,1140 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>-0.33772774774302539</v>
-      </c>
-      <c r="J2">
-        <v>3.7619414014275793E-2</v>
-      </c>
-      <c r="K2">
-        <v>-0.39768022528514663</v>
-      </c>
-      <c r="L2">
-        <v>6.0216356265286271E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>-0.42754829069287381</v>
-      </c>
-      <c r="J3">
-        <v>7.6410404822778357E-3</v>
-      </c>
-      <c r="K3">
-        <v>-0.54528674124323695</v>
-      </c>
-      <c r="L3">
-        <v>7.124393687845218E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0.41117066001056379</v>
-      </c>
-      <c r="J4">
-        <v>9.8210126151251805E-3</v>
-      </c>
-      <c r="K4">
-        <v>0.53600031718611207</v>
-      </c>
-      <c r="L4">
-        <v>8.3820912440796345E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>-0.31333978072025609</v>
-      </c>
-      <c r="J5">
-        <v>0.18846999090100591</v>
-      </c>
-      <c r="K5">
-        <v>-0.31783041284413188</v>
-      </c>
-      <c r="L5">
-        <v>0.31406107950112661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>-0.45260190548481433</v>
-      </c>
-      <c r="J6">
-        <v>5.7483531731336357E-2</v>
-      </c>
-      <c r="K6">
-        <v>-0.46935421431633428</v>
-      </c>
-      <c r="L6">
-        <v>0.12370498159100569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>-0.38297084310253521</v>
-      </c>
-      <c r="J7">
-        <v>0.1079738014574666</v>
-      </c>
-      <c r="K7">
-        <v>-0.45826710689153899</v>
-      </c>
-      <c r="L7">
-        <v>0.13405987835546679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>0.13926212476455829</v>
-      </c>
-      <c r="J8">
-        <v>0.5588858290416201</v>
-      </c>
-      <c r="K8">
-        <v>0.20326363612124709</v>
-      </c>
-      <c r="L8">
-        <v>0.52633237245257225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>93</v>
-      </c>
-      <c r="G9">
-        <v>829</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>-0.24781837462692349</v>
-      </c>
-      <c r="J9">
-        <v>3.7575890366249538E-4</v>
-      </c>
-      <c r="K9">
-        <v>-0.37848331556821152</v>
-      </c>
-      <c r="L9">
-        <v>1.032931167420872E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>903</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <v>-1.7889603976091351E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.88317001415190322</v>
-      </c>
-      <c r="K10">
-        <v>-1.605248793883186E-2</v>
-      </c>
-      <c r="L10">
-        <v>0.91189838284295555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>903</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-      <c r="I11">
-        <v>-3.1906673122880203E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.78376723002502158</v>
-      </c>
-      <c r="K11">
-        <v>-3.0450757918651868E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.83372859902226093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>48</v>
-      </c>
-      <c r="G12">
-        <v>903</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <v>-0.2441570787714312</v>
-      </c>
-      <c r="J12">
-        <v>3.4554165539190287E-2</v>
-      </c>
-      <c r="K12">
-        <v>-0.3094340106343606</v>
-      </c>
-      <c r="L12">
-        <v>2.8767011302358939E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>71</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>-0.45353942022497418</v>
-      </c>
-      <c r="J13">
-        <v>8.0702142650775008E-2</v>
-      </c>
-      <c r="K13">
-        <v>-0.55121305011822486</v>
-      </c>
-      <c r="L13">
-        <v>9.8623981234731539E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>71</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>-2.387049580131443E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.92675547372308997</v>
-      </c>
-      <c r="K14">
-        <v>-9.2901075862622182E-2</v>
-      </c>
-      <c r="L14">
-        <v>0.79852375483041349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>71</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>9.6560909917053517E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.71207939800449394</v>
-      </c>
-      <c r="K15">
-        <v>0.14288194994774761</v>
-      </c>
-      <c r="L15">
-        <v>0.69374882809573024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>71</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>-0.73998536984074725</v>
-      </c>
-      <c r="J16">
-        <v>4.375235749920733E-3</v>
-      </c>
-      <c r="K16">
-        <v>-0.86707670805114045</v>
-      </c>
-      <c r="L16">
-        <v>1.1597682651924429E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>71</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>-0.31031644541708758</v>
-      </c>
-      <c r="J17">
-        <v>0.2320634889020341</v>
-      </c>
-      <c r="K17">
-        <v>-0.41495813885304572</v>
-      </c>
-      <c r="L17">
-        <v>0.233093730241445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>71</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0.45353942022497418</v>
-      </c>
-      <c r="J18">
-        <v>8.0702142650775008E-2</v>
-      </c>
-      <c r="K18">
-        <v>0.56359986023324127</v>
-      </c>
-      <c r="L18">
-        <v>8.9749395582016778E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>71</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>0.48280454958526747</v>
-      </c>
-      <c r="J19">
-        <v>6.4990394720760764E-2</v>
-      </c>
-      <c r="K19">
-        <v>0.59327070521782144</v>
-      </c>
-      <c r="L19">
-        <v>7.0620217929152296E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>71</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>-0.35805743701971637</v>
-      </c>
-      <c r="J20">
-        <v>0.16792075329459241</v>
-      </c>
-      <c r="K20">
-        <v>-0.49547240460065162</v>
-      </c>
-      <c r="L20">
-        <v>0.14532945229106239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>71</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>-0.45353942022497418</v>
-      </c>
-      <c r="J21">
-        <v>8.0702142650775008E-2</v>
-      </c>
-      <c r="K21">
-        <v>-0.60076029057829006</v>
-      </c>
-      <c r="L21">
-        <v>6.6252950743798139E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>71</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0.1193524790065721</v>
-      </c>
-      <c r="J22">
-        <v>0.64577567683708237</v>
-      </c>
-      <c r="K22">
-        <v>0.14864172138019549</v>
-      </c>
-      <c r="L22">
-        <v>0.68193556386864729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>71</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0.16709347060920099</v>
-      </c>
-      <c r="J23">
-        <v>0.51990361734558355</v>
-      </c>
-      <c r="K23">
-        <v>0.27250982253035838</v>
-      </c>
-      <c r="L23">
-        <v>0.44621564369007899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>71</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>-0.35805743701971637</v>
-      </c>
-      <c r="J24">
-        <v>0.16792075329459241</v>
-      </c>
-      <c r="K24">
-        <v>-0.47069878437061913</v>
-      </c>
-      <c r="L24">
-        <v>0.1697475039817557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>39</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>-0.18077538151554681</v>
-      </c>
-      <c r="J25">
-        <v>0.35419549047641641</v>
-      </c>
-      <c r="K25">
-        <v>-0.25760491865965418</v>
-      </c>
-      <c r="L25">
-        <v>0.33543451842856847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>39</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>-0.18077538151554681</v>
-      </c>
-      <c r="J26">
-        <v>0.35419549047641641</v>
-      </c>
-      <c r="K26">
-        <v>-0.26664368773543162</v>
-      </c>
-      <c r="L26">
-        <v>0.31814146487031808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>39</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>0.35399003814832852</v>
-      </c>
-      <c r="J27">
-        <v>7.0561368518920295E-2</v>
-      </c>
-      <c r="K27">
-        <v>0.43418028330340558</v>
-      </c>
-      <c r="L27">
-        <v>9.2881780630843944E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>39</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>-0.1647705109143269</v>
-      </c>
-      <c r="J28">
-        <v>0.40275465389762488</v>
-      </c>
-      <c r="K28">
-        <v>-0.2493004677260264</v>
-      </c>
-      <c r="L28">
-        <v>0.35178584403845531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>39</v>
-      </c>
-      <c r="H29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>-0.1265427670608828</v>
-      </c>
-      <c r="J29">
-        <v>0.51663737981598823</v>
-      </c>
-      <c r="K29">
-        <v>-0.1491396897503261</v>
-      </c>
-      <c r="L29">
-        <v>0.58145132599759985</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1680,11 +507,12 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1739,6 +567,1135 @@
         <v>23</v>
       </c>
       <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>-0.3377277477430254</v>
+      </c>
+      <c r="J2">
+        <v>0.03761941401427579</v>
+      </c>
+      <c r="K2">
+        <v>-0.3976802252851466</v>
+      </c>
+      <c r="L2">
+        <v>0.06021635626528627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>-0.4275482906928738</v>
+      </c>
+      <c r="J3">
+        <v>0.007641040482277836</v>
+      </c>
+      <c r="K3">
+        <v>-0.5452867412432369</v>
+      </c>
+      <c r="L3">
+        <v>0.007124393687845218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0.4111706600105638</v>
+      </c>
+      <c r="J4">
+        <v>0.00982101261512518</v>
+      </c>
+      <c r="K4">
+        <v>0.5360003171861121</v>
+      </c>
+      <c r="L4">
+        <v>0.008382091244079634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>-0.3133397807202561</v>
+      </c>
+      <c r="J5">
+        <v>0.1884699909010059</v>
+      </c>
+      <c r="K5">
+        <v>-0.3178304128441319</v>
+      </c>
+      <c r="L5">
+        <v>0.3140610795011266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>-0.4526019054848143</v>
+      </c>
+      <c r="J6">
+        <v>0.05748353173133636</v>
+      </c>
+      <c r="K6">
+        <v>-0.4693542143163343</v>
+      </c>
+      <c r="L6">
+        <v>0.1237049815910057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>-0.3829708431025352</v>
+      </c>
+      <c r="J7">
+        <v>0.1079738014574666</v>
+      </c>
+      <c r="K7">
+        <v>-0.458267106891539</v>
+      </c>
+      <c r="L7">
+        <v>0.1340598783554668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0.1392621247645583</v>
+      </c>
+      <c r="J8">
+        <v>0.5588858290416201</v>
+      </c>
+      <c r="K8">
+        <v>0.2032636361212471</v>
+      </c>
+      <c r="L8">
+        <v>0.5263323724525723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>94</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>-0.1679930849817192</v>
+      </c>
+      <c r="J9">
+        <v>0.01571209940531982</v>
+      </c>
+      <c r="K9">
+        <v>-0.2581562594294852</v>
+      </c>
+      <c r="L9">
+        <v>0.009508181415596517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>863</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>-0.01788960397609135</v>
+      </c>
+      <c r="J10">
+        <v>0.8831700141519032</v>
+      </c>
+      <c r="K10">
+        <v>-0.01605248793883186</v>
+      </c>
+      <c r="L10">
+        <v>0.9118983828429555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>863</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>-0.0319066731228802</v>
+      </c>
+      <c r="J11">
+        <v>0.7837672300250216</v>
+      </c>
+      <c r="K11">
+        <v>-0.03045075791865187</v>
+      </c>
+      <c r="L11">
+        <v>0.8337285990222609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>863</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>-0.2441570787714312</v>
+      </c>
+      <c r="J12">
+        <v>0.03455416553919029</v>
+      </c>
+      <c r="K12">
+        <v>-0.3094340106343606</v>
+      </c>
+      <c r="L12">
+        <v>0.02876701130235894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>-0.4535394202249742</v>
+      </c>
+      <c r="J13">
+        <v>0.08070214265077501</v>
+      </c>
+      <c r="K13">
+        <v>-0.5512130501182249</v>
+      </c>
+      <c r="L13">
+        <v>0.09862398123473154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>-0.02387049580131443</v>
+      </c>
+      <c r="J14">
+        <v>0.92675547372309</v>
+      </c>
+      <c r="K14">
+        <v>-0.09290107586262218</v>
+      </c>
+      <c r="L14">
+        <v>0.7985237548304135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.09656090991705352</v>
+      </c>
+      <c r="J15">
+        <v>0.7120793980044939</v>
+      </c>
+      <c r="K15">
+        <v>0.1428819499477476</v>
+      </c>
+      <c r="L15">
+        <v>0.6937488280957302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>71</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>-0.7399853698407473</v>
+      </c>
+      <c r="J16">
+        <v>0.004375235749920733</v>
+      </c>
+      <c r="K16">
+        <v>-0.8670767080511405</v>
+      </c>
+      <c r="L16">
+        <v>0.001159768265192443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>-0.3103164454170876</v>
+      </c>
+      <c r="J17">
+        <v>0.2320634889020341</v>
+      </c>
+      <c r="K17">
+        <v>-0.4149581388530457</v>
+      </c>
+      <c r="L17">
+        <v>0.233093730241445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0.4535394202249742</v>
+      </c>
+      <c r="J18">
+        <v>0.08070214265077501</v>
+      </c>
+      <c r="K18">
+        <v>0.5635998602332413</v>
+      </c>
+      <c r="L18">
+        <v>0.08974939558201678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0.4828045495852675</v>
+      </c>
+      <c r="J19">
+        <v>0.06499039472076076</v>
+      </c>
+      <c r="K19">
+        <v>0.5932707052178214</v>
+      </c>
+      <c r="L19">
+        <v>0.0706202179291523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>-0.3580574370197164</v>
+      </c>
+      <c r="J20">
+        <v>0.1679207532945924</v>
+      </c>
+      <c r="K20">
+        <v>-0.4954724046006516</v>
+      </c>
+      <c r="L20">
+        <v>0.1453294522910624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>-0.4535394202249742</v>
+      </c>
+      <c r="J21">
+        <v>0.08070214265077501</v>
+      </c>
+      <c r="K21">
+        <v>-0.6007602905782901</v>
+      </c>
+      <c r="L21">
+        <v>0.06625295074379814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0.1193524790065721</v>
+      </c>
+      <c r="J22">
+        <v>0.6457756768370824</v>
+      </c>
+      <c r="K22">
+        <v>0.1486417213801955</v>
+      </c>
+      <c r="L22">
+        <v>0.6819355638686473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>0.167093470609201</v>
+      </c>
+      <c r="J23">
+        <v>0.5199036173455835</v>
+      </c>
+      <c r="K23">
+        <v>0.2725098225303584</v>
+      </c>
+      <c r="L23">
+        <v>0.446215643690079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>-0.3580574370197164</v>
+      </c>
+      <c r="J24">
+        <v>0.1679207532945924</v>
+      </c>
+      <c r="K24">
+        <v>-0.4706987843706191</v>
+      </c>
+      <c r="L24">
+        <v>0.1697475039817557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>-0.1807753815155468</v>
+      </c>
+      <c r="J25">
+        <v>0.3541954904764164</v>
+      </c>
+      <c r="K25">
+        <v>-0.2576049186596542</v>
+      </c>
+      <c r="L25">
+        <v>0.3354345184285685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>-0.1807753815155468</v>
+      </c>
+      <c r="J26">
+        <v>0.3541954904764164</v>
+      </c>
+      <c r="K26">
+        <v>-0.2666436877354316</v>
+      </c>
+      <c r="L26">
+        <v>0.3181414648703181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0.3539900381483285</v>
+      </c>
+      <c r="J27">
+        <v>0.07056136851892029</v>
+      </c>
+      <c r="K27">
+        <v>0.4341802833034056</v>
+      </c>
+      <c r="L27">
+        <v>0.09288178063084394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>-0.1647705109143269</v>
+      </c>
+      <c r="J28">
+        <v>0.4027546538976249</v>
+      </c>
+      <c r="K28">
+        <v>-0.2493004677260264</v>
+      </c>
+      <c r="L28">
+        <v>0.3517858440384553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>-0.1265427670608828</v>
+      </c>
+      <c r="J29">
+        <v>0.5166373798159882</v>
+      </c>
+      <c r="K29">
+        <v>-0.1491396897503261</v>
+      </c>
+      <c r="L29">
+        <v>0.5814513259975999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
@@ -1751,16 +1708,16 @@
         <v>-0.2277100170213244</v>
       </c>
       <c r="J2">
-        <v>0.20032802218695259</v>
+        <v>0.2003280221869526</v>
       </c>
       <c r="K2">
-        <v>-0.27197235029387162</v>
+        <v>-0.2719723502938716</v>
       </c>
       <c r="L2">
-        <v>0.20932509565963231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2093250956596323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1786,19 +1743,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.26347777762091701</v>
+        <v>-0.263477777620917</v>
       </c>
       <c r="J3">
         <v>0.1329850671160174</v>
       </c>
       <c r="K3">
-        <v>-0.32017787305285961</v>
+        <v>-0.3201778730528596</v>
       </c>
       <c r="L3">
-        <v>0.13637641008504059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1363764100850406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1827,16 +1784,16 @@
         <v>0.2297034206521828</v>
       </c>
       <c r="J4">
-        <v>0.18729084163390899</v>
+        <v>0.187290841633909</v>
       </c>
       <c r="K4">
-        <v>0.28096954242303013</v>
+        <v>0.2809695424230301</v>
       </c>
       <c r="L4">
-        <v>0.19405167261558409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1940516726155841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1862,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1940,7 +1897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1966,19 +1923,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.22890415976703279</v>
+        <v>-0.2289041597670328</v>
       </c>
       <c r="J9">
-        <v>4.1540622048766972E-3</v>
+        <v>0.004154062204876697</v>
       </c>
       <c r="K9">
-        <v>-0.28726717466178431</v>
+        <v>-0.2872671746617843</v>
       </c>
       <c r="L9">
-        <v>3.7567205497513649E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.003756720549751365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2004,19 +1961,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-1.7889603976091351E-2</v>
+        <v>-0.01788960397609135</v>
       </c>
       <c r="J10">
-        <v>0.88317001415190322</v>
+        <v>0.8831700141519032</v>
       </c>
       <c r="K10">
-        <v>-2.1745521452022229E-2</v>
+        <v>-0.02174552145202223</v>
       </c>
       <c r="L10">
-        <v>0.88084937555910936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8808493755591094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2042,19 +1999,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-2.439922062337898E-2</v>
+        <v>-0.02439922062337898</v>
       </c>
       <c r="J11">
-        <v>0.83378844789272755</v>
+        <v>0.8337884478927275</v>
       </c>
       <c r="K11">
-        <v>-2.8051607294758089E-2</v>
+        <v>-0.02805160729475809</v>
       </c>
       <c r="L11">
-        <v>0.84666464123863983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8466646412386398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2080,19 +2037,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.25161225674918491</v>
+        <v>-0.2516122567491849</v>
       </c>
       <c r="J12">
-        <v>2.940004335865699E-2</v>
+        <v>0.02940004335865699</v>
       </c>
       <c r="K12">
-        <v>-0.31183200892839741</v>
+        <v>-0.3118320089283974</v>
       </c>
       <c r="L12">
-        <v>2.7488825966879269E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02748882596687927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2118,19 +2075,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.36514837167011083</v>
+        <v>0.3651483716701108</v>
       </c>
       <c r="J13">
-        <v>0.20082512269514541</v>
+        <v>0.2008251226951454</v>
       </c>
       <c r="K13">
-        <v>0.42640143271122077</v>
+        <v>0.4264014327112208</v>
       </c>
       <c r="L13">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2156,19 +2113,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>0.73029674334022154</v>
+        <v>0.7302967433402215</v>
       </c>
       <c r="J14">
-        <v>1.0515245935858911E-2</v>
+        <v>0.01051524593585891</v>
       </c>
       <c r="K14">
-        <v>0.85280286542244166</v>
+        <v>0.8528028654224417</v>
       </c>
       <c r="L14">
-        <v>1.712874149321468E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.001712874149321468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2194,19 +2151,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.73854894587599651</v>
+        <v>0.7385489458759965</v>
       </c>
       <c r="J15">
-        <v>1.0282048221948951E-2</v>
+        <v>0.01028204822194895</v>
       </c>
       <c r="K15">
-        <v>0.85539892276830165</v>
+        <v>0.8553989227683017</v>
       </c>
       <c r="L15">
-        <v>1.600453316805279E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.001600453316805279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2235,16 +2192,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.66981535759941657</v>
+        <v>0.6698153575994166</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.69528768540126551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6952876854012655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2270,19 +2227,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.54772255750516619</v>
+        <v>-0.5477225575051662</v>
       </c>
       <c r="J17">
-        <v>5.5008833629265723E-2</v>
+        <v>0.05500883362926572</v>
       </c>
       <c r="K17">
-        <v>-0.63960214906683133</v>
+        <v>-0.6396021490668313</v>
       </c>
       <c r="L17">
-        <v>4.6434617671581753E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.04643461767158175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2308,19 +2265,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-0.36514837167011083</v>
+        <v>-0.3651483716701108</v>
       </c>
       <c r="J18">
-        <v>0.20082512269514541</v>
+        <v>0.2008251226951454</v>
       </c>
       <c r="K18">
-        <v>-0.42640143271122077</v>
+        <v>-0.4264014327112208</v>
       </c>
       <c r="L18">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2346,19 +2303,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-0.30772872744833191</v>
+        <v>-0.3077287274483319</v>
       </c>
       <c r="J19">
-        <v>0.28495764066842988</v>
+        <v>0.2849576406684299</v>
       </c>
       <c r="K19">
-        <v>-0.35641621782012572</v>
+        <v>-0.3564162178201257</v>
       </c>
       <c r="L19">
-        <v>0.31206113232683802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.312061132326838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2387,16 +2344,16 @@
         <v>0.3042903097250923</v>
       </c>
       <c r="J20">
-        <v>0.28642202277785878</v>
+        <v>0.2864220227778588</v>
       </c>
       <c r="K20">
-        <v>0.35533452725935072</v>
+        <v>0.3553345272593507</v>
       </c>
       <c r="L20">
-        <v>0.31363736407545367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3136373640754537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2422,19 +2379,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.36514837167011083</v>
+        <v>-0.3651483716701108</v>
       </c>
       <c r="J21">
-        <v>0.20082512269514541</v>
+        <v>0.2008251226951454</v>
       </c>
       <c r="K21">
-        <v>-0.42640143271122077</v>
+        <v>-0.4264014327112208</v>
       </c>
       <c r="L21">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2463,16 +2420,16 @@
         <v>0.3042903097250923</v>
       </c>
       <c r="J22">
-        <v>0.28642202277785878</v>
+        <v>0.2864220227778588</v>
       </c>
       <c r="K22">
-        <v>0.35533452725935072</v>
+        <v>0.3553345272593507</v>
       </c>
       <c r="L22">
-        <v>0.31363736407545367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3136373640754537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2498,19 +2455,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.36514837167011083</v>
+        <v>0.3651483716701108</v>
       </c>
       <c r="J23">
-        <v>0.20082512269514541</v>
+        <v>0.2008251226951454</v>
       </c>
       <c r="K23">
-        <v>0.42640143271122077</v>
+        <v>0.4264014327112208</v>
       </c>
       <c r="L23">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2536,19 +2493,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.42600643361512919</v>
+        <v>-0.4260064336151292</v>
       </c>
       <c r="J24">
-        <v>0.13559300126630219</v>
+        <v>0.1355930012663022</v>
       </c>
       <c r="K24">
         <v>-0.497468338163091</v>
       </c>
       <c r="L24">
-        <v>0.14346146559508571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1434614655950857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2574,19 +2531,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.10232343558582011</v>
+        <v>-0.1023234355858201</v>
       </c>
       <c r="J25">
-        <v>0.63773289005018841</v>
+        <v>0.6377328900501884</v>
       </c>
       <c r="K25">
-        <v>-0.12157835800107809</v>
+        <v>-0.1215783580010781</v>
       </c>
       <c r="L25">
-        <v>0.65376710935384819</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6537671093538482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2612,19 +2569,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-1.4617633655117149E-2</v>
+        <v>-0.01461763365511715</v>
       </c>
       <c r="J26">
-        <v>0.94636892512423998</v>
+        <v>0.94636892512424</v>
       </c>
       <c r="K26">
-        <v>-1.736833685729687E-2</v>
+        <v>-0.01736833685729687</v>
       </c>
       <c r="L26">
-        <v>0.94909603273704102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.949096032737041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2650,19 +2607,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.27889955205754868</v>
+        <v>0.2788995520575487</v>
       </c>
       <c r="J27">
-        <v>0.20089032653971309</v>
+        <v>0.2008903265397131</v>
       </c>
       <c r="K27">
         <v>0.3302413141237342</v>
       </c>
       <c r="L27">
-        <v>0.21158246186830859</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2115824618683086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2688,19 +2645,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.16284238361758671</v>
+        <v>-0.1628423836175867</v>
       </c>
       <c r="J28">
-        <v>0.45801098838521898</v>
+        <v>0.458010988385219</v>
       </c>
       <c r="K28">
-        <v>-0.19161611347062391</v>
+        <v>-0.1916161134706239</v>
       </c>
       <c r="L28">
         <v>0.4771333722542902</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2726,31 +2683,30 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.24849977213699159</v>
+        <v>-0.2484997721369916</v>
       </c>
       <c r="J29">
-        <v>0.25281290101640808</v>
+        <v>0.2528129010164081</v>
       </c>
       <c r="K29">
-        <v>-0.29526172657404681</v>
+        <v>-0.2952617265740468</v>
       </c>
       <c r="L29">
-        <v>0.26690125229506823</v>
+        <v>0.2669012522950682</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2766,7 +2722,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2830,19 +2786,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.17078251276599329</v>
+        <v>-0.1707825127659933</v>
       </c>
       <c r="J2">
         <v>0.3368221511559395</v>
       </c>
       <c r="K2">
-        <v>-0.22063279587022341</v>
+        <v>-0.2206327958702234</v>
       </c>
       <c r="L2">
-        <v>0.31170668319455619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3117066831945562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2868,19 +2824,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.21557272714438661</v>
+        <v>-0.2155727271443866</v>
       </c>
       <c r="J3">
         <v>0.2189727791934982</v>
       </c>
       <c r="K3">
-        <v>-0.28300682710477038</v>
+        <v>-0.2830068271047704</v>
       </c>
       <c r="L3">
-        <v>0.19070138371258061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1907013837125806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2909,16 +2865,16 @@
         <v>0.182178575000007</v>
       </c>
       <c r="J4">
-        <v>0.29564657602090749</v>
+        <v>0.2956465760209075</v>
       </c>
       <c r="K4">
-        <v>0.24046942819989059</v>
+        <v>0.2404694281998906</v>
       </c>
       <c r="L4">
-        <v>0.26904897632032188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2690489763203219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2944,19 +2900,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.11134044285378079</v>
+        <v>-0.1113404428537808</v>
       </c>
       <c r="J5">
-        <v>0.66390790187764881</v>
+        <v>0.6639079018776488</v>
       </c>
       <c r="K5">
-        <v>-0.13101394402234401</v>
+        <v>-0.131013944022344</v>
       </c>
       <c r="L5">
-        <v>0.68484871442737572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6848487144273757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2982,19 +2938,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.25979436665882188</v>
+        <v>-0.2597943666588219</v>
       </c>
       <c r="J6">
-        <v>0.31063545633740081</v>
+        <v>0.3106354563374008</v>
       </c>
       <c r="K6">
-        <v>-0.30569920271880269</v>
+        <v>-0.3056992027188027</v>
       </c>
       <c r="L6">
-        <v>0.33389313645066021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3338931364506602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3020,19 +2976,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>0.11134044285378079</v>
+        <v>0.1113404428537808</v>
       </c>
       <c r="J7">
-        <v>0.66390790187764881</v>
+        <v>0.6639079018776488</v>
       </c>
       <c r="K7">
-        <v>0.13101394402234401</v>
+        <v>0.131013944022344</v>
       </c>
       <c r="L7">
-        <v>0.68484871442737572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6848487144273757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3058,19 +3014,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>-0.25979436665882188</v>
+        <v>-0.2597943666588219</v>
       </c>
       <c r="J8">
-        <v>0.31063545633740081</v>
+        <v>0.3106354563374008</v>
       </c>
       <c r="K8">
-        <v>-0.30569920271880269</v>
+        <v>-0.3056992027188027</v>
       </c>
       <c r="L8">
-        <v>0.33389313645066021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3338931364506602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3096,19 +3052,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459340999</v>
+        <v>-0.15625137459341</v>
       </c>
       <c r="J9">
-        <v>3.0128615488005099E-2</v>
+        <v>0.0301286154880051</v>
       </c>
       <c r="K9">
         <v>-0.2203331090972887</v>
       </c>
       <c r="L9">
-        <v>2.7610565923995401E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0276105659239954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3134,19 +3090,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-1.3914136425848831E-2</v>
+        <v>-0.01391413642584883</v>
       </c>
       <c r="J10">
-        <v>0.90900323668647842</v>
+        <v>0.9090032366864784</v>
       </c>
       <c r="K10">
-        <v>-1.0266126007392471E-2</v>
+        <v>-0.01026612600739247</v>
       </c>
       <c r="L10">
-        <v>0.94359018578297449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9435901857829745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3172,19 +3128,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-2.8152946873129591E-2</v>
+        <v>-0.02815294687312959</v>
       </c>
       <c r="J11">
-        <v>0.80868009561069343</v>
+        <v>0.8086800956106934</v>
       </c>
       <c r="K11">
-        <v>-2.99893827986723E-2</v>
+        <v>-0.0299893827986723</v>
       </c>
       <c r="L11">
-        <v>0.83621302723678093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8362130272367809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3210,19 +3166,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.24788466776030799</v>
+        <v>-0.247884667760308</v>
       </c>
       <c r="J12">
-        <v>3.1887928946905821E-2</v>
+        <v>0.03188792894690582</v>
       </c>
       <c r="K12">
-        <v>-0.30961847204159432</v>
+        <v>-0.3096184720415943</v>
       </c>
       <c r="L12">
-        <v>2.8666961474283319E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02866696147428332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3248,19 +3204,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.47875499914502118</v>
+        <v>-0.4787549991450212</v>
       </c>
       <c r="J13">
-        <v>7.2175605494924577E-2</v>
+        <v>0.07217560549492458</v>
       </c>
       <c r="K13">
-        <v>-0.62928530890209089</v>
+        <v>-0.6292853089020909</v>
       </c>
       <c r="L13">
-        <v>5.1248552168422938E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.05124855216842294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3286,19 +3242,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.22677868380553631</v>
+        <v>-0.2267786838055363</v>
       </c>
       <c r="J14">
-        <v>0.39438705940345542</v>
+        <v>0.3943870594034554</v>
       </c>
       <c r="K14">
-        <v>-0.28603877677367773</v>
+        <v>-0.2860387767736777</v>
       </c>
       <c r="L14">
-        <v>0.42302039244413581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4230203924441358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3327,16 +3283,16 @@
         <v>-0.1019294382875251</v>
       </c>
       <c r="J15">
-        <v>0.70405426818971262</v>
+        <v>0.7040542681897126</v>
       </c>
       <c r="K15">
-        <v>-7.6509205567600602E-2</v>
+        <v>-0.0765092055676006</v>
       </c>
       <c r="L15">
         <v>0.8336123677972922</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3362,19 +3318,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.57954552528081504</v>
+        <v>-0.579545525280815</v>
       </c>
       <c r="J16">
-        <v>2.9515128077571919E-2</v>
+        <v>0.02951512807757192</v>
       </c>
       <c r="K16">
-        <v>-0.71191873330337552</v>
+        <v>-0.7119187333033755</v>
       </c>
       <c r="L16">
-        <v>2.091481468718881E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02091481468718881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3400,19 +3356,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.12598815766974239</v>
+        <v>-0.1259881576697424</v>
       </c>
       <c r="J17">
-        <v>0.63609887359862261</v>
+        <v>0.6360988735986226</v>
       </c>
       <c r="K17">
-        <v>-0.19069251784911839</v>
+        <v>-0.1906925178491184</v>
       </c>
       <c r="L17">
         <v>0.5977007516614028</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3438,19 +3394,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.57954552528081504</v>
+        <v>0.579545525280815</v>
       </c>
       <c r="J18">
-        <v>2.9515128077571919E-2</v>
+        <v>0.02951512807757192</v>
       </c>
       <c r="K18">
-        <v>0.74370081961156209</v>
+        <v>0.7437008196115621</v>
       </c>
       <c r="L18">
-        <v>1.3669584115271451E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.01366958411527145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3476,19 +3432,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.56061191058138804</v>
+        <v>0.560611910581388</v>
       </c>
       <c r="J19">
-        <v>3.6690308779303099E-2</v>
+        <v>0.0366903087793031</v>
       </c>
       <c r="K19">
-        <v>0.71727380219625569</v>
+        <v>0.7172738021962557</v>
       </c>
       <c r="L19">
-        <v>1.9542044353685058E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.01954204435368506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3514,19 +3470,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.47875499914502118</v>
+        <v>-0.4787549991450212</v>
       </c>
       <c r="J20">
-        <v>7.2175605494924577E-2</v>
+        <v>0.07217560549492458</v>
       </c>
       <c r="K20">
-        <v>-0.64199814342536554</v>
+        <v>-0.6419981434253655</v>
       </c>
       <c r="L20">
-        <v>4.536158917864154E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.04536158917864154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3552,19 +3508,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.27717394687343327</v>
+        <v>-0.2771739468734333</v>
       </c>
       <c r="J21">
-        <v>0.29789759799234089</v>
+        <v>0.2978975979923409</v>
       </c>
       <c r="K21">
-        <v>-0.37502861843659963</v>
+        <v>-0.3750286184365996</v>
       </c>
       <c r="L21">
-        <v>0.28559690296883122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2855969029688312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3590,19 +3546,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.12598815766974239</v>
+        <v>0.1259881576697424</v>
       </c>
       <c r="J22">
-        <v>0.63609887359862261</v>
+        <v>0.6360988735986226</v>
       </c>
       <c r="K22">
         <v>0.1461975970176575</v>
       </c>
       <c r="L22">
-        <v>0.68694101885385273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6869410188538527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3628,19 +3584,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.12598815766974239</v>
+        <v>0.1259881576697424</v>
       </c>
       <c r="J23">
-        <v>0.63609887359862261</v>
+        <v>0.6360988735986226</v>
       </c>
       <c r="K23">
-        <v>0.21611818689566761</v>
+        <v>0.2161181868956676</v>
       </c>
       <c r="L23">
-        <v>0.54871070607331407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5487107060733141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3666,19 +3622,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.22677868380553631</v>
+        <v>-0.2267786838055363</v>
       </c>
       <c r="J24">
-        <v>0.39438705940345542</v>
+        <v>0.3943870594034554</v>
       </c>
       <c r="K24">
-        <v>-0.31146444582022681</v>
+        <v>-0.3114644458202268</v>
       </c>
       <c r="L24">
-        <v>0.38100895670505941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3810089567050594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3704,19 +3660,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>8.4757937952601309E-2</v>
+        <v>0.08475793795260131</v>
       </c>
       <c r="J25">
-        <v>0.69232849002812125</v>
+        <v>0.6923284900281212</v>
       </c>
       <c r="K25">
         <v>0.1099316484014564</v>
       </c>
       <c r="L25">
-        <v>0.68526500553668901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.685265005536689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3742,19 +3698,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>8.4757937952601309E-2</v>
+        <v>0.08475793795260131</v>
       </c>
       <c r="J26">
-        <v>0.69232849002812125</v>
+        <v>0.6923284900281212</v>
       </c>
       <c r="K26">
         <v>0.1099316484014564</v>
       </c>
       <c r="L26">
-        <v>0.68526500553668901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.685265005536689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3780,19 +3736,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.34045327482409782</v>
+        <v>0.3404532748240978</v>
       </c>
       <c r="J27">
         <v>0.1131965364706231</v>
       </c>
       <c r="K27">
-        <v>0.40295301713800152</v>
+        <v>0.4029530171380015</v>
       </c>
       <c r="L27">
         <v>0.1217337691688223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3818,19 +3774,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.49785866253711791</v>
+        <v>-0.4978586625371179</v>
       </c>
       <c r="J28">
-        <v>2.1337320545634531E-2</v>
+        <v>0.02133732054563453</v>
       </c>
       <c r="K28">
-        <v>-0.57692307692307687</v>
+        <v>-0.5769230769230769</v>
       </c>
       <c r="L28">
-        <v>1.929785020805572E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.01929785020805572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3856,31 +3812,30 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-1.6951587590520258E-2</v>
+        <v>-0.01695158759052026</v>
       </c>
       <c r="J29">
-        <v>0.93692172809769891</v>
+        <v>0.9369217280976989</v>
       </c>
       <c r="K29">
-        <v>-3.8348249442368518E-2</v>
+        <v>-0.03834824944236852</v>
       </c>
       <c r="L29">
-        <v>0.88786930283188992</v>
+        <v>0.8878693028318899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3896,7 +3851,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +3889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3960,7 +3915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3986,7 +3941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4012,7 +3967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4038,7 +3993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4064,7 +4019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4090,7 +4045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4116,7 +4071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4145,16 +4100,16 @@
         <v>-0.1325530043077417</v>
       </c>
       <c r="J9">
-        <v>0.10868264420740591</v>
+        <v>0.1086826442074059</v>
       </c>
       <c r="K9">
-        <v>-0.16122238802734751</v>
+        <v>-0.1612223880273475</v>
       </c>
       <c r="L9">
         <v>0.1090548020620709</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4180,19 +4135,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-4.0010884441053322E-3</v>
+        <v>-0.004001088444105332</v>
       </c>
       <c r="J10">
-        <v>0.97393749824887355</v>
+        <v>0.9739374982488735</v>
       </c>
       <c r="K10">
-        <v>-4.0145445731910407E-3</v>
+        <v>-0.004014544573191041</v>
       </c>
       <c r="L10">
-        <v>0.97792597559776806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9779259755977681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4218,19 +4173,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-1.8889590382011531E-2</v>
+        <v>-0.01888959038201153</v>
       </c>
       <c r="J11">
         <v>0.8717029852220165</v>
       </c>
       <c r="K11">
-        <v>-2.2061548434927108E-2</v>
+        <v>-0.02206154843492711</v>
       </c>
       <c r="L11">
-        <v>0.87913055885863645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8791305588586364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4256,19 +4211,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.24760641624976251</v>
+        <v>-0.2476064162497625</v>
       </c>
       <c r="J12">
-        <v>3.3114212859699399E-2</v>
+        <v>0.0331142128596994</v>
       </c>
       <c r="K12">
-        <v>-0.30991275370518351</v>
+        <v>-0.3099127537051835</v>
       </c>
       <c r="L12">
-        <v>2.850794708171081E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02850794708171081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4306,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4335,16 +4290,16 @@
         <v>0.6085806194501846</v>
       </c>
       <c r="J14">
-        <v>3.300625766123251E-2</v>
+        <v>0.03300625766123251</v>
       </c>
       <c r="K14">
-        <v>0.71066905451870144</v>
+        <v>0.7106690545187014</v>
       </c>
       <c r="L14">
-        <v>2.1244492128774412E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02124449212877441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4370,19 +4325,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.67700320038633011</v>
+        <v>0.6770032003863301</v>
       </c>
       <c r="J15">
-        <v>1.865536081150319E-2</v>
+        <v>0.01865536081150319</v>
       </c>
       <c r="K15">
-        <v>0.78411567920427649</v>
+        <v>0.7841156792042765</v>
       </c>
       <c r="L15">
-        <v>7.2557895266995576E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.007255789526699558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4411,16 +4366,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.66981535759941657</v>
+        <v>0.6698153575994166</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.69528768540126551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6952876854012655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4449,16 +4404,16 @@
         <v>-0.3042903097250923</v>
       </c>
       <c r="J17">
-        <v>0.28642202277785878</v>
+        <v>0.2864220227778588</v>
       </c>
       <c r="K17">
-        <v>-0.35533452725935072</v>
+        <v>-0.3553345272593507</v>
       </c>
       <c r="L17">
-        <v>0.31363736407545367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3136373640754537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4484,19 +4439,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>6.0858061945018457E-2</v>
+        <v>0.06085806194501846</v>
       </c>
       <c r="J18">
-        <v>0.83117040954176236</v>
+        <v>0.8311704095417624</v>
       </c>
       <c r="K18">
-        <v>7.1066905451870152E-2</v>
+        <v>0.07106690545187015</v>
       </c>
       <c r="L18">
-        <v>0.84532391369129534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8453239136912953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4522,19 +4477,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>9.2318618234499564E-2</v>
+        <v>0.09231861823449956</v>
       </c>
       <c r="J19">
-        <v>0.74838121229203447</v>
+        <v>0.7483812122920345</v>
       </c>
       <c r="K19">
-        <v>0.10692486534603771</v>
+        <v>0.1069248653460377</v>
       </c>
       <c r="L19">
-        <v>0.76875770339326521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7687577033932652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4560,19 +4515,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-6.0858061945018457E-2</v>
+        <v>-0.06085806194501846</v>
       </c>
       <c r="J20">
-        <v>0.83117040954176236</v>
+        <v>0.8311704095417624</v>
       </c>
       <c r="K20">
-        <v>-7.1066905451870152E-2</v>
+        <v>-0.07106690545187015</v>
       </c>
       <c r="L20">
-        <v>0.84532391369129534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8453239136912953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4598,19 +4553,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.24343224778007391</v>
+        <v>-0.2434322477800739</v>
       </c>
       <c r="J21">
-        <v>0.39376863464299272</v>
+        <v>0.3937686346429927</v>
       </c>
       <c r="K21">
-        <v>-0.28426762180748061</v>
+        <v>-0.2842676218074806</v>
       </c>
       <c r="L21">
-        <v>0.42602444842854259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4260244484285426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4639,16 +4594,16 @@
         <v>0.1217161238900369</v>
       </c>
       <c r="J22">
-        <v>0.66981535759941657</v>
+        <v>0.6698153575994166</v>
       </c>
       <c r="K22">
         <v>0.1421338109037403</v>
       </c>
       <c r="L22">
-        <v>0.69528768540126551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6952876854012655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4674,19 +4629,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.24343224778007391</v>
+        <v>0.2434322477800739</v>
       </c>
       <c r="J23">
-        <v>0.39376863464299272</v>
+        <v>0.3937686346429927</v>
       </c>
       <c r="K23">
-        <v>0.28426762180748061</v>
+        <v>0.2842676218074806</v>
       </c>
       <c r="L23">
-        <v>0.42602444842854259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4260244484285426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4712,19 +4667,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.24343224778007391</v>
+        <v>-0.2434322477800739</v>
       </c>
       <c r="J24">
-        <v>0.39376863464299272</v>
+        <v>0.3937686346429927</v>
       </c>
       <c r="K24">
-        <v>-0.28426762180748061</v>
+        <v>-0.2842676218074806</v>
       </c>
       <c r="L24">
-        <v>0.42602444842854259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4260244484285426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4750,19 +4705,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.35355339059327368</v>
+        <v>-0.3535533905932737</v>
       </c>
       <c r="J25">
         <v>0.1037416782365415</v>
       </c>
       <c r="K25">
-        <v>-0.42008402520840288</v>
+        <v>-0.4200840252084029</v>
       </c>
       <c r="L25">
         <v>0.105228057983522</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4788,19 +4743,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.16499158227686109</v>
+        <v>-0.1649915822768611</v>
       </c>
       <c r="J26">
         <v>0.4476990724652935</v>
       </c>
       <c r="K26">
-        <v>-0.19603921176392139</v>
+        <v>-0.1960392117639214</v>
       </c>
       <c r="L26">
         <v>0.4668248490265503</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4826,19 +4781,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>2.3669053416557541E-2</v>
+        <v>0.02366905341655754</v>
       </c>
       <c r="J27">
-        <v>0.91356333033778614</v>
+        <v>0.9135633303377861</v>
       </c>
       <c r="K27">
-        <v>2.802621677476181E-2</v>
+        <v>0.02802621677476181</v>
       </c>
       <c r="L27">
-        <v>0.91793879859999294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9179387985999929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4864,19 +4819,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.26257545381445868</v>
+        <v>-0.2625754538144587</v>
       </c>
       <c r="J28">
-        <v>0.23144602710389381</v>
+        <v>0.2314460271038938</v>
       </c>
       <c r="K28">
-        <v>-0.30897169910547828</v>
+        <v>-0.3089716991054783</v>
       </c>
       <c r="L28">
-        <v>0.24426062662249609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2442606266224961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4902,13 +4857,13 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.25927248643506751</v>
+        <v>0.2592724864350675</v>
       </c>
       <c r="J29">
         <v>0.2328233516916538</v>
       </c>
       <c r="K29">
-        <v>0.30806161848616209</v>
+        <v>0.3080616184861621</v>
       </c>
       <c r="L29">
         <v>0.2457251662216493</v>
@@ -4916,17 +4871,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -4942,7 +4896,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5006,7 +4960,7 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.25886009157177359</v>
+        <v>-0.2588600915717736</v>
       </c>
       <c r="J2">
         <v>0.1185826134820492</v>
@@ -5018,7 +4972,7 @@
         <v>0.157096814687567</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5047,16 +5001,16 @@
         <v>-0.3630554894720564</v>
       </c>
       <c r="J3">
-        <v>2.6497820867305542E-2</v>
+        <v>0.02649782086730554</v>
       </c>
       <c r="K3">
-        <v>-0.44712286324931549</v>
+        <v>-0.4471228632493155</v>
       </c>
       <c r="L3">
-        <v>3.2426785472927828E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.03242678547292783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5082,19 +5036,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.38268492933927678</v>
+        <v>0.3826849293392768</v>
       </c>
       <c r="J4">
-        <v>1.856470797931634E-2</v>
+        <v>0.01856470797931634</v>
       </c>
       <c r="K4">
-        <v>0.45327395586631719</v>
+        <v>0.4532739558663172</v>
       </c>
       <c r="L4">
-        <v>2.9842113749669798E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0298421137496698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5123,16 +5077,16 @@
         <v>-0.2018433569398328</v>
       </c>
       <c r="J5">
-        <v>0.40657129403387082</v>
+        <v>0.4065712940338708</v>
       </c>
       <c r="K5">
         <v>-0.2056848110006326</v>
       </c>
       <c r="L5">
-        <v>0.52130971968204398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.521309719682044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5158,10 +5112,10 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.23854214911071139</v>
+        <v>-0.2385421491107114</v>
       </c>
       <c r="J6">
-        <v>0.32667108863875699</v>
+        <v>0.326671088638757</v>
       </c>
       <c r="K6">
         <v>-0.2437745908155646</v>
@@ -5170,7 +5124,7 @@
         <v>0.4451488240391529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5196,19 +5150,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.49543369430686218</v>
+        <v>-0.4954336943068622</v>
       </c>
       <c r="J7">
-        <v>4.1636856782773603E-2</v>
+        <v>0.0416368567827736</v>
       </c>
       <c r="K7">
-        <v>-0.55611078529800673</v>
+        <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>6.0434956200926593E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.06043495620092659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5234,19 +5188,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.34863852562334752</v>
+        <v>0.3486385256233475</v>
       </c>
       <c r="J8">
-        <v>0.15170441973059709</v>
+        <v>0.1517044197305971</v>
       </c>
       <c r="K8">
-        <v>0.40375166603827878</v>
+        <v>0.4037516660382788</v>
       </c>
       <c r="L8">
-        <v>0.19305349764481941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1930534976448194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5266,25 +5220,25 @@
         <v>69</v>
       </c>
       <c r="G9">
-        <v>437</v>
+        <v>808</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.21539788951615921</v>
+        <v>-0.1508932577851104</v>
       </c>
       <c r="J9">
-        <v>3.4225492129907882E-3</v>
+        <v>0.03976539977998658</v>
       </c>
       <c r="K9">
-        <v>-0.30110657984453931</v>
+        <v>-0.2101007063448729</v>
       </c>
       <c r="L9">
-        <v>2.3330886533244428E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.03589890255176344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5304,25 +5258,25 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-2.584053907657639E-2</v>
+        <v>-0.02584053907657639</v>
       </c>
       <c r="J10">
-        <v>0.83190123178864006</v>
+        <v>0.8319012317886401</v>
       </c>
       <c r="K10">
-        <v>-2.491868767248899E-2</v>
+        <v>-0.02491868767248899</v>
       </c>
       <c r="L10">
-        <v>0.86361703412887092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8636170341288709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5342,25 +5296,25 @@
         <v>41</v>
       </c>
       <c r="G11">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-2.439922062337898E-2</v>
+        <v>-0.02439922062337898</v>
       </c>
       <c r="J11">
-        <v>0.83378844789272755</v>
+        <v>0.8337884478927275</v>
       </c>
       <c r="K11">
-        <v>-2.8882082510721319E-2</v>
+        <v>-0.02888208251072132</v>
       </c>
       <c r="L11">
-        <v>0.84218206980413934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8421820698041393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5380,25 +5334,25 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.25161225674918491</v>
+        <v>-0.2516122567491849</v>
       </c>
       <c r="J12">
-        <v>2.940004335865699E-2</v>
+        <v>0.02940004335865699</v>
       </c>
       <c r="K12">
-        <v>-0.31109416329946299</v>
+        <v>-0.311094163299463</v>
       </c>
       <c r="L12">
-        <v>2.7876960391832729E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02787696039183273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5424,19 +5378,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>4.9690399499995333E-2</v>
+        <v>0.04969039949999533</v>
       </c>
       <c r="J13">
-        <v>0.85098068703205576</v>
+        <v>0.8509806870320558</v>
       </c>
       <c r="K13">
-        <v>1.262892050706804E-2</v>
+        <v>0.01262892050706804</v>
       </c>
       <c r="L13">
-        <v>0.97237864199207991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9723786419920799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5462,19 +5416,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.14907119849998601</v>
+        <v>-0.149071198499986</v>
       </c>
       <c r="J14">
-        <v>0.57302511935539036</v>
+        <v>0.5730251193553904</v>
       </c>
       <c r="K14">
         <v>-0.1894338076060206</v>
       </c>
       <c r="L14">
-        <v>0.60016643425119731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6001664342511973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5500,19 +5454,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.12562972690740151</v>
+        <v>-0.1256297269074015</v>
       </c>
       <c r="J15">
-        <v>0.63740174059588495</v>
+        <v>0.6374017405958849</v>
       </c>
       <c r="K15">
-        <v>-0.15200837758144201</v>
+        <v>-0.152008377581442</v>
       </c>
       <c r="L15">
-        <v>0.67505908893740063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6750590889374006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5538,19 +5492,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.29814239699997203</v>
+        <v>-0.298142396999972</v>
       </c>
       <c r="J16">
-        <v>0.25965635637044993</v>
+        <v>0.2596563563704499</v>
       </c>
       <c r="K16">
-        <v>-0.37886761521204121</v>
+        <v>-0.3788676152120412</v>
       </c>
       <c r="L16">
-        <v>0.28029428245233751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2802942824523375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5579,16 +5533,16 @@
         <v>-0.1987615979999813</v>
       </c>
       <c r="J17">
-        <v>0.45237036067736081</v>
+        <v>0.4523703606773608</v>
       </c>
       <c r="K17">
-        <v>-0.34098085369083708</v>
+        <v>-0.3409808536908371</v>
       </c>
       <c r="L17">
-        <v>0.33494569511799033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3349456951179903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5614,19 +5568,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.14907119849998601</v>
+        <v>0.149071198499986</v>
       </c>
       <c r="J18">
-        <v>0.57302511935539036</v>
+        <v>0.5730251193553904</v>
       </c>
       <c r="K18">
-        <v>0.16417596659188449</v>
+        <v>0.1641759665918845</v>
       </c>
       <c r="L18">
-        <v>0.65038956216495647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6503895621649565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5652,19 +5606,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>7.5377836144440907E-2</v>
+        <v>0.07537783614444091</v>
       </c>
       <c r="J19">
-        <v>0.77732952635542052</v>
+        <v>0.7773295263554205</v>
       </c>
       <c r="K19">
         <v>0.1076726007868547</v>
       </c>
       <c r="L19">
-        <v>0.76717787894205469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7671778789420547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5690,19 +5644,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-9.9380798999990652E-2</v>
+        <v>-0.09938079899999065</v>
       </c>
       <c r="J20">
         <v>0.7071142312899612</v>
       </c>
       <c r="K20">
-        <v>-0.12628920507068039</v>
+        <v>-0.1262892050706804</v>
       </c>
       <c r="L20">
-        <v>0.72810638402168237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7281063840216824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5728,19 +5682,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.14907119849998601</v>
+        <v>-0.149071198499986</v>
       </c>
       <c r="J21">
-        <v>0.57302511935539036</v>
+        <v>0.5730251193553904</v>
       </c>
       <c r="K21">
         <v>-0.2399494896342928</v>
       </c>
       <c r="L21">
-        <v>0.50430171903532583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5043017190353258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5766,19 +5720,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.39752319599996261</v>
+        <v>0.3975231959999626</v>
       </c>
       <c r="J22">
         <v>0.1328549557310538</v>
       </c>
       <c r="K22">
-        <v>0.53041466129685766</v>
+        <v>0.5304146612968577</v>
       </c>
       <c r="L22">
         <v>0.1147392659290222</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5804,19 +5758,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.29814239699997203</v>
+        <v>0.298142396999972</v>
       </c>
       <c r="J23">
-        <v>0.25965635637044993</v>
+        <v>0.2596563563704499</v>
       </c>
       <c r="K23">
-        <v>0.40412545622617729</v>
+        <v>0.4041254562261773</v>
       </c>
       <c r="L23">
-        <v>0.24675472954223471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2467547295422347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5845,16 +5799,16 @@
         <v>-0.2484519974999766</v>
       </c>
       <c r="J24">
-        <v>0.34755803674116897</v>
+        <v>0.347558036741169</v>
       </c>
       <c r="K24">
-        <v>-0.42938329724031338</v>
+        <v>-0.4293832972403134</v>
       </c>
       <c r="L24">
-        <v>0.21558241177003129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2155824117700313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5880,7 +5834,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441002</v>
+        <v>-0.31352722326441</v>
       </c>
       <c r="J25">
         <v>0.1131685336545776</v>
@@ -5889,10 +5843,10 @@
         <v>-0.4479914656638877</v>
       </c>
       <c r="L25">
-        <v>8.1821435051218708E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.08182143505121871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5921,16 +5875,16 @@
         <v>-0.3872983346207417</v>
       </c>
       <c r="J26">
-        <v>5.0365975790328012E-2</v>
+        <v>0.05036597579032801</v>
       </c>
       <c r="K26">
-        <v>-0.50701736823446741</v>
+        <v>-0.5070173682344674</v>
       </c>
       <c r="L26">
-        <v>4.5019308756935668E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.04501930875693567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5956,19 +5910,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>8.3340478742421134E-2</v>
+        <v>0.08334047874242113</v>
       </c>
       <c r="J27">
         <v>0.6747078413451294</v>
       </c>
       <c r="K27">
-        <v>8.0273734629878232E-2</v>
+        <v>0.08027373462987823</v>
       </c>
       <c r="L27">
-        <v>0.76759265155118128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7675926515511813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5994,19 +5948,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>9.3388635780087617E-2</v>
+        <v>0.09338863578008762</v>
       </c>
       <c r="J28">
-        <v>0.64014984145862264</v>
+        <v>0.6401498414586226</v>
       </c>
       <c r="K28">
         <v>0.1305442024324843</v>
       </c>
       <c r="L28">
-        <v>0.62988406192489643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6298840619248964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -6032,20 +5986,19 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.12909944487358049</v>
+        <v>0.1290994448735805</v>
       </c>
       <c r="J29">
-        <v>0.51421999881555058</v>
+        <v>0.5142199988155506</v>
       </c>
       <c r="K29">
-        <v>0.16194286089877019</v>
+        <v>0.1619428608987702</v>
       </c>
       <c r="L29">
-        <v>0.54903760923243294</v>
+        <v>0.5490376092324329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E82EC7-9666-4A45-BA40-2DD75BC0DA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_tools" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="infer" sheetId="4" r:id="rId4"/>
     <sheet name="openjml" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -140,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +205,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,12 +536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -508,11 +553,10 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -576,19 +620,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.3377277477430254</v>
+        <v>-0.33772774774302539</v>
       </c>
       <c r="J2">
-        <v>0.03761941401427579</v>
+        <v>3.7619414014275793E-2</v>
       </c>
       <c r="K2">
-        <v>-0.3976802252851466</v>
+        <v>-0.39768022528514663</v>
       </c>
       <c r="L2">
-        <v>0.06021635626528627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>6.0216356265286271E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -614,19 +658,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.4275482906928738</v>
+        <v>-0.42754829069287381</v>
       </c>
       <c r="J3">
-        <v>0.007641040482277836</v>
+        <v>7.6410404822778357E-3</v>
       </c>
       <c r="K3">
-        <v>-0.5452867412432369</v>
+        <v>-0.54528674124323695</v>
       </c>
       <c r="L3">
-        <v>0.007124393687845218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.124393687845218E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -652,19 +696,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.4111706600105638</v>
+        <v>0.41117066001056379</v>
       </c>
       <c r="J4">
-        <v>0.00982101261512518</v>
+        <v>9.8210126151251805E-3</v>
       </c>
       <c r="K4">
-        <v>0.5360003171861121</v>
+        <v>0.53600031718611207</v>
       </c>
       <c r="L4">
-        <v>0.008382091244079634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.3820912440796345E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -690,19 +734,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.3133397807202561</v>
+        <v>-0.31333978072025609</v>
       </c>
       <c r="J5">
-        <v>0.1884699909010059</v>
+        <v>0.18846999090100591</v>
       </c>
       <c r="K5">
-        <v>-0.3178304128441319</v>
+        <v>-0.31783041284413188</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.31406107950112661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -728,19 +772,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.4526019054848143</v>
+        <v>-0.45260190548481433</v>
       </c>
       <c r="J6">
-        <v>0.05748353173133636</v>
+        <v>5.7483531731336357E-2</v>
       </c>
       <c r="K6">
-        <v>-0.4693542143163343</v>
+        <v>-0.46935421431633428</v>
       </c>
       <c r="L6">
-        <v>0.1237049815910057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.12370498159100569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -766,19 +810,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.3829708431025352</v>
+        <v>-0.38297084310253521</v>
       </c>
       <c r="J7">
         <v>0.1079738014574666</v>
       </c>
       <c r="K7">
-        <v>-0.458267106891539</v>
+        <v>-0.45826710689153899</v>
       </c>
       <c r="L7">
-        <v>0.1340598783554668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.13405987835546679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -804,19 +848,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.1392621247645583</v>
+        <v>0.13926212476455829</v>
       </c>
       <c r="J8">
         <v>0.5588858290416201</v>
       </c>
       <c r="K8">
-        <v>0.2032636361212471</v>
+        <v>0.20326363612124709</v>
       </c>
       <c r="L8">
-        <v>0.5263323724525723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.52633237245257225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -842,19 +886,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.1679930849817192</v>
+        <v>-0.16799308498171919</v>
       </c>
       <c r="J9">
-        <v>0.01571209940531982</v>
+        <v>1.571209940531982E-2</v>
       </c>
       <c r="K9">
-        <v>-0.2581562594294852</v>
+        <v>-0.25815625942948522</v>
       </c>
       <c r="L9">
-        <v>0.009508181415596517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.5081814155965165E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -880,19 +924,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01788960397609135</v>
+        <v>-1.7889603976091351E-2</v>
       </c>
       <c r="J10">
-        <v>0.8831700141519032</v>
+        <v>0.88317001415190322</v>
       </c>
       <c r="K10">
-        <v>-0.01605248793883186</v>
+        <v>-1.605248793883186E-2</v>
       </c>
       <c r="L10">
-        <v>0.9118983828429555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.91189838284295555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -918,19 +962,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.0319066731228802</v>
+        <v>-3.1906673122880203E-2</v>
       </c>
       <c r="J11">
-        <v>0.7837672300250216</v>
+        <v>0.78376723002502158</v>
       </c>
       <c r="K11">
-        <v>-0.03045075791865187</v>
+        <v>-3.0450757918651868E-2</v>
       </c>
       <c r="L11">
-        <v>0.8337285990222609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.83372859902226093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -959,16 +1003,16 @@
         <v>-0.2441570787714312</v>
       </c>
       <c r="J12">
-        <v>0.03455416553919029</v>
+        <v>3.4554165539190287E-2</v>
       </c>
       <c r="K12">
         <v>-0.3094340106343606</v>
       </c>
       <c r="L12">
-        <v>0.02876701130235894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.8767011302358939E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -994,19 +1038,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4535394202249742</v>
+        <v>-0.45353942022497418</v>
       </c>
       <c r="J13">
-        <v>0.08070214265077501</v>
+        <v>8.0702142650775008E-2</v>
       </c>
       <c r="K13">
-        <v>-0.5512130501182249</v>
+        <v>-0.55121305011822486</v>
       </c>
       <c r="L13">
-        <v>0.09862398123473154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.8623981234731539E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1032,19 +1076,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.02387049580131443</v>
+        <v>-2.387049580131443E-2</v>
       </c>
       <c r="J14">
-        <v>0.92675547372309</v>
+        <v>0.92675547372308997</v>
       </c>
       <c r="K14">
-        <v>-0.09290107586262218</v>
+        <v>-9.2901075862622182E-2</v>
       </c>
       <c r="L14">
-        <v>0.7985237548304135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.79852375483041349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1070,19 +1114,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.09656090991705352</v>
+        <v>9.6560909917053517E-2</v>
       </c>
       <c r="J15">
-        <v>0.7120793980044939</v>
+        <v>0.71207939800449394</v>
       </c>
       <c r="K15">
-        <v>0.1428819499477476</v>
+        <v>0.14288194994774761</v>
       </c>
       <c r="L15">
-        <v>0.6937488280957302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.69374882809573024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1108,19 +1152,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.7399853698407473</v>
+        <v>-0.73998536984074725</v>
       </c>
       <c r="J16">
-        <v>0.004375235749920733</v>
+        <v>4.375235749920733E-3</v>
       </c>
       <c r="K16">
-        <v>-0.8670767080511405</v>
+        <v>-0.86707670805114045</v>
       </c>
       <c r="L16">
-        <v>0.001159768265192443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.1597682651924429E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1146,19 +1190,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.3103164454170876</v>
+        <v>-0.31031644541708758</v>
       </c>
       <c r="J17">
         <v>0.2320634889020341</v>
       </c>
       <c r="K17">
-        <v>-0.4149581388530457</v>
+        <v>-0.41495813885304572</v>
       </c>
       <c r="L17">
         <v>0.233093730241445</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1184,19 +1228,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.4535394202249742</v>
+        <v>0.45353942022497418</v>
       </c>
       <c r="J18">
-        <v>0.08070214265077501</v>
+        <v>8.0702142650775008E-2</v>
       </c>
       <c r="K18">
-        <v>0.5635998602332413</v>
+        <v>0.56359986023324127</v>
       </c>
       <c r="L18">
-        <v>0.08974939558201678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.9749395582016778E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1222,19 +1266,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.4828045495852675</v>
+        <v>0.48280454958526747</v>
       </c>
       <c r="J19">
-        <v>0.06499039472076076</v>
+        <v>6.4990394720760764E-2</v>
       </c>
       <c r="K19">
-        <v>0.5932707052178214</v>
+        <v>0.59327070521782144</v>
       </c>
       <c r="L19">
-        <v>0.0706202179291523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>7.0620217929152296E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1260,19 +1304,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.3580574370197164</v>
+        <v>-0.35805743701971637</v>
       </c>
       <c r="J20">
-        <v>0.1679207532945924</v>
+        <v>0.16792075329459241</v>
       </c>
       <c r="K20">
-        <v>-0.4954724046006516</v>
+        <v>-0.49547240460065162</v>
       </c>
       <c r="L20">
-        <v>0.1453294522910624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.14532945229106239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1298,19 +1342,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.4535394202249742</v>
+        <v>-0.45353942022497418</v>
       </c>
       <c r="J21">
-        <v>0.08070214265077501</v>
+        <v>8.0702142650775008E-2</v>
       </c>
       <c r="K21">
-        <v>-0.6007602905782901</v>
+        <v>-0.60076029057829006</v>
       </c>
       <c r="L21">
-        <v>0.06625295074379814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>6.6252950743798139E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1339,16 +1383,16 @@
         <v>0.1193524790065721</v>
       </c>
       <c r="J22">
-        <v>0.6457756768370824</v>
+        <v>0.64577567683708237</v>
       </c>
       <c r="K22">
-        <v>0.1486417213801955</v>
+        <v>0.14864172138019549</v>
       </c>
       <c r="L22">
-        <v>0.6819355638686473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.68193556386864729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1374,19 +1418,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.167093470609201</v>
+        <v>0.16709347060920099</v>
       </c>
       <c r="J23">
-        <v>0.5199036173455835</v>
+        <v>0.51990361734558355</v>
       </c>
       <c r="K23">
-        <v>0.2725098225303584</v>
+        <v>0.27250982253035838</v>
       </c>
       <c r="L23">
-        <v>0.446215643690079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.44621564369007899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1412,19 +1456,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.3580574370197164</v>
+        <v>-0.35805743701971637</v>
       </c>
       <c r="J24">
-        <v>0.1679207532945924</v>
+        <v>0.16792075329459241</v>
       </c>
       <c r="K24">
-        <v>-0.4706987843706191</v>
+        <v>-0.47069878437061913</v>
       </c>
       <c r="L24">
         <v>0.1697475039817557</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1450,19 +1494,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1807753815155468</v>
+        <v>-0.18077538151554681</v>
       </c>
       <c r="J25">
-        <v>0.3541954904764164</v>
+        <v>0.35419549047641641</v>
       </c>
       <c r="K25">
-        <v>-0.2576049186596542</v>
+        <v>-0.25760491865965418</v>
       </c>
       <c r="L25">
-        <v>0.3354345184285685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.33543451842856847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1488,19 +1532,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1807753815155468</v>
+        <v>-0.18077538151554681</v>
       </c>
       <c r="J26">
-        <v>0.3541954904764164</v>
+        <v>0.35419549047641641</v>
       </c>
       <c r="K26">
-        <v>-0.2666436877354316</v>
+        <v>-0.26664368773543162</v>
       </c>
       <c r="L26">
-        <v>0.3181414648703181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.31814146487031808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1526,19 +1570,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3539900381483285</v>
+        <v>0.35399003814832852</v>
       </c>
       <c r="J27">
-        <v>0.07056136851892029</v>
+        <v>7.0561368518920295E-2</v>
       </c>
       <c r="K27">
-        <v>0.4341802833034056</v>
+        <v>0.43418028330340558</v>
       </c>
       <c r="L27">
-        <v>0.09288178063084394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>9.2881780630843944E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1567,16 +1611,16 @@
         <v>-0.1647705109143269</v>
       </c>
       <c r="J28">
-        <v>0.4027546538976249</v>
+        <v>0.40275465389762488</v>
       </c>
       <c r="K28">
         <v>-0.2493004677260264</v>
       </c>
       <c r="L28">
-        <v>0.3517858440384553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.35178584403845531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1605,27 +1649,28 @@
         <v>-0.1265427670608828</v>
       </c>
       <c r="J29">
-        <v>0.5166373798159882</v>
+        <v>0.51663737981598823</v>
       </c>
       <c r="K29">
         <v>-0.1491396897503261</v>
       </c>
       <c r="L29">
-        <v>0.5814513259975999</v>
+        <v>0.58145132599759985</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1636,12 +1681,11 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1708,16 +1752,16 @@
         <v>-0.2277100170213244</v>
       </c>
       <c r="J2">
-        <v>0.2003280221869526</v>
+        <v>0.20032802218695259</v>
       </c>
       <c r="K2">
-        <v>-0.2719723502938716</v>
+        <v>-0.27197235029387162</v>
       </c>
       <c r="L2">
-        <v>0.2093250956596323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.20932509565963231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1743,19 +1787,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.263477777620917</v>
+        <v>-0.26347777762091701</v>
       </c>
       <c r="J3">
         <v>0.1329850671160174</v>
       </c>
       <c r="K3">
-        <v>-0.3201778730528596</v>
+        <v>-0.32017787305285961</v>
       </c>
       <c r="L3">
-        <v>0.1363764100850406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.13637641008504059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1784,16 +1828,16 @@
         <v>0.2297034206521828</v>
       </c>
       <c r="J4">
-        <v>0.187290841633909</v>
+        <v>0.18729084163390899</v>
       </c>
       <c r="K4">
-        <v>0.2809695424230301</v>
+        <v>0.28096954242303013</v>
       </c>
       <c r="L4">
-        <v>0.1940516726155841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.19405167261558409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1819,7 +1863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1897,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1923,19 +1967,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2289041597670328</v>
+        <v>-0.22890415976703279</v>
       </c>
       <c r="J9">
-        <v>0.004154062204876697</v>
+        <v>4.1540622048766972E-3</v>
       </c>
       <c r="K9">
-        <v>-0.2872671746617843</v>
+        <v>-0.28726717466178431</v>
       </c>
       <c r="L9">
-        <v>0.003756720549751365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.7567205497513649E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1961,19 +2005,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01788960397609135</v>
+        <v>-1.7889603976091351E-2</v>
       </c>
       <c r="J10">
-        <v>0.8831700141519032</v>
+        <v>0.88317001415190322</v>
       </c>
       <c r="K10">
-        <v>-0.02174552145202223</v>
+        <v>-2.1745521452022229E-2</v>
       </c>
       <c r="L10">
-        <v>0.8808493755591094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.88084937555910936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1999,19 +2043,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02439922062337898</v>
+        <v>-2.439922062337898E-2</v>
       </c>
       <c r="J11">
-        <v>0.8337884478927275</v>
+        <v>0.83378844789272755</v>
       </c>
       <c r="K11">
-        <v>-0.02805160729475809</v>
+        <v>-2.8051607294758089E-2</v>
       </c>
       <c r="L11">
-        <v>0.8466646412386398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.84666464123863983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2037,19 +2081,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2516122567491849</v>
+        <v>-0.25161225674918491</v>
       </c>
       <c r="J12">
-        <v>0.02940004335865699</v>
+        <v>2.940004335865699E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3118320089283974</v>
+        <v>-0.31183200892839741</v>
       </c>
       <c r="L12">
-        <v>0.02748882596687927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.7488825966879269E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2075,19 +2119,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.3651483716701108</v>
+        <v>0.36514837167011083</v>
       </c>
       <c r="J13">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K13">
-        <v>0.4264014327112208</v>
+        <v>0.42640143271122077</v>
       </c>
       <c r="L13">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2113,19 +2157,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>0.7302967433402215</v>
+        <v>0.73029674334022154</v>
       </c>
       <c r="J14">
-        <v>0.01051524593585891</v>
+        <v>1.0515245935858911E-2</v>
       </c>
       <c r="K14">
-        <v>0.8528028654224417</v>
+        <v>0.85280286542244166</v>
       </c>
       <c r="L14">
-        <v>0.001712874149321468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.712874149321468E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2151,19 +2195,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.7385489458759965</v>
+        <v>0.73854894587599651</v>
       </c>
       <c r="J15">
-        <v>0.01028204822194895</v>
+        <v>1.0282048221948951E-2</v>
       </c>
       <c r="K15">
-        <v>0.8553989227683017</v>
+        <v>0.85539892276830165</v>
       </c>
       <c r="L15">
-        <v>0.001600453316805279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.600453316805279E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2192,16 +2236,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2227,19 +2271,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.5477225575051662</v>
+        <v>-0.54772255750516619</v>
       </c>
       <c r="J17">
-        <v>0.05500883362926572</v>
+        <v>5.5008833629265723E-2</v>
       </c>
       <c r="K17">
-        <v>-0.6396021490668313</v>
+        <v>-0.63960214906683133</v>
       </c>
       <c r="L17">
-        <v>0.04643461767158175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.6434617671581753E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2265,19 +2309,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-0.3651483716701108</v>
+        <v>-0.36514837167011083</v>
       </c>
       <c r="J18">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K18">
-        <v>-0.4264014327112208</v>
+        <v>-0.42640143271122077</v>
       </c>
       <c r="L18">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2303,19 +2347,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-0.3077287274483319</v>
+        <v>-0.30772872744833191</v>
       </c>
       <c r="J19">
-        <v>0.2849576406684299</v>
+        <v>0.28495764066842988</v>
       </c>
       <c r="K19">
-        <v>-0.3564162178201257</v>
+        <v>-0.35641621782012572</v>
       </c>
       <c r="L19">
-        <v>0.312061132326838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.31206113232683802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2344,16 +2388,16 @@
         <v>0.3042903097250923</v>
       </c>
       <c r="J20">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K20">
-        <v>0.3553345272593507</v>
+        <v>0.35533452725935072</v>
       </c>
       <c r="L20">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2379,19 +2423,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.3651483716701108</v>
+        <v>-0.36514837167011083</v>
       </c>
       <c r="J21">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K21">
-        <v>-0.4264014327112208</v>
+        <v>-0.42640143271122077</v>
       </c>
       <c r="L21">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2420,16 +2464,16 @@
         <v>0.3042903097250923</v>
       </c>
       <c r="J22">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K22">
-        <v>0.3553345272593507</v>
+        <v>0.35533452725935072</v>
       </c>
       <c r="L22">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2455,19 +2499,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.3651483716701108</v>
+        <v>0.36514837167011083</v>
       </c>
       <c r="J23">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K23">
-        <v>0.4264014327112208</v>
+        <v>0.42640143271122077</v>
       </c>
       <c r="L23">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2493,19 +2537,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.4260064336151292</v>
+        <v>-0.42600643361512919</v>
       </c>
       <c r="J24">
-        <v>0.1355930012663022</v>
+        <v>0.13559300126630219</v>
       </c>
       <c r="K24">
         <v>-0.497468338163091</v>
       </c>
       <c r="L24">
-        <v>0.1434614655950857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.14346146559508571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2531,19 +2575,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1023234355858201</v>
+        <v>-0.10232343558582011</v>
       </c>
       <c r="J25">
-        <v>0.6377328900501884</v>
+        <v>0.63773289005018841</v>
       </c>
       <c r="K25">
-        <v>-0.1215783580010781</v>
+        <v>-0.12157835800107809</v>
       </c>
       <c r="L25">
-        <v>0.6537671093538482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.65376710935384819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2569,19 +2613,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.01461763365511715</v>
+        <v>-1.4617633655117149E-2</v>
       </c>
       <c r="J26">
-        <v>0.94636892512424</v>
+        <v>0.94636892512423998</v>
       </c>
       <c r="K26">
-        <v>-0.01736833685729687</v>
+        <v>-1.736833685729687E-2</v>
       </c>
       <c r="L26">
-        <v>0.949096032737041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.94909603273704102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2607,19 +2651,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.2788995520575487</v>
+        <v>0.27889955205754868</v>
       </c>
       <c r="J27">
-        <v>0.2008903265397131</v>
+        <v>0.20089032653971309</v>
       </c>
       <c r="K27">
         <v>0.3302413141237342</v>
       </c>
       <c r="L27">
-        <v>0.2115824618683086</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.21158246186830859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2645,19 +2689,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1628423836175867</v>
+        <v>-0.16284238361758671</v>
       </c>
       <c r="J28">
-        <v>0.458010988385219</v>
+        <v>0.45801098838521898</v>
       </c>
       <c r="K28">
-        <v>-0.1916161134706239</v>
+        <v>-0.19161611347062391</v>
       </c>
       <c r="L28">
         <v>0.4771333722542902</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2683,30 +2727,31 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.2484997721369916</v>
+        <v>-0.24849977213699159</v>
       </c>
       <c r="J29">
-        <v>0.2528129010164081</v>
+        <v>0.25281290101640808</v>
       </c>
       <c r="K29">
-        <v>-0.2952617265740468</v>
+        <v>-0.29526172657404681</v>
       </c>
       <c r="L29">
-        <v>0.2669012522950682</v>
+        <v>0.26690125229506823</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2722,7 +2767,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2786,19 +2831,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.1707825127659933</v>
+        <v>-0.17078251276599329</v>
       </c>
       <c r="J2">
         <v>0.3368221511559395</v>
       </c>
       <c r="K2">
-        <v>-0.2206327958702234</v>
+        <v>-0.22063279587022341</v>
       </c>
       <c r="L2">
-        <v>0.3117066831945562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.31170668319455619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2824,19 +2869,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.2155727271443866</v>
+        <v>-0.21557272714438661</v>
       </c>
       <c r="J3">
         <v>0.2189727791934982</v>
       </c>
       <c r="K3">
-        <v>-0.2830068271047704</v>
+        <v>-0.28300682710477038</v>
       </c>
       <c r="L3">
-        <v>0.1907013837125806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.19070138371258061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2865,16 +2910,16 @@
         <v>0.182178575000007</v>
       </c>
       <c r="J4">
-        <v>0.2956465760209075</v>
+        <v>0.29564657602090749</v>
       </c>
       <c r="K4">
-        <v>0.2404694281998906</v>
+        <v>0.24046942819989059</v>
       </c>
       <c r="L4">
-        <v>0.2690489763203219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.26904897632032188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2900,19 +2945,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.1113404428537808</v>
+        <v>-0.11134044285378079</v>
       </c>
       <c r="J5">
-        <v>0.6639079018776488</v>
+        <v>0.66390790187764881</v>
       </c>
       <c r="K5">
-        <v>-0.131013944022344</v>
+        <v>-0.13101394402234401</v>
       </c>
       <c r="L5">
-        <v>0.6848487144273757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.68484871442737572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2938,19 +2983,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.2597943666588219</v>
+        <v>-0.25979436665882188</v>
       </c>
       <c r="J6">
-        <v>0.3106354563374008</v>
+        <v>0.31063545633740081</v>
       </c>
       <c r="K6">
-        <v>-0.3056992027188027</v>
+        <v>-0.30569920271880269</v>
       </c>
       <c r="L6">
-        <v>0.3338931364506602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.33389313645066021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2976,19 +3021,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>0.1113404428537808</v>
+        <v>0.11134044285378079</v>
       </c>
       <c r="J7">
-        <v>0.6639079018776488</v>
+        <v>0.66390790187764881</v>
       </c>
       <c r="K7">
-        <v>0.131013944022344</v>
+        <v>0.13101394402234401</v>
       </c>
       <c r="L7">
-        <v>0.6848487144273757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.68484871442737572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3014,19 +3059,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>-0.2597943666588219</v>
+        <v>-0.25979436665882188</v>
       </c>
       <c r="J8">
-        <v>0.3106354563374008</v>
+        <v>0.31063545633740081</v>
       </c>
       <c r="K8">
-        <v>-0.3056992027188027</v>
+        <v>-0.30569920271880269</v>
       </c>
       <c r="L8">
-        <v>0.3338931364506602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.33389313645066021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3052,19 +3097,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459341</v>
+        <v>-0.15625137459340999</v>
       </c>
       <c r="J9">
-        <v>0.0301286154880051</v>
+        <v>3.0128615488005099E-2</v>
       </c>
       <c r="K9">
         <v>-0.2203331090972887</v>
       </c>
       <c r="L9">
-        <v>0.0276105659239954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.7610565923995401E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3090,19 +3135,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01391413642584883</v>
+        <v>-1.3914136425848831E-2</v>
       </c>
       <c r="J10">
-        <v>0.9090032366864784</v>
+        <v>0.90900323668647842</v>
       </c>
       <c r="K10">
-        <v>-0.01026612600739247</v>
+        <v>-1.0266126007392471E-2</v>
       </c>
       <c r="L10">
-        <v>0.9435901857829745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.94359018578297449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3128,19 +3173,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02815294687312959</v>
+        <v>-2.8152946873129591E-2</v>
       </c>
       <c r="J11">
-        <v>0.8086800956106934</v>
+        <v>0.80868009561069343</v>
       </c>
       <c r="K11">
-        <v>-0.0299893827986723</v>
+        <v>-2.99893827986723E-2</v>
       </c>
       <c r="L11">
-        <v>0.8362130272367809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.83621302723678093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3166,19 +3211,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.247884667760308</v>
+        <v>-0.24788466776030799</v>
       </c>
       <c r="J12">
-        <v>0.03188792894690582</v>
+        <v>3.1887928946905821E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3096184720415943</v>
+        <v>-0.30961847204159432</v>
       </c>
       <c r="L12">
-        <v>0.02866696147428332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.8666961474283319E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3204,19 +3249,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4787549991450212</v>
+        <v>-0.47875499914502118</v>
       </c>
       <c r="J13">
-        <v>0.07217560549492458</v>
+        <v>7.2175605494924577E-2</v>
       </c>
       <c r="K13">
-        <v>-0.6292853089020909</v>
+        <v>-0.62928530890209089</v>
       </c>
       <c r="L13">
-        <v>0.05124855216842294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.1248552168422938E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3242,19 +3287,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.2267786838055363</v>
+        <v>-0.22677868380553631</v>
       </c>
       <c r="J14">
-        <v>0.3943870594034554</v>
+        <v>0.39438705940345542</v>
       </c>
       <c r="K14">
-        <v>-0.2860387767736777</v>
+        <v>-0.28603877677367773</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.42302039244413581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3283,16 +3328,16 @@
         <v>-0.1019294382875251</v>
       </c>
       <c r="J15">
-        <v>0.7040542681897126</v>
+        <v>0.70405426818971262</v>
       </c>
       <c r="K15">
-        <v>-0.0765092055676006</v>
+        <v>-7.6509205567600602E-2</v>
       </c>
       <c r="L15">
         <v>0.8336123677972922</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3318,19 +3363,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.579545525280815</v>
+        <v>-0.57954552528081504</v>
       </c>
       <c r="J16">
-        <v>0.02951512807757192</v>
+        <v>2.9515128077571919E-2</v>
       </c>
       <c r="K16">
-        <v>-0.7119187333033755</v>
+        <v>-0.71191873330337552</v>
       </c>
       <c r="L16">
-        <v>0.02091481468718881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.091481468718881E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3356,19 +3401,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1259881576697424</v>
+        <v>-0.12598815766974239</v>
       </c>
       <c r="J17">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K17">
-        <v>-0.1906925178491184</v>
+        <v>-0.19069251784911839</v>
       </c>
       <c r="L17">
         <v>0.5977007516614028</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3394,19 +3439,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.579545525280815</v>
+        <v>0.57954552528081504</v>
       </c>
       <c r="J18">
-        <v>0.02951512807757192</v>
+        <v>2.9515128077571919E-2</v>
       </c>
       <c r="K18">
-        <v>0.7437008196115621</v>
+        <v>0.74370081961156209</v>
       </c>
       <c r="L18">
-        <v>0.01366958411527145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.3669584115271451E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3432,19 +3477,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.560611910581388</v>
+        <v>0.56061191058138804</v>
       </c>
       <c r="J19">
-        <v>0.0366903087793031</v>
+        <v>3.6690308779303099E-2</v>
       </c>
       <c r="K19">
-        <v>0.7172738021962557</v>
+        <v>0.71727380219625569</v>
       </c>
       <c r="L19">
-        <v>0.01954204435368506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.9542044353685058E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3470,19 +3515,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.4787549991450212</v>
+        <v>-0.47875499914502118</v>
       </c>
       <c r="J20">
-        <v>0.07217560549492458</v>
+        <v>7.2175605494924577E-2</v>
       </c>
       <c r="K20">
-        <v>-0.6419981434253655</v>
+        <v>-0.64199814342536554</v>
       </c>
       <c r="L20">
-        <v>0.04536158917864154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.536158917864154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3508,19 +3553,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2771739468734333</v>
+        <v>-0.27717394687343327</v>
       </c>
       <c r="J21">
-        <v>0.2978975979923409</v>
+        <v>0.29789759799234089</v>
       </c>
       <c r="K21">
-        <v>-0.3750286184365996</v>
+        <v>-0.37502861843659963</v>
       </c>
       <c r="L21">
-        <v>0.2855969029688312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.28559690296883122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3546,19 +3591,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1259881576697424</v>
+        <v>0.12598815766974239</v>
       </c>
       <c r="J22">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K22">
         <v>0.1461975970176575</v>
       </c>
       <c r="L22">
-        <v>0.6869410188538527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.68694101885385273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3584,19 +3629,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1259881576697424</v>
+        <v>0.12598815766974239</v>
       </c>
       <c r="J23">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K23">
-        <v>0.2161181868956676</v>
+        <v>0.21611818689566761</v>
       </c>
       <c r="L23">
-        <v>0.5487107060733141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.54871070607331407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3622,19 +3667,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2267786838055363</v>
+        <v>-0.22677868380553631</v>
       </c>
       <c r="J24">
-        <v>0.3943870594034554</v>
+        <v>0.39438705940345542</v>
       </c>
       <c r="K24">
-        <v>-0.3114644458202268</v>
+        <v>-0.31146444582022681</v>
       </c>
       <c r="L24">
-        <v>0.3810089567050594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.38100895670505941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3660,19 +3705,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>0.08475793795260131</v>
+        <v>8.4757937952601309E-2</v>
       </c>
       <c r="J25">
-        <v>0.6923284900281212</v>
+        <v>0.69232849002812125</v>
       </c>
       <c r="K25">
         <v>0.1099316484014564</v>
       </c>
       <c r="L25">
-        <v>0.685265005536689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.68526500553668901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3698,19 +3743,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>0.08475793795260131</v>
+        <v>8.4757937952601309E-2</v>
       </c>
       <c r="J26">
-        <v>0.6923284900281212</v>
+        <v>0.69232849002812125</v>
       </c>
       <c r="K26">
         <v>0.1099316484014564</v>
       </c>
       <c r="L26">
-        <v>0.685265005536689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.68526500553668901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3736,19 +3781,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3404532748240978</v>
+        <v>0.34045327482409782</v>
       </c>
       <c r="J27">
         <v>0.1131965364706231</v>
       </c>
       <c r="K27">
-        <v>0.4029530171380015</v>
+        <v>0.40295301713800152</v>
       </c>
       <c r="L27">
         <v>0.1217337691688223</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3774,19 +3819,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.4978586625371179</v>
+        <v>-0.49785866253711791</v>
       </c>
       <c r="J28">
-        <v>0.02133732054563453</v>
+        <v>2.1337320545634531E-2</v>
       </c>
       <c r="K28">
-        <v>-0.5769230769230769</v>
+        <v>-0.57692307692307687</v>
       </c>
       <c r="L28">
-        <v>0.01929785020805572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>1.929785020805572E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3812,30 +3857,31 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.01695158759052026</v>
+        <v>-1.6951587590520258E-2</v>
       </c>
       <c r="J29">
-        <v>0.9369217280976989</v>
+        <v>0.93692172809769891</v>
       </c>
       <c r="K29">
-        <v>-0.03834824944236852</v>
+        <v>-3.8348249442368518E-2</v>
       </c>
       <c r="L29">
-        <v>0.8878693028318899</v>
+        <v>0.88786930283188992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3851,7 +3897,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +3961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +4013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +4039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4019,7 +4065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +4091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +4117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4100,16 +4146,16 @@
         <v>-0.1325530043077417</v>
       </c>
       <c r="J9">
-        <v>0.1086826442074059</v>
+        <v>0.10868264420740591</v>
       </c>
       <c r="K9">
-        <v>-0.1612223880273475</v>
+        <v>-0.16122238802734751</v>
       </c>
       <c r="L9">
         <v>0.1090548020620709</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4135,19 +4181,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.004001088444105332</v>
+        <v>-4.0010884441053322E-3</v>
       </c>
       <c r="J10">
-        <v>0.9739374982488735</v>
+        <v>0.97393749824887355</v>
       </c>
       <c r="K10">
-        <v>-0.004014544573191041</v>
+        <v>-4.0145445731910407E-3</v>
       </c>
       <c r="L10">
-        <v>0.9779259755977681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.97792597559776806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4173,19 +4219,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.01888959038201153</v>
+        <v>-1.8889590382011531E-2</v>
       </c>
       <c r="J11">
         <v>0.8717029852220165</v>
       </c>
       <c r="K11">
-        <v>-0.02206154843492711</v>
+        <v>-2.2061548434927108E-2</v>
       </c>
       <c r="L11">
-        <v>0.8791305588586364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.87913055885863645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4211,19 +4257,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2476064162497625</v>
+        <v>-0.24760641624976251</v>
       </c>
       <c r="J12">
-        <v>0.0331142128596994</v>
+        <v>3.3114212859699399E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3099127537051835</v>
+        <v>-0.30991275370518351</v>
       </c>
       <c r="L12">
-        <v>0.02850794708171081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.850794708171081E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4261,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4290,16 +4336,16 @@
         <v>0.6085806194501846</v>
       </c>
       <c r="J14">
-        <v>0.03300625766123251</v>
+        <v>3.300625766123251E-2</v>
       </c>
       <c r="K14">
-        <v>0.7106690545187014</v>
+        <v>0.71066905451870144</v>
       </c>
       <c r="L14">
-        <v>0.02124449212877441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.1244492128774412E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4325,19 +4371,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.6770032003863301</v>
+        <v>0.67700320038633011</v>
       </c>
       <c r="J15">
-        <v>0.01865536081150319</v>
+        <v>1.865536081150319E-2</v>
       </c>
       <c r="K15">
-        <v>0.7841156792042765</v>
+        <v>0.78411567920427649</v>
       </c>
       <c r="L15">
-        <v>0.007255789526699558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>7.2557895266995576E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4366,16 +4412,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4404,16 +4450,16 @@
         <v>-0.3042903097250923</v>
       </c>
       <c r="J17">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K17">
-        <v>-0.3553345272593507</v>
+        <v>-0.35533452725935072</v>
       </c>
       <c r="L17">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4439,19 +4485,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.06085806194501846</v>
+        <v>6.0858061945018457E-2</v>
       </c>
       <c r="J18">
-        <v>0.8311704095417624</v>
+        <v>0.83117040954176236</v>
       </c>
       <c r="K18">
-        <v>0.07106690545187015</v>
+        <v>7.1066905451870152E-2</v>
       </c>
       <c r="L18">
-        <v>0.8453239136912953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.84532391369129534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4477,19 +4523,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.09231861823449956</v>
+        <v>9.2318618234499564E-2</v>
       </c>
       <c r="J19">
-        <v>0.7483812122920345</v>
+        <v>0.74838121229203447</v>
       </c>
       <c r="K19">
-        <v>0.1069248653460377</v>
+        <v>0.10692486534603771</v>
       </c>
       <c r="L19">
-        <v>0.7687577033932652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.76875770339326521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4515,19 +4561,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.06085806194501846</v>
+        <v>-6.0858061945018457E-2</v>
       </c>
       <c r="J20">
-        <v>0.8311704095417624</v>
+        <v>0.83117040954176236</v>
       </c>
       <c r="K20">
-        <v>-0.07106690545187015</v>
+        <v>-7.1066905451870152E-2</v>
       </c>
       <c r="L20">
-        <v>0.8453239136912953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.84532391369129534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4553,19 +4599,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2434322477800739</v>
+        <v>-0.24343224778007391</v>
       </c>
       <c r="J21">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K21">
-        <v>-0.2842676218074806</v>
+        <v>-0.28426762180748061</v>
       </c>
       <c r="L21">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4594,16 +4640,16 @@
         <v>0.1217161238900369</v>
       </c>
       <c r="J22">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K22">
         <v>0.1421338109037403</v>
       </c>
       <c r="L22">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4629,19 +4675,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.2434322477800739</v>
+        <v>0.24343224778007391</v>
       </c>
       <c r="J23">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K23">
-        <v>0.2842676218074806</v>
+        <v>0.28426762180748061</v>
       </c>
       <c r="L23">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4667,19 +4713,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2434322477800739</v>
+        <v>-0.24343224778007391</v>
       </c>
       <c r="J24">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K24">
-        <v>-0.2842676218074806</v>
+        <v>-0.28426762180748061</v>
       </c>
       <c r="L24">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4705,19 +4751,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.3535533905932737</v>
+        <v>-0.35355339059327368</v>
       </c>
       <c r="J25">
         <v>0.1037416782365415</v>
       </c>
       <c r="K25">
-        <v>-0.4200840252084029</v>
+        <v>-0.42008402520840288</v>
       </c>
       <c r="L25">
         <v>0.105228057983522</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4743,19 +4789,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1649915822768611</v>
+        <v>-0.16499158227686109</v>
       </c>
       <c r="J26">
         <v>0.4476990724652935</v>
       </c>
       <c r="K26">
-        <v>-0.1960392117639214</v>
+        <v>-0.19603921176392139</v>
       </c>
       <c r="L26">
         <v>0.4668248490265503</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4781,19 +4827,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.02366905341655754</v>
+        <v>2.3669053416557541E-2</v>
       </c>
       <c r="J27">
-        <v>0.9135633303377861</v>
+        <v>0.91356333033778614</v>
       </c>
       <c r="K27">
-        <v>0.02802621677476181</v>
+        <v>2.802621677476181E-2</v>
       </c>
       <c r="L27">
-        <v>0.9179387985999929</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.91793879859999294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4819,19 +4865,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.2625754538144587</v>
+        <v>-0.26257545381445868</v>
       </c>
       <c r="J28">
-        <v>0.2314460271038938</v>
+        <v>0.23144602710389381</v>
       </c>
       <c r="K28">
-        <v>-0.3089716991054783</v>
+        <v>-0.30897169910547828</v>
       </c>
       <c r="L28">
-        <v>0.2442606266224961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.24426062662249609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4857,13 +4903,13 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.2592724864350675</v>
+        <v>0.25927248643506751</v>
       </c>
       <c r="J29">
         <v>0.2328233516916538</v>
       </c>
       <c r="K29">
-        <v>0.3080616184861621</v>
+        <v>0.30806161848616209</v>
       </c>
       <c r="L29">
         <v>0.2457251662216493</v>
@@ -4871,16 +4917,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -4896,7 +4943,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4960,7 +5007,7 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.2588600915717736</v>
+        <v>-0.25886009157177359</v>
       </c>
       <c r="J2">
         <v>0.1185826134820492</v>
@@ -4972,7 +5019,7 @@
         <v>0.157096814687567</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5001,16 +5048,16 @@
         <v>-0.3630554894720564</v>
       </c>
       <c r="J3">
-        <v>0.02649782086730554</v>
+        <v>2.6497820867305542E-2</v>
       </c>
       <c r="K3">
-        <v>-0.4471228632493155</v>
+        <v>-0.44712286324931549</v>
       </c>
       <c r="L3">
-        <v>0.03242678547292783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>3.2426785472927828E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5036,19 +5083,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.3826849293392768</v>
+        <v>0.38268492933927678</v>
       </c>
       <c r="J4">
-        <v>0.01856470797931634</v>
+        <v>1.856470797931634E-2</v>
       </c>
       <c r="K4">
-        <v>0.4532739558663172</v>
+        <v>0.45327395586631719</v>
       </c>
       <c r="L4">
-        <v>0.0298421137496698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.9842113749669798E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5077,16 +5124,16 @@
         <v>-0.2018433569398328</v>
       </c>
       <c r="J5">
-        <v>0.4065712940338708</v>
+        <v>0.40657129403387082</v>
       </c>
       <c r="K5">
         <v>-0.2056848110006326</v>
       </c>
       <c r="L5">
-        <v>0.521309719682044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.52130971968204398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5112,10 +5159,10 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.2385421491107114</v>
+        <v>-0.23854214911071139</v>
       </c>
       <c r="J6">
-        <v>0.326671088638757</v>
+        <v>0.32667108863875699</v>
       </c>
       <c r="K6">
         <v>-0.2437745908155646</v>
@@ -5124,7 +5171,7 @@
         <v>0.4451488240391529</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5150,19 +5197,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.4954336943068622</v>
+        <v>-0.49543369430686218</v>
       </c>
       <c r="J7">
-        <v>0.0416368567827736</v>
+        <v>4.1636856782773603E-2</v>
       </c>
       <c r="K7">
-        <v>-0.5561107852980067</v>
+        <v>-0.55611078529800673</v>
       </c>
       <c r="L7">
-        <v>0.06043495620092659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.0434956200926593E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5188,19 +5235,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.3486385256233475</v>
+        <v>0.34863852562334752</v>
       </c>
       <c r="J8">
-        <v>0.1517044197305971</v>
+        <v>0.15170441973059709</v>
       </c>
       <c r="K8">
-        <v>0.4037516660382788</v>
+        <v>0.40375166603827878</v>
       </c>
       <c r="L8">
-        <v>0.1930534976448194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.19305349764481941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5229,16 +5276,16 @@
         <v>-0.1508932577851104</v>
       </c>
       <c r="J9">
-        <v>0.03976539977998658</v>
+        <v>3.9765399779986582E-2</v>
       </c>
       <c r="K9">
-        <v>-0.2101007063448729</v>
+        <v>-0.21010070634487291</v>
       </c>
       <c r="L9">
-        <v>0.03589890255176344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.5898902551763437E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5264,19 +5311,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.02584053907657639</v>
+        <v>-2.584053907657639E-2</v>
       </c>
       <c r="J10">
-        <v>0.8319012317886401</v>
+        <v>0.83190123178864006</v>
       </c>
       <c r="K10">
-        <v>-0.02491868767248899</v>
+        <v>-2.491868767248899E-2</v>
       </c>
       <c r="L10">
-        <v>0.8636170341288709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.86361703412887092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5302,19 +5349,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02439922062337898</v>
+        <v>-2.439922062337898E-2</v>
       </c>
       <c r="J11">
-        <v>0.8337884478927275</v>
+        <v>0.83378844789272755</v>
       </c>
       <c r="K11">
-        <v>-0.02888208251072132</v>
+        <v>-2.8882082510721319E-2</v>
       </c>
       <c r="L11">
-        <v>0.8421820698041393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.84218206980413934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5340,19 +5387,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2516122567491849</v>
+        <v>-0.25161225674918491</v>
       </c>
       <c r="J12">
-        <v>0.02940004335865699</v>
+        <v>2.940004335865699E-2</v>
       </c>
       <c r="K12">
-        <v>-0.311094163299463</v>
+        <v>-0.31109416329946299</v>
       </c>
       <c r="L12">
-        <v>0.02787696039183273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.7876960391832729E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5378,19 +5425,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.04969039949999533</v>
+        <v>4.9690399499995333E-2</v>
       </c>
       <c r="J13">
-        <v>0.8509806870320558</v>
+        <v>0.85098068703205576</v>
       </c>
       <c r="K13">
-        <v>0.01262892050706804</v>
+        <v>1.262892050706804E-2</v>
       </c>
       <c r="L13">
-        <v>0.9723786419920799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.97237864199207991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5416,19 +5463,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.149071198499986</v>
+        <v>-0.14907119849998601</v>
       </c>
       <c r="J14">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K14">
         <v>-0.1894338076060206</v>
       </c>
       <c r="L14">
-        <v>0.6001664342511973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.60016643425119731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5454,19 +5501,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1256297269074015</v>
+        <v>-0.12562972690740151</v>
       </c>
       <c r="J15">
-        <v>0.6374017405958849</v>
+        <v>0.63740174059588495</v>
       </c>
       <c r="K15">
-        <v>-0.152008377581442</v>
+        <v>-0.15200837758144201</v>
       </c>
       <c r="L15">
-        <v>0.6750590889374006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.67505908893740063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5492,19 +5539,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.298142396999972</v>
+        <v>-0.29814239699997203</v>
       </c>
       <c r="J16">
-        <v>0.2596563563704499</v>
+        <v>0.25965635637044993</v>
       </c>
       <c r="K16">
-        <v>-0.3788676152120412</v>
+        <v>-0.37886761521204121</v>
       </c>
       <c r="L16">
-        <v>0.2802942824523375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.28029428245233751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5533,16 +5580,16 @@
         <v>-0.1987615979999813</v>
       </c>
       <c r="J17">
-        <v>0.4523703606773608</v>
+        <v>0.45237036067736081</v>
       </c>
       <c r="K17">
-        <v>-0.3409808536908371</v>
+        <v>-0.34098085369083708</v>
       </c>
       <c r="L17">
-        <v>0.3349456951179903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.33494569511799033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5568,19 +5615,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.149071198499986</v>
+        <v>0.14907119849998601</v>
       </c>
       <c r="J18">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K18">
-        <v>0.1641759665918845</v>
+        <v>0.16417596659188449</v>
       </c>
       <c r="L18">
-        <v>0.6503895621649565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.65038956216495647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5606,19 +5653,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.07537783614444091</v>
+        <v>7.5377836144440907E-2</v>
       </c>
       <c r="J19">
-        <v>0.7773295263554205</v>
+        <v>0.77732952635542052</v>
       </c>
       <c r="K19">
         <v>0.1076726007868547</v>
       </c>
       <c r="L19">
-        <v>0.7671778789420547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.76717787894205469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5644,19 +5691,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.09938079899999065</v>
+        <v>-9.9380798999990652E-2</v>
       </c>
       <c r="J20">
         <v>0.7071142312899612</v>
       </c>
       <c r="K20">
-        <v>-0.1262892050706804</v>
+        <v>-0.12628920507068039</v>
       </c>
       <c r="L20">
-        <v>0.7281063840216824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.72810638402168237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5682,19 +5729,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.149071198499986</v>
+        <v>-0.14907119849998601</v>
       </c>
       <c r="J21">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K21">
         <v>-0.2399494896342928</v>
       </c>
       <c r="L21">
-        <v>0.5043017190353258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.50430171903532583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5720,19 +5767,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3975231959999626</v>
+        <v>0.39752319599996261</v>
       </c>
       <c r="J22">
         <v>0.1328549557310538</v>
       </c>
       <c r="K22">
-        <v>0.5304146612968577</v>
+        <v>0.53041466129685766</v>
       </c>
       <c r="L22">
         <v>0.1147392659290222</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5758,19 +5805,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.298142396999972</v>
+        <v>0.29814239699997203</v>
       </c>
       <c r="J23">
-        <v>0.2596563563704499</v>
+        <v>0.25965635637044993</v>
       </c>
       <c r="K23">
-        <v>0.4041254562261773</v>
+        <v>0.40412545622617729</v>
       </c>
       <c r="L23">
-        <v>0.2467547295422347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.24675472954223471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5799,16 +5846,16 @@
         <v>-0.2484519974999766</v>
       </c>
       <c r="J24">
-        <v>0.347558036741169</v>
+        <v>0.34755803674116897</v>
       </c>
       <c r="K24">
-        <v>-0.4293832972403134</v>
+        <v>-0.42938329724031338</v>
       </c>
       <c r="L24">
-        <v>0.2155824117700313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.21558241177003129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5834,7 +5881,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.31352722326441002</v>
       </c>
       <c r="J25">
         <v>0.1131685336545776</v>
@@ -5843,10 +5890,10 @@
         <v>-0.4479914656638877</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>8.1821435051218708E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5875,16 +5922,16 @@
         <v>-0.3872983346207417</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>5.0365975790328012E-2</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.50701736823446741</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>4.5019308756935668E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5910,19 +5957,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>8.3340478742421134E-2</v>
       </c>
       <c r="J27">
         <v>0.6747078413451294</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>8.0273734629878232E-2</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.76759265155118128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5948,19 +5995,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>9.3388635780087617E-2</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.64014984145862264</v>
       </c>
       <c r="K28">
         <v>0.1305442024324843</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.62988406192489643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5986,19 +6033,20 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.12909944487358049</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.51421999881555058</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.16194286089877019</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.54903760923243294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E82EC7-9666-4A45-BA40-2DD75BC0DA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_tools" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="infer" sheetId="4" r:id="rId4"/>
     <sheet name="openjml" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -140,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +205,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,1141 +536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>-0.3377277477430254</v>
-      </c>
-      <c r="J2">
-        <v>0.03761941401427579</v>
-      </c>
-      <c r="K2">
-        <v>-0.3976802252851466</v>
-      </c>
-      <c r="L2">
-        <v>0.06021635626528627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>-0.4275482906928738</v>
-      </c>
-      <c r="J3">
-        <v>0.007641040482277836</v>
-      </c>
-      <c r="K3">
-        <v>-0.5452867412432369</v>
-      </c>
-      <c r="L3">
-        <v>0.007124393687845218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0.4111706600105638</v>
-      </c>
-      <c r="J4">
-        <v>0.00982101261512518</v>
-      </c>
-      <c r="K4">
-        <v>0.5360003171861121</v>
-      </c>
-      <c r="L4">
-        <v>0.008382091244079634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>-0.3133397807202561</v>
-      </c>
-      <c r="J5">
-        <v>0.1884699909010059</v>
-      </c>
-      <c r="K5">
-        <v>-0.3178304128441319</v>
-      </c>
-      <c r="L5">
-        <v>0.3140610795011266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>-0.4526019054848143</v>
-      </c>
-      <c r="J6">
-        <v>0.05748353173133636</v>
-      </c>
-      <c r="K6">
-        <v>-0.4693542143163343</v>
-      </c>
-      <c r="L6">
-        <v>0.1237049815910057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-      <c r="I7">
-        <v>-0.3829708431025352</v>
-      </c>
-      <c r="J7">
-        <v>0.1079738014574666</v>
-      </c>
-      <c r="K7">
-        <v>-0.458267106891539</v>
-      </c>
-      <c r="L7">
-        <v>0.1340598783554668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>0.1392621247645583</v>
-      </c>
-      <c r="J8">
-        <v>0.5588858290416201</v>
-      </c>
-      <c r="K8">
-        <v>0.2032636361212471</v>
-      </c>
-      <c r="L8">
-        <v>0.5263323724525723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>93</v>
-      </c>
-      <c r="G9">
-        <v>829</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>-0.2478183746269235</v>
-      </c>
-      <c r="J9">
-        <v>0.0003757589036624954</v>
-      </c>
-      <c r="K9">
-        <v>-0.3784833155682115</v>
-      </c>
-      <c r="L9">
-        <v>0.0001032931167420872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>903</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <v>-0.01788960397609135</v>
-      </c>
-      <c r="J10">
-        <v>0.8831700141519032</v>
-      </c>
-      <c r="K10">
-        <v>-0.01605248793883186</v>
-      </c>
-      <c r="L10">
-        <v>0.9118983828429555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>903</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-      <c r="I11">
-        <v>-0.0319066731228802</v>
-      </c>
-      <c r="J11">
-        <v>0.7837672300250216</v>
-      </c>
-      <c r="K11">
-        <v>-0.03045075791865187</v>
-      </c>
-      <c r="L11">
-        <v>0.8337285990222609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>48</v>
-      </c>
-      <c r="G12">
-        <v>903</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <v>-0.2441570787714312</v>
-      </c>
-      <c r="J12">
-        <v>0.03455416553919029</v>
-      </c>
-      <c r="K12">
-        <v>-0.3094340106343606</v>
-      </c>
-      <c r="L12">
-        <v>0.02876701130235894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>71</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>-0.4535394202249742</v>
-      </c>
-      <c r="J13">
-        <v>0.08070214265077501</v>
-      </c>
-      <c r="K13">
-        <v>-0.5512130501182249</v>
-      </c>
-      <c r="L13">
-        <v>0.09862398123473154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>71</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>-0.02387049580131443</v>
-      </c>
-      <c r="J14">
-        <v>0.92675547372309</v>
-      </c>
-      <c r="K14">
-        <v>-0.09290107586262218</v>
-      </c>
-      <c r="L14">
-        <v>0.7985237548304135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>71</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.09656090991705352</v>
-      </c>
-      <c r="J15">
-        <v>0.7120793980044939</v>
-      </c>
-      <c r="K15">
-        <v>0.1428819499477476</v>
-      </c>
-      <c r="L15">
-        <v>0.6937488280957302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>71</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>-0.7399853698407473</v>
-      </c>
-      <c r="J16">
-        <v>0.004375235749920733</v>
-      </c>
-      <c r="K16">
-        <v>-0.8670767080511405</v>
-      </c>
-      <c r="L16">
-        <v>0.001159768265192443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>71</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>-0.3103164454170876</v>
-      </c>
-      <c r="J17">
-        <v>0.2320634889020341</v>
-      </c>
-      <c r="K17">
-        <v>-0.4149581388530457</v>
-      </c>
-      <c r="L17">
-        <v>0.233093730241445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>71</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0.4535394202249742</v>
-      </c>
-      <c r="J18">
-        <v>0.08070214265077501</v>
-      </c>
-      <c r="K18">
-        <v>0.5635998602332413</v>
-      </c>
-      <c r="L18">
-        <v>0.08974939558201678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>71</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>0.4828045495852675</v>
-      </c>
-      <c r="J19">
-        <v>0.06499039472076076</v>
-      </c>
-      <c r="K19">
-        <v>0.5932707052178214</v>
-      </c>
-      <c r="L19">
-        <v>0.0706202179291523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>71</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>-0.3580574370197164</v>
-      </c>
-      <c r="J20">
-        <v>0.1679207532945924</v>
-      </c>
-      <c r="K20">
-        <v>-0.4954724046006516</v>
-      </c>
-      <c r="L20">
-        <v>0.1453294522910624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>71</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>-0.4535394202249742</v>
-      </c>
-      <c r="J21">
-        <v>0.08070214265077501</v>
-      </c>
-      <c r="K21">
-        <v>-0.6007602905782901</v>
-      </c>
-      <c r="L21">
-        <v>0.06625295074379814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>71</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0.1193524790065721</v>
-      </c>
-      <c r="J22">
-        <v>0.6457756768370824</v>
-      </c>
-      <c r="K22">
-        <v>0.1486417213801955</v>
-      </c>
-      <c r="L22">
-        <v>0.6819355638686473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>71</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0.167093470609201</v>
-      </c>
-      <c r="J23">
-        <v>0.5199036173455835</v>
-      </c>
-      <c r="K23">
-        <v>0.2725098225303584</v>
-      </c>
-      <c r="L23">
-        <v>0.446215643690079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>71</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>-0.3580574370197164</v>
-      </c>
-      <c r="J24">
-        <v>0.1679207532945924</v>
-      </c>
-      <c r="K24">
-        <v>-0.4706987843706191</v>
-      </c>
-      <c r="L24">
-        <v>0.1697475039817557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>39</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>-0.1807753815155468</v>
-      </c>
-      <c r="J25">
-        <v>0.3541954904764164</v>
-      </c>
-      <c r="K25">
-        <v>-0.2576049186596542</v>
-      </c>
-      <c r="L25">
-        <v>0.3354345184285685</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>39</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>-0.1807753815155468</v>
-      </c>
-      <c r="J26">
-        <v>0.3541954904764164</v>
-      </c>
-      <c r="K26">
-        <v>-0.2666436877354316</v>
-      </c>
-      <c r="L26">
-        <v>0.3181414648703181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>39</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>0.3539900381483285</v>
-      </c>
-      <c r="J27">
-        <v>0.07056136851892029</v>
-      </c>
-      <c r="K27">
-        <v>0.4341802833034056</v>
-      </c>
-      <c r="L27">
-        <v>0.09288178063084394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>39</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>-0.1647705109143269</v>
-      </c>
-      <c r="J28">
-        <v>0.4027546538976249</v>
-      </c>
-      <c r="K28">
-        <v>-0.2493004677260264</v>
-      </c>
-      <c r="L28">
-        <v>0.3517858440384553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>39</v>
-      </c>
-      <c r="H29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>-0.1265427670608828</v>
-      </c>
-      <c r="J29">
-        <v>0.5166373798159882</v>
-      </c>
-      <c r="K29">
-        <v>-0.1491396897503261</v>
-      </c>
-      <c r="L29">
-        <v>0.5814513259975999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1637,11 +553,1139 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="12" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>-0.33772774774302539</v>
+      </c>
+      <c r="J2">
+        <v>3.7619414014275793E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.39768022528514663</v>
+      </c>
+      <c r="L2">
+        <v>6.0216356265286271E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>-0.42754829069287381</v>
+      </c>
+      <c r="J3">
+        <v>7.6410404822778357E-3</v>
+      </c>
+      <c r="K3">
+        <v>-0.54528674124323695</v>
+      </c>
+      <c r="L3">
+        <v>7.124393687845218E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0.41117066001056379</v>
+      </c>
+      <c r="J4">
+        <v>9.8210126151251805E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.53600031718611207</v>
+      </c>
+      <c r="L4">
+        <v>8.3820912440796345E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>-0.31333978072025609</v>
+      </c>
+      <c r="J5">
+        <v>0.18846999090100591</v>
+      </c>
+      <c r="K5">
+        <v>-0.31783041284413188</v>
+      </c>
+      <c r="L5">
+        <v>0.31406107950112661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>-0.45260190548481433</v>
+      </c>
+      <c r="J6">
+        <v>5.7483531731336357E-2</v>
+      </c>
+      <c r="K6">
+        <v>-0.46935421431633428</v>
+      </c>
+      <c r="L6">
+        <v>0.12370498159100569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>-0.38297084310253521</v>
+      </c>
+      <c r="J7">
+        <v>0.1079738014574666</v>
+      </c>
+      <c r="K7">
+        <v>-0.45826710689153899</v>
+      </c>
+      <c r="L7">
+        <v>0.13405987835546679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0.13926212476455829</v>
+      </c>
+      <c r="J8">
+        <v>0.5588858290416201</v>
+      </c>
+      <c r="K8">
+        <v>0.20326363612124709</v>
+      </c>
+      <c r="L8">
+        <v>0.52633237245257225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>94</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>-0.16799308498171919</v>
+      </c>
+      <c r="J9">
+        <v>1.571209940531982E-2</v>
+      </c>
+      <c r="K9">
+        <v>-0.25815625942948522</v>
+      </c>
+      <c r="L9">
+        <v>9.5081814155965165E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>863</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>-1.7889603976091351E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.88317001415190322</v>
+      </c>
+      <c r="K10">
+        <v>-1.605248793883186E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.91189838284295555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>863</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>-3.1906673122880203E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.78376723002502158</v>
+      </c>
+      <c r="K11">
+        <v>-3.0450757918651868E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.83372859902226093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>863</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>-0.2441570787714312</v>
+      </c>
+      <c r="J12">
+        <v>3.4554165539190287E-2</v>
+      </c>
+      <c r="K12">
+        <v>-0.3094340106343606</v>
+      </c>
+      <c r="L12">
+        <v>2.8767011302358939E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>-0.45353942022497418</v>
+      </c>
+      <c r="J13">
+        <v>8.0702142650775008E-2</v>
+      </c>
+      <c r="K13">
+        <v>-0.55121305011822486</v>
+      </c>
+      <c r="L13">
+        <v>9.8623981234731539E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>71</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>-2.387049580131443E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.92675547372308997</v>
+      </c>
+      <c r="K14">
+        <v>-9.2901075862622182E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.79852375483041349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>9.6560909917053517E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.71207939800449394</v>
+      </c>
+      <c r="K15">
+        <v>0.14288194994774761</v>
+      </c>
+      <c r="L15">
+        <v>0.69374882809573024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>71</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>-0.73998536984074725</v>
+      </c>
+      <c r="J16">
+        <v>4.375235749920733E-3</v>
+      </c>
+      <c r="K16">
+        <v>-0.86707670805114045</v>
+      </c>
+      <c r="L16">
+        <v>1.1597682651924429E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>71</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>-0.31031644541708758</v>
+      </c>
+      <c r="J17">
+        <v>0.2320634889020341</v>
+      </c>
+      <c r="K17">
+        <v>-0.41495813885304572</v>
+      </c>
+      <c r="L17">
+        <v>0.233093730241445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>0.45353942022497418</v>
+      </c>
+      <c r="J18">
+        <v>8.0702142650775008E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.56359986023324127</v>
+      </c>
+      <c r="L18">
+        <v>8.9749395582016778E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>71</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0.48280454958526747</v>
+      </c>
+      <c r="J19">
+        <v>6.4990394720760764E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.59327070521782144</v>
+      </c>
+      <c r="L19">
+        <v>7.0620217929152296E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>-0.35805743701971637</v>
+      </c>
+      <c r="J20">
+        <v>0.16792075329459241</v>
+      </c>
+      <c r="K20">
+        <v>-0.49547240460065162</v>
+      </c>
+      <c r="L20">
+        <v>0.14532945229106239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>71</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>-0.45353942022497418</v>
+      </c>
+      <c r="J21">
+        <v>8.0702142650775008E-2</v>
+      </c>
+      <c r="K21">
+        <v>-0.60076029057829006</v>
+      </c>
+      <c r="L21">
+        <v>6.6252950743798139E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0.1193524790065721</v>
+      </c>
+      <c r="J22">
+        <v>0.64577567683708237</v>
+      </c>
+      <c r="K22">
+        <v>0.14864172138019549</v>
+      </c>
+      <c r="L22">
+        <v>0.68193556386864729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>71</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>0.16709347060920099</v>
+      </c>
+      <c r="J23">
+        <v>0.51990361734558355</v>
+      </c>
+      <c r="K23">
+        <v>0.27250982253035838</v>
+      </c>
+      <c r="L23">
+        <v>0.44621564369007899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>-0.35805743701971637</v>
+      </c>
+      <c r="J24">
+        <v>0.16792075329459241</v>
+      </c>
+      <c r="K24">
+        <v>-0.47069878437061913</v>
+      </c>
+      <c r="L24">
+        <v>0.1697475039817557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>-0.18077538151554681</v>
+      </c>
+      <c r="J25">
+        <v>0.35419549047641641</v>
+      </c>
+      <c r="K25">
+        <v>-0.25760491865965418</v>
+      </c>
+      <c r="L25">
+        <v>0.33543451842856847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>-0.18077538151554681</v>
+      </c>
+      <c r="J26">
+        <v>0.35419549047641641</v>
+      </c>
+      <c r="K26">
+        <v>-0.26664368773543162</v>
+      </c>
+      <c r="L26">
+        <v>0.31814146487031808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0.35399003814832852</v>
+      </c>
+      <c r="J27">
+        <v>7.0561368518920295E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.43418028330340558</v>
+      </c>
+      <c r="L27">
+        <v>9.2881780630843944E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>-0.1647705109143269</v>
+      </c>
+      <c r="J28">
+        <v>0.40275465389762488</v>
+      </c>
+      <c r="K28">
+        <v>-0.2493004677260264</v>
+      </c>
+      <c r="L28">
+        <v>0.35178584403845531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>-0.1265427670608828</v>
+      </c>
+      <c r="J29">
+        <v>0.51663737981598823</v>
+      </c>
+      <c r="K29">
+        <v>-0.1491396897503261</v>
+      </c>
+      <c r="L29">
+        <v>0.58145132599759985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1708,16 +1752,16 @@
         <v>-0.2277100170213244</v>
       </c>
       <c r="J2">
-        <v>0.2003280221869526</v>
+        <v>0.20032802218695259</v>
       </c>
       <c r="K2">
-        <v>-0.2719723502938716</v>
+        <v>-0.27197235029387162</v>
       </c>
       <c r="L2">
-        <v>0.2093250956596323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.20932509565963231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1743,19 +1787,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.263477777620917</v>
+        <v>-0.26347777762091701</v>
       </c>
       <c r="J3">
         <v>0.1329850671160174</v>
       </c>
       <c r="K3">
-        <v>-0.3201778730528596</v>
+        <v>-0.32017787305285961</v>
       </c>
       <c r="L3">
-        <v>0.1363764100850406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.13637641008504059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1784,16 +1828,16 @@
         <v>0.2297034206521828</v>
       </c>
       <c r="J4">
-        <v>0.187290841633909</v>
+        <v>0.18729084163390899</v>
       </c>
       <c r="K4">
-        <v>0.2809695424230301</v>
+        <v>0.28096954242303013</v>
       </c>
       <c r="L4">
-        <v>0.1940516726155841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.19405167261558409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1819,7 +1863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1897,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1923,19 +1967,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2289041597670328</v>
+        <v>-0.22890415976703279</v>
       </c>
       <c r="J9">
-        <v>0.004154062204876697</v>
+        <v>4.1540622048766972E-3</v>
       </c>
       <c r="K9">
-        <v>-0.2872671746617843</v>
+        <v>-0.28726717466178431</v>
       </c>
       <c r="L9">
-        <v>0.003756720549751365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.7567205497513649E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1961,19 +2005,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01788960397609135</v>
+        <v>-1.7889603976091351E-2</v>
       </c>
       <c r="J10">
-        <v>0.8831700141519032</v>
+        <v>0.88317001415190322</v>
       </c>
       <c r="K10">
-        <v>-0.02174552145202223</v>
+        <v>-2.1745521452022229E-2</v>
       </c>
       <c r="L10">
-        <v>0.8808493755591094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.88084937555910936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1999,19 +2043,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02439922062337898</v>
+        <v>-2.439922062337898E-2</v>
       </c>
       <c r="J11">
-        <v>0.8337884478927275</v>
+        <v>0.83378844789272755</v>
       </c>
       <c r="K11">
-        <v>-0.02805160729475809</v>
+        <v>-2.8051607294758089E-2</v>
       </c>
       <c r="L11">
-        <v>0.8466646412386398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.84666464123863983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2037,19 +2081,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2516122567491849</v>
+        <v>-0.25161225674918491</v>
       </c>
       <c r="J12">
-        <v>0.02940004335865699</v>
+        <v>2.940004335865699E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3118320089283974</v>
+        <v>-0.31183200892839741</v>
       </c>
       <c r="L12">
-        <v>0.02748882596687927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.7488825966879269E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2075,19 +2119,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.3651483716701108</v>
+        <v>0.36514837167011083</v>
       </c>
       <c r="J13">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K13">
-        <v>0.4264014327112208</v>
+        <v>0.42640143271122077</v>
       </c>
       <c r="L13">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2113,19 +2157,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>0.7302967433402215</v>
+        <v>0.73029674334022154</v>
       </c>
       <c r="J14">
-        <v>0.01051524593585891</v>
+        <v>1.0515245935858911E-2</v>
       </c>
       <c r="K14">
-        <v>0.8528028654224417</v>
+        <v>0.85280286542244166</v>
       </c>
       <c r="L14">
-        <v>0.001712874149321468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.712874149321468E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2151,19 +2195,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.7385489458759965</v>
+        <v>0.73854894587599651</v>
       </c>
       <c r="J15">
-        <v>0.01028204822194895</v>
+        <v>1.0282048221948951E-2</v>
       </c>
       <c r="K15">
-        <v>0.8553989227683017</v>
+        <v>0.85539892276830165</v>
       </c>
       <c r="L15">
-        <v>0.001600453316805279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.600453316805279E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2192,16 +2236,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2227,19 +2271,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.5477225575051662</v>
+        <v>-0.54772255750516619</v>
       </c>
       <c r="J17">
-        <v>0.05500883362926572</v>
+        <v>5.5008833629265723E-2</v>
       </c>
       <c r="K17">
-        <v>-0.6396021490668313</v>
+        <v>-0.63960214906683133</v>
       </c>
       <c r="L17">
-        <v>0.04643461767158175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.6434617671581753E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2265,19 +2309,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-0.3651483716701108</v>
+        <v>-0.36514837167011083</v>
       </c>
       <c r="J18">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K18">
-        <v>-0.4264014327112208</v>
+        <v>-0.42640143271122077</v>
       </c>
       <c r="L18">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2303,19 +2347,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-0.3077287274483319</v>
+        <v>-0.30772872744833191</v>
       </c>
       <c r="J19">
-        <v>0.2849576406684299</v>
+        <v>0.28495764066842988</v>
       </c>
       <c r="K19">
-        <v>-0.3564162178201257</v>
+        <v>-0.35641621782012572</v>
       </c>
       <c r="L19">
-        <v>0.312061132326838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.31206113232683802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2344,16 +2388,16 @@
         <v>0.3042903097250923</v>
       </c>
       <c r="J20">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K20">
-        <v>0.3553345272593507</v>
+        <v>0.35533452725935072</v>
       </c>
       <c r="L20">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2379,19 +2423,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.3651483716701108</v>
+        <v>-0.36514837167011083</v>
       </c>
       <c r="J21">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K21">
-        <v>-0.4264014327112208</v>
+        <v>-0.42640143271122077</v>
       </c>
       <c r="L21">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2420,16 +2464,16 @@
         <v>0.3042903097250923</v>
       </c>
       <c r="J22">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K22">
-        <v>0.3553345272593507</v>
+        <v>0.35533452725935072</v>
       </c>
       <c r="L22">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2455,19 +2499,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.3651483716701108</v>
+        <v>0.36514837167011083</v>
       </c>
       <c r="J23">
-        <v>0.2008251226951454</v>
+        <v>0.20082512269514541</v>
       </c>
       <c r="K23">
-        <v>0.4264014327112208</v>
+        <v>0.42640143271122077</v>
       </c>
       <c r="L23">
-        <v>0.2191383605228726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.21913836052287261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2493,19 +2537,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.4260064336151292</v>
+        <v>-0.42600643361512919</v>
       </c>
       <c r="J24">
-        <v>0.1355930012663022</v>
+        <v>0.13559300126630219</v>
       </c>
       <c r="K24">
         <v>-0.497468338163091</v>
       </c>
       <c r="L24">
-        <v>0.1434614655950857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.14346146559508571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2531,19 +2575,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1023234355858201</v>
+        <v>-0.10232343558582011</v>
       </c>
       <c r="J25">
-        <v>0.6377328900501884</v>
+        <v>0.63773289005018841</v>
       </c>
       <c r="K25">
-        <v>-0.1215783580010781</v>
+        <v>-0.12157835800107809</v>
       </c>
       <c r="L25">
-        <v>0.6537671093538482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.65376710935384819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2569,19 +2613,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.01461763365511715</v>
+        <v>-1.4617633655117149E-2</v>
       </c>
       <c r="J26">
-        <v>0.94636892512424</v>
+        <v>0.94636892512423998</v>
       </c>
       <c r="K26">
-        <v>-0.01736833685729687</v>
+        <v>-1.736833685729687E-2</v>
       </c>
       <c r="L26">
-        <v>0.949096032737041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.94909603273704102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2607,19 +2651,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.2788995520575487</v>
+        <v>0.27889955205754868</v>
       </c>
       <c r="J27">
-        <v>0.2008903265397131</v>
+        <v>0.20089032653971309</v>
       </c>
       <c r="K27">
         <v>0.3302413141237342</v>
       </c>
       <c r="L27">
-        <v>0.2115824618683086</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.21158246186830859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2645,19 +2689,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1628423836175867</v>
+        <v>-0.16284238361758671</v>
       </c>
       <c r="J28">
-        <v>0.458010988385219</v>
+        <v>0.45801098838521898</v>
       </c>
       <c r="K28">
-        <v>-0.1916161134706239</v>
+        <v>-0.19161611347062391</v>
       </c>
       <c r="L28">
         <v>0.4771333722542902</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2683,30 +2727,31 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.2484997721369916</v>
+        <v>-0.24849977213699159</v>
       </c>
       <c r="J29">
-        <v>0.2528129010164081</v>
+        <v>0.25281290101640808</v>
       </c>
       <c r="K29">
-        <v>-0.2952617265740468</v>
+        <v>-0.29526172657404681</v>
       </c>
       <c r="L29">
-        <v>0.2669012522950682</v>
+        <v>0.26690125229506823</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2722,7 +2767,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2760,7 +2805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2786,19 +2831,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.1707825127659933</v>
+        <v>-0.17078251276599329</v>
       </c>
       <c r="J2">
         <v>0.3368221511559395</v>
       </c>
       <c r="K2">
-        <v>-0.2206327958702234</v>
+        <v>-0.22063279587022341</v>
       </c>
       <c r="L2">
-        <v>0.3117066831945562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.31170668319455619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2824,19 +2869,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.2155727271443866</v>
+        <v>-0.21557272714438661</v>
       </c>
       <c r="J3">
         <v>0.2189727791934982</v>
       </c>
       <c r="K3">
-        <v>-0.2830068271047704</v>
+        <v>-0.28300682710477038</v>
       </c>
       <c r="L3">
-        <v>0.1907013837125806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.19070138371258061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2865,16 +2910,16 @@
         <v>0.182178575000007</v>
       </c>
       <c r="J4">
-        <v>0.2956465760209075</v>
+        <v>0.29564657602090749</v>
       </c>
       <c r="K4">
-        <v>0.2404694281998906</v>
+        <v>0.24046942819989059</v>
       </c>
       <c r="L4">
-        <v>0.2690489763203219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.26904897632032188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2900,19 +2945,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.1113404428537808</v>
+        <v>-0.11134044285378079</v>
       </c>
       <c r="J5">
-        <v>0.6639079018776488</v>
+        <v>0.66390790187764881</v>
       </c>
       <c r="K5">
-        <v>-0.131013944022344</v>
+        <v>-0.13101394402234401</v>
       </c>
       <c r="L5">
-        <v>0.6848487144273757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.68484871442737572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2938,19 +2983,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.2597943666588219</v>
+        <v>-0.25979436665882188</v>
       </c>
       <c r="J6">
-        <v>0.3106354563374008</v>
+        <v>0.31063545633740081</v>
       </c>
       <c r="K6">
-        <v>-0.3056992027188027</v>
+        <v>-0.30569920271880269</v>
       </c>
       <c r="L6">
-        <v>0.3338931364506602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.33389313645066021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2976,19 +3021,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>0.1113404428537808</v>
+        <v>0.11134044285378079</v>
       </c>
       <c r="J7">
-        <v>0.6639079018776488</v>
+        <v>0.66390790187764881</v>
       </c>
       <c r="K7">
-        <v>0.131013944022344</v>
+        <v>0.13101394402234401</v>
       </c>
       <c r="L7">
-        <v>0.6848487144273757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.68484871442737572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3014,19 +3059,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>-0.2597943666588219</v>
+        <v>-0.25979436665882188</v>
       </c>
       <c r="J8">
-        <v>0.3106354563374008</v>
+        <v>0.31063545633740081</v>
       </c>
       <c r="K8">
-        <v>-0.3056992027188027</v>
+        <v>-0.30569920271880269</v>
       </c>
       <c r="L8">
-        <v>0.3338931364506602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.33389313645066021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3052,19 +3097,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459341</v>
+        <v>-0.15625137459340999</v>
       </c>
       <c r="J9">
-        <v>0.0301286154880051</v>
+        <v>3.0128615488005099E-2</v>
       </c>
       <c r="K9">
         <v>-0.2203331090972887</v>
       </c>
       <c r="L9">
-        <v>0.0276105659239954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.7610565923995401E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3090,19 +3135,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.01391413642584883</v>
+        <v>-1.3914136425848831E-2</v>
       </c>
       <c r="J10">
-        <v>0.9090032366864784</v>
+        <v>0.90900323668647842</v>
       </c>
       <c r="K10">
-        <v>-0.01026612600739247</v>
+        <v>-1.0266126007392471E-2</v>
       </c>
       <c r="L10">
-        <v>0.9435901857829745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.94359018578297449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3128,19 +3173,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02815294687312959</v>
+        <v>-2.8152946873129591E-2</v>
       </c>
       <c r="J11">
-        <v>0.8086800956106934</v>
+        <v>0.80868009561069343</v>
       </c>
       <c r="K11">
-        <v>-0.0299893827986723</v>
+        <v>-2.99893827986723E-2</v>
       </c>
       <c r="L11">
-        <v>0.8362130272367809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.83621302723678093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3166,19 +3211,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.247884667760308</v>
+        <v>-0.24788466776030799</v>
       </c>
       <c r="J12">
-        <v>0.03188792894690582</v>
+        <v>3.1887928946905821E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3096184720415943</v>
+        <v>-0.30961847204159432</v>
       </c>
       <c r="L12">
-        <v>0.02866696147428332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.8666961474283319E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3204,19 +3249,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4787549991450212</v>
+        <v>-0.47875499914502118</v>
       </c>
       <c r="J13">
-        <v>0.07217560549492458</v>
+        <v>7.2175605494924577E-2</v>
       </c>
       <c r="K13">
-        <v>-0.6292853089020909</v>
+        <v>-0.62928530890209089</v>
       </c>
       <c r="L13">
-        <v>0.05124855216842294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.1248552168422938E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3242,19 +3287,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.2267786838055363</v>
+        <v>-0.22677868380553631</v>
       </c>
       <c r="J14">
-        <v>0.3943870594034554</v>
+        <v>0.39438705940345542</v>
       </c>
       <c r="K14">
-        <v>-0.2860387767736777</v>
+        <v>-0.28603877677367773</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.42302039244413581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3283,16 +3328,16 @@
         <v>-0.1019294382875251</v>
       </c>
       <c r="J15">
-        <v>0.7040542681897126</v>
+        <v>0.70405426818971262</v>
       </c>
       <c r="K15">
-        <v>-0.0765092055676006</v>
+        <v>-7.6509205567600602E-2</v>
       </c>
       <c r="L15">
         <v>0.8336123677972922</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3318,19 +3363,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.579545525280815</v>
+        <v>-0.57954552528081504</v>
       </c>
       <c r="J16">
-        <v>0.02951512807757192</v>
+        <v>2.9515128077571919E-2</v>
       </c>
       <c r="K16">
-        <v>-0.7119187333033755</v>
+        <v>-0.71191873330337552</v>
       </c>
       <c r="L16">
-        <v>0.02091481468718881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.091481468718881E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3356,19 +3401,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1259881576697424</v>
+        <v>-0.12598815766974239</v>
       </c>
       <c r="J17">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K17">
-        <v>-0.1906925178491184</v>
+        <v>-0.19069251784911839</v>
       </c>
       <c r="L17">
         <v>0.5977007516614028</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3394,19 +3439,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.579545525280815</v>
+        <v>0.57954552528081504</v>
       </c>
       <c r="J18">
-        <v>0.02951512807757192</v>
+        <v>2.9515128077571919E-2</v>
       </c>
       <c r="K18">
-        <v>0.7437008196115621</v>
+        <v>0.74370081961156209</v>
       </c>
       <c r="L18">
-        <v>0.01366958411527145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.3669584115271451E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3432,19 +3477,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.560611910581388</v>
+        <v>0.56061191058138804</v>
       </c>
       <c r="J19">
-        <v>0.0366903087793031</v>
+        <v>3.6690308779303099E-2</v>
       </c>
       <c r="K19">
-        <v>0.7172738021962557</v>
+        <v>0.71727380219625569</v>
       </c>
       <c r="L19">
-        <v>0.01954204435368506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.9542044353685058E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3470,19 +3515,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.4787549991450212</v>
+        <v>-0.47875499914502118</v>
       </c>
       <c r="J20">
-        <v>0.07217560549492458</v>
+        <v>7.2175605494924577E-2</v>
       </c>
       <c r="K20">
-        <v>-0.6419981434253655</v>
+        <v>-0.64199814342536554</v>
       </c>
       <c r="L20">
-        <v>0.04536158917864154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.536158917864154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3508,19 +3553,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2771739468734333</v>
+        <v>-0.27717394687343327</v>
       </c>
       <c r="J21">
-        <v>0.2978975979923409</v>
+        <v>0.29789759799234089</v>
       </c>
       <c r="K21">
-        <v>-0.3750286184365996</v>
+        <v>-0.37502861843659963</v>
       </c>
       <c r="L21">
-        <v>0.2855969029688312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.28559690296883122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3546,19 +3591,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1259881576697424</v>
+        <v>0.12598815766974239</v>
       </c>
       <c r="J22">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K22">
         <v>0.1461975970176575</v>
       </c>
       <c r="L22">
-        <v>0.6869410188538527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.68694101885385273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3584,19 +3629,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1259881576697424</v>
+        <v>0.12598815766974239</v>
       </c>
       <c r="J23">
-        <v>0.6360988735986226</v>
+        <v>0.63609887359862261</v>
       </c>
       <c r="K23">
-        <v>0.2161181868956676</v>
+        <v>0.21611818689566761</v>
       </c>
       <c r="L23">
-        <v>0.5487107060733141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.54871070607331407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3622,19 +3667,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2267786838055363</v>
+        <v>-0.22677868380553631</v>
       </c>
       <c r="J24">
-        <v>0.3943870594034554</v>
+        <v>0.39438705940345542</v>
       </c>
       <c r="K24">
-        <v>-0.3114644458202268</v>
+        <v>-0.31146444582022681</v>
       </c>
       <c r="L24">
-        <v>0.3810089567050594</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.38100895670505941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3660,19 +3705,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>0.08475793795260131</v>
+        <v>8.4757937952601309E-2</v>
       </c>
       <c r="J25">
-        <v>0.6923284900281212</v>
+        <v>0.69232849002812125</v>
       </c>
       <c r="K25">
         <v>0.1099316484014564</v>
       </c>
       <c r="L25">
-        <v>0.685265005536689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.68526500553668901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3698,19 +3743,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>0.08475793795260131</v>
+        <v>8.4757937952601309E-2</v>
       </c>
       <c r="J26">
-        <v>0.6923284900281212</v>
+        <v>0.69232849002812125</v>
       </c>
       <c r="K26">
         <v>0.1099316484014564</v>
       </c>
       <c r="L26">
-        <v>0.685265005536689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.68526500553668901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3736,19 +3781,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3404532748240978</v>
+        <v>0.34045327482409782</v>
       </c>
       <c r="J27">
         <v>0.1131965364706231</v>
       </c>
       <c r="K27">
-        <v>0.4029530171380015</v>
+        <v>0.40295301713800152</v>
       </c>
       <c r="L27">
         <v>0.1217337691688223</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3774,19 +3819,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.4978586625371179</v>
+        <v>-0.49785866253711791</v>
       </c>
       <c r="J28">
-        <v>0.02133732054563453</v>
+        <v>2.1337320545634531E-2</v>
       </c>
       <c r="K28">
-        <v>-0.5769230769230769</v>
+        <v>-0.57692307692307687</v>
       </c>
       <c r="L28">
-        <v>0.01929785020805572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>1.929785020805572E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3812,30 +3857,31 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.01695158759052026</v>
+        <v>-1.6951587590520258E-2</v>
       </c>
       <c r="J29">
-        <v>0.9369217280976989</v>
+        <v>0.93692172809769891</v>
       </c>
       <c r="K29">
-        <v>-0.03834824944236852</v>
+        <v>-3.8348249442368518E-2</v>
       </c>
       <c r="L29">
-        <v>0.8878693028318899</v>
+        <v>0.88786930283188992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3851,7 +3897,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3915,7 +3961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +4013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +4039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4019,7 +4065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +4091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +4117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4100,16 +4146,16 @@
         <v>-0.1325530043077417</v>
       </c>
       <c r="J9">
-        <v>0.1086826442074059</v>
+        <v>0.10868264420740591</v>
       </c>
       <c r="K9">
-        <v>-0.1612223880273475</v>
+        <v>-0.16122238802734751</v>
       </c>
       <c r="L9">
         <v>0.1090548020620709</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4135,19 +4181,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.004001088444105332</v>
+        <v>-4.0010884441053322E-3</v>
       </c>
       <c r="J10">
-        <v>0.9739374982488735</v>
+        <v>0.97393749824887355</v>
       </c>
       <c r="K10">
-        <v>-0.004014544573191041</v>
+        <v>-4.0145445731910407E-3</v>
       </c>
       <c r="L10">
-        <v>0.9779259755977681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.97792597559776806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4173,19 +4219,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.01888959038201153</v>
+        <v>-1.8889590382011531E-2</v>
       </c>
       <c r="J11">
         <v>0.8717029852220165</v>
       </c>
       <c r="K11">
-        <v>-0.02206154843492711</v>
+        <v>-2.2061548434927108E-2</v>
       </c>
       <c r="L11">
-        <v>0.8791305588586364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.87913055885863645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4211,19 +4257,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2476064162497625</v>
+        <v>-0.24760641624976251</v>
       </c>
       <c r="J12">
-        <v>0.0331142128596994</v>
+        <v>3.3114212859699399E-2</v>
       </c>
       <c r="K12">
-        <v>-0.3099127537051835</v>
+        <v>-0.30991275370518351</v>
       </c>
       <c r="L12">
-        <v>0.02850794708171081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.850794708171081E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4261,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4290,16 +4336,16 @@
         <v>0.6085806194501846</v>
       </c>
       <c r="J14">
-        <v>0.03300625766123251</v>
+        <v>3.300625766123251E-2</v>
       </c>
       <c r="K14">
-        <v>0.7106690545187014</v>
+        <v>0.71066905451870144</v>
       </c>
       <c r="L14">
-        <v>0.02124449212877441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2.1244492128774412E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4325,19 +4371,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.6770032003863301</v>
+        <v>0.67700320038633011</v>
       </c>
       <c r="J15">
-        <v>0.01865536081150319</v>
+        <v>1.865536081150319E-2</v>
       </c>
       <c r="K15">
-        <v>0.7841156792042765</v>
+        <v>0.78411567920427649</v>
       </c>
       <c r="L15">
-        <v>0.007255789526699558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>7.2557895266995576E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4366,16 +4412,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4404,16 +4450,16 @@
         <v>-0.3042903097250923</v>
       </c>
       <c r="J17">
-        <v>0.2864220227778588</v>
+        <v>0.28642202277785878</v>
       </c>
       <c r="K17">
-        <v>-0.3553345272593507</v>
+        <v>-0.35533452725935072</v>
       </c>
       <c r="L17">
-        <v>0.3136373640754537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.31363736407545367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4439,19 +4485,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.06085806194501846</v>
+        <v>6.0858061945018457E-2</v>
       </c>
       <c r="J18">
-        <v>0.8311704095417624</v>
+        <v>0.83117040954176236</v>
       </c>
       <c r="K18">
-        <v>0.07106690545187015</v>
+        <v>7.1066905451870152E-2</v>
       </c>
       <c r="L18">
-        <v>0.8453239136912953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.84532391369129534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4477,19 +4523,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.09231861823449956</v>
+        <v>9.2318618234499564E-2</v>
       </c>
       <c r="J19">
-        <v>0.7483812122920345</v>
+        <v>0.74838121229203447</v>
       </c>
       <c r="K19">
-        <v>0.1069248653460377</v>
+        <v>0.10692486534603771</v>
       </c>
       <c r="L19">
-        <v>0.7687577033932652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.76875770339326521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4515,19 +4561,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.06085806194501846</v>
+        <v>-6.0858061945018457E-2</v>
       </c>
       <c r="J20">
-        <v>0.8311704095417624</v>
+        <v>0.83117040954176236</v>
       </c>
       <c r="K20">
-        <v>-0.07106690545187015</v>
+        <v>-7.1066905451870152E-2</v>
       </c>
       <c r="L20">
-        <v>0.8453239136912953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.84532391369129534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4553,19 +4599,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2434322477800739</v>
+        <v>-0.24343224778007391</v>
       </c>
       <c r="J21">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K21">
-        <v>-0.2842676218074806</v>
+        <v>-0.28426762180748061</v>
       </c>
       <c r="L21">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4594,16 +4640,16 @@
         <v>0.1217161238900369</v>
       </c>
       <c r="J22">
-        <v>0.6698153575994166</v>
+        <v>0.66981535759941657</v>
       </c>
       <c r="K22">
         <v>0.1421338109037403</v>
       </c>
       <c r="L22">
-        <v>0.6952876854012655</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.69528768540126551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4629,19 +4675,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.2434322477800739</v>
+        <v>0.24343224778007391</v>
       </c>
       <c r="J23">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K23">
-        <v>0.2842676218074806</v>
+        <v>0.28426762180748061</v>
       </c>
       <c r="L23">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4667,19 +4713,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2434322477800739</v>
+        <v>-0.24343224778007391</v>
       </c>
       <c r="J24">
-        <v>0.3937686346429927</v>
+        <v>0.39376863464299272</v>
       </c>
       <c r="K24">
-        <v>-0.2842676218074806</v>
+        <v>-0.28426762180748061</v>
       </c>
       <c r="L24">
-        <v>0.4260244484285426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.42602444842854259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4705,19 +4751,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.3535533905932737</v>
+        <v>-0.35355339059327368</v>
       </c>
       <c r="J25">
         <v>0.1037416782365415</v>
       </c>
       <c r="K25">
-        <v>-0.4200840252084029</v>
+        <v>-0.42008402520840288</v>
       </c>
       <c r="L25">
         <v>0.105228057983522</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4743,19 +4789,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1649915822768611</v>
+        <v>-0.16499158227686109</v>
       </c>
       <c r="J26">
         <v>0.4476990724652935</v>
       </c>
       <c r="K26">
-        <v>-0.1960392117639214</v>
+        <v>-0.19603921176392139</v>
       </c>
       <c r="L26">
         <v>0.4668248490265503</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4781,19 +4827,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.02366905341655754</v>
+        <v>2.3669053416557541E-2</v>
       </c>
       <c r="J27">
-        <v>0.9135633303377861</v>
+        <v>0.91356333033778614</v>
       </c>
       <c r="K27">
-        <v>0.02802621677476181</v>
+        <v>2.802621677476181E-2</v>
       </c>
       <c r="L27">
-        <v>0.9179387985999929</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.91793879859999294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4819,19 +4865,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.2625754538144587</v>
+        <v>-0.26257545381445868</v>
       </c>
       <c r="J28">
-        <v>0.2314460271038938</v>
+        <v>0.23144602710389381</v>
       </c>
       <c r="K28">
-        <v>-0.3089716991054783</v>
+        <v>-0.30897169910547828</v>
       </c>
       <c r="L28">
-        <v>0.2442606266224961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.24426062662249609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4857,13 +4903,13 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.2592724864350675</v>
+        <v>0.25927248643506751</v>
       </c>
       <c r="J29">
         <v>0.2328233516916538</v>
       </c>
       <c r="K29">
-        <v>0.3080616184861621</v>
+        <v>0.30806161848616209</v>
       </c>
       <c r="L29">
         <v>0.2457251662216493</v>
@@ -4871,16 +4917,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -4896,7 +4943,7 @@
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4960,7 +5007,7 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.2588600915717736</v>
+        <v>-0.25886009157177359</v>
       </c>
       <c r="J2">
         <v>0.1185826134820492</v>
@@ -4972,7 +5019,7 @@
         <v>0.157096814687567</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5001,16 +5048,16 @@
         <v>-0.3630554894720564</v>
       </c>
       <c r="J3">
-        <v>0.02649782086730554</v>
+        <v>2.6497820867305542E-2</v>
       </c>
       <c r="K3">
-        <v>-0.4471228632493155</v>
+        <v>-0.44712286324931549</v>
       </c>
       <c r="L3">
-        <v>0.03242678547292783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>3.2426785472927828E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5036,19 +5083,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.3826849293392768</v>
+        <v>0.38268492933927678</v>
       </c>
       <c r="J4">
-        <v>0.01856470797931634</v>
+        <v>1.856470797931634E-2</v>
       </c>
       <c r="K4">
-        <v>0.4532739558663172</v>
+        <v>0.45327395586631719</v>
       </c>
       <c r="L4">
-        <v>0.0298421137496698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.9842113749669798E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5077,16 +5124,16 @@
         <v>-0.2018433569398328</v>
       </c>
       <c r="J5">
-        <v>0.4065712940338708</v>
+        <v>0.40657129403387082</v>
       </c>
       <c r="K5">
         <v>-0.2056848110006326</v>
       </c>
       <c r="L5">
-        <v>0.521309719682044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.52130971968204398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5112,10 +5159,10 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.2385421491107114</v>
+        <v>-0.23854214911071139</v>
       </c>
       <c r="J6">
-        <v>0.326671088638757</v>
+        <v>0.32667108863875699</v>
       </c>
       <c r="K6">
         <v>-0.2437745908155646</v>
@@ -5124,7 +5171,7 @@
         <v>0.4451488240391529</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5150,19 +5197,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.4954336943068622</v>
+        <v>-0.49543369430686218</v>
       </c>
       <c r="J7">
-        <v>0.0416368567827736</v>
+        <v>4.1636856782773603E-2</v>
       </c>
       <c r="K7">
-        <v>-0.5561107852980067</v>
+        <v>-0.55611078529800673</v>
       </c>
       <c r="L7">
-        <v>0.06043495620092659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.0434956200926593E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5188,19 +5235,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.3486385256233475</v>
+        <v>0.34863852562334752</v>
       </c>
       <c r="J8">
-        <v>0.1517044197305971</v>
+        <v>0.15170441973059709</v>
       </c>
       <c r="K8">
-        <v>0.4037516660382788</v>
+        <v>0.40375166603827878</v>
       </c>
       <c r="L8">
-        <v>0.1930534976448194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.19305349764481941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5220,25 +5267,25 @@
         <v>69</v>
       </c>
       <c r="G9">
-        <v>437</v>
+        <v>808</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2153978895161592</v>
+        <v>-0.1508932577851104</v>
       </c>
       <c r="J9">
-        <v>0.003422549212990788</v>
+        <v>3.9765399779986582E-2</v>
       </c>
       <c r="K9">
-        <v>-0.3011065798445393</v>
+        <v>-0.21010070634487291</v>
       </c>
       <c r="L9">
-        <v>0.002333088653324443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.5898902551763437E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5258,25 +5305,25 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.02584053907657639</v>
+        <v>-2.584053907657639E-2</v>
       </c>
       <c r="J10">
-        <v>0.8319012317886401</v>
+        <v>0.83190123178864006</v>
       </c>
       <c r="K10">
-        <v>-0.02491868767248899</v>
+        <v>-2.491868767248899E-2</v>
       </c>
       <c r="L10">
-        <v>0.8636170341288709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.86361703412887092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5296,25 +5343,25 @@
         <v>41</v>
       </c>
       <c r="G11">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.02439922062337898</v>
+        <v>-2.439922062337898E-2</v>
       </c>
       <c r="J11">
-        <v>0.8337884478927275</v>
+        <v>0.83378844789272755</v>
       </c>
       <c r="K11">
-        <v>-0.02888208251072132</v>
+        <v>-2.8882082510721319E-2</v>
       </c>
       <c r="L11">
-        <v>0.8421820698041393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.84218206980413934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5334,25 +5381,25 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2516122567491849</v>
+        <v>-0.25161225674918491</v>
       </c>
       <c r="J12">
-        <v>0.02940004335865699</v>
+        <v>2.940004335865699E-2</v>
       </c>
       <c r="K12">
-        <v>-0.311094163299463</v>
+        <v>-0.31109416329946299</v>
       </c>
       <c r="L12">
-        <v>0.02787696039183273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>2.7876960391832729E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5378,19 +5425,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.04969039949999533</v>
+        <v>4.9690399499995333E-2</v>
       </c>
       <c r="J13">
-        <v>0.8509806870320558</v>
+        <v>0.85098068703205576</v>
       </c>
       <c r="K13">
-        <v>0.01262892050706804</v>
+        <v>1.262892050706804E-2</v>
       </c>
       <c r="L13">
-        <v>0.9723786419920799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.97237864199207991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5416,19 +5463,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.149071198499986</v>
+        <v>-0.14907119849998601</v>
       </c>
       <c r="J14">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K14">
         <v>-0.1894338076060206</v>
       </c>
       <c r="L14">
-        <v>0.6001664342511973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.60016643425119731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5454,19 +5501,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1256297269074015</v>
+        <v>-0.12562972690740151</v>
       </c>
       <c r="J15">
-        <v>0.6374017405958849</v>
+        <v>0.63740174059588495</v>
       </c>
       <c r="K15">
-        <v>-0.152008377581442</v>
+        <v>-0.15200837758144201</v>
       </c>
       <c r="L15">
-        <v>0.6750590889374006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.67505908893740063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5492,19 +5539,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.298142396999972</v>
+        <v>-0.29814239699997203</v>
       </c>
       <c r="J16">
-        <v>0.2596563563704499</v>
+        <v>0.25965635637044993</v>
       </c>
       <c r="K16">
-        <v>-0.3788676152120412</v>
+        <v>-0.37886761521204121</v>
       </c>
       <c r="L16">
-        <v>0.2802942824523375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.28029428245233751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5533,16 +5580,16 @@
         <v>-0.1987615979999813</v>
       </c>
       <c r="J17">
-        <v>0.4523703606773608</v>
+        <v>0.45237036067736081</v>
       </c>
       <c r="K17">
-        <v>-0.3409808536908371</v>
+        <v>-0.34098085369083708</v>
       </c>
       <c r="L17">
-        <v>0.3349456951179903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.33494569511799033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5568,19 +5615,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.149071198499986</v>
+        <v>0.14907119849998601</v>
       </c>
       <c r="J18">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K18">
-        <v>0.1641759665918845</v>
+        <v>0.16417596659188449</v>
       </c>
       <c r="L18">
-        <v>0.6503895621649565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.65038956216495647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5606,19 +5653,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.07537783614444091</v>
+        <v>7.5377836144440907E-2</v>
       </c>
       <c r="J19">
-        <v>0.7773295263554205</v>
+        <v>0.77732952635542052</v>
       </c>
       <c r="K19">
         <v>0.1076726007868547</v>
       </c>
       <c r="L19">
-        <v>0.7671778789420547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.76717787894205469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5644,19 +5691,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.09938079899999065</v>
+        <v>-9.9380798999990652E-2</v>
       </c>
       <c r="J20">
         <v>0.7071142312899612</v>
       </c>
       <c r="K20">
-        <v>-0.1262892050706804</v>
+        <v>-0.12628920507068039</v>
       </c>
       <c r="L20">
-        <v>0.7281063840216824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.72810638402168237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5682,19 +5729,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.149071198499986</v>
+        <v>-0.14907119849998601</v>
       </c>
       <c r="J21">
-        <v>0.5730251193553904</v>
+        <v>0.57302511935539036</v>
       </c>
       <c r="K21">
         <v>-0.2399494896342928</v>
       </c>
       <c r="L21">
-        <v>0.5043017190353258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.50430171903532583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5720,19 +5767,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3975231959999626</v>
+        <v>0.39752319599996261</v>
       </c>
       <c r="J22">
         <v>0.1328549557310538</v>
       </c>
       <c r="K22">
-        <v>0.5304146612968577</v>
+        <v>0.53041466129685766</v>
       </c>
       <c r="L22">
         <v>0.1147392659290222</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5758,19 +5805,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.298142396999972</v>
+        <v>0.29814239699997203</v>
       </c>
       <c r="J23">
-        <v>0.2596563563704499</v>
+        <v>0.25965635637044993</v>
       </c>
       <c r="K23">
-        <v>0.4041254562261773</v>
+        <v>0.40412545622617729</v>
       </c>
       <c r="L23">
-        <v>0.2467547295422347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.24675472954223471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5799,16 +5846,16 @@
         <v>-0.2484519974999766</v>
       </c>
       <c r="J24">
-        <v>0.347558036741169</v>
+        <v>0.34755803674116897</v>
       </c>
       <c r="K24">
-        <v>-0.4293832972403134</v>
+        <v>-0.42938329724031338</v>
       </c>
       <c r="L24">
-        <v>0.2155824117700313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.21558241177003129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5834,7 +5881,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.31352722326441002</v>
       </c>
       <c r="J25">
         <v>0.1131685336545776</v>
@@ -5843,10 +5890,10 @@
         <v>-0.4479914656638877</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>8.1821435051218708E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5875,16 +5922,16 @@
         <v>-0.3872983346207417</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>5.0365975790328012E-2</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.50701736823446741</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>4.5019308756935668E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5910,19 +5957,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>8.3340478742421134E-2</v>
       </c>
       <c r="J27">
         <v>0.6747078413451294</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>8.0273734629878232E-2</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0.76759265155118128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5948,19 +5995,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>9.3388635780087617E-2</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.64014984145862264</v>
       </c>
       <c r="K28">
         <v>0.1305442024324843</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.62988406192489643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5986,19 +6033,20 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.12909944487358049</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.51421999881555058</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.16194286089877019</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.54903760923243294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E82EC7-9666-4A45-BA40-2DD75BC0DA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="all_tools" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="infer" sheetId="4" r:id="rId4"/>
     <sheet name="openjml" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -141,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +204,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,27 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,24 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,12 +491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -553,10 +508,11 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="12" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -620,19 +576,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.33772774774302539</v>
+        <v>-0.3377277477430254</v>
       </c>
       <c r="J2">
-        <v>3.7619414014275793E-2</v>
+        <v>0.03761941401427579</v>
       </c>
       <c r="K2">
-        <v>-0.39768022528514663</v>
+        <v>-0.3976802252851466</v>
       </c>
       <c r="L2">
-        <v>6.0216356265286271E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.06021635626528627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -658,19 +614,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.42754829069287381</v>
+        <v>-0.4275482906928738</v>
       </c>
       <c r="J3">
-        <v>7.6410404822778357E-3</v>
+        <v>0.007641040482277836</v>
       </c>
       <c r="K3">
-        <v>-0.54528674124323695</v>
+        <v>-0.5452867412432369</v>
       </c>
       <c r="L3">
-        <v>7.124393687845218E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.007124393687845218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -696,19 +652,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.41117066001056379</v>
+        <v>0.4111706600105638</v>
       </c>
       <c r="J4">
-        <v>9.8210126151251805E-3</v>
+        <v>0.00982101261512518</v>
       </c>
       <c r="K4">
-        <v>0.53600031718611207</v>
+        <v>0.5360003171861121</v>
       </c>
       <c r="L4">
-        <v>8.3820912440796345E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.008382091244079634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -734,19 +690,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.31333978072025609</v>
+        <v>-0.3133397807202561</v>
       </c>
       <c r="J5">
-        <v>0.18846999090100591</v>
+        <v>0.1884699909010059</v>
       </c>
       <c r="K5">
-        <v>-0.31783041284413188</v>
+        <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.31406107950112661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3140610795011266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -772,19 +728,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.45260190548481433</v>
+        <v>-0.4526019054848143</v>
       </c>
       <c r="J6">
-        <v>5.7483531731336357E-2</v>
+        <v>0.05748353173133636</v>
       </c>
       <c r="K6">
-        <v>-0.46935421431633428</v>
+        <v>-0.4693542143163343</v>
       </c>
       <c r="L6">
-        <v>0.12370498159100569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1237049815910057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -810,19 +766,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.38297084310253521</v>
+        <v>-0.3829708431025352</v>
       </c>
       <c r="J7">
         <v>0.1079738014574666</v>
       </c>
       <c r="K7">
-        <v>-0.45826710689153899</v>
+        <v>-0.458267106891539</v>
       </c>
       <c r="L7">
-        <v>0.13405987835546679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1340598783554668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -848,19 +804,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.13926212476455829</v>
+        <v>0.1392621247645583</v>
       </c>
       <c r="J8">
         <v>0.5588858290416201</v>
       </c>
       <c r="K8">
-        <v>0.20326363612124709</v>
+        <v>0.2032636361212471</v>
       </c>
       <c r="L8">
-        <v>0.52633237245257225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5263323724525723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -886,19 +842,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.16799308498171919</v>
+        <v>-0.1679930849817192</v>
       </c>
       <c r="J9">
-        <v>1.571209940531982E-2</v>
+        <v>0.01571209940531982</v>
       </c>
       <c r="K9">
-        <v>-0.25815625942948522</v>
+        <v>-0.2581562594294852</v>
       </c>
       <c r="L9">
-        <v>9.5081814155965165E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.009508181415596517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -918,25 +874,25 @@
         <v>48</v>
       </c>
       <c r="G10">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-1.7889603976091351E-2</v>
+        <v>-0.004411049494636653</v>
       </c>
       <c r="J10">
-        <v>0.88317001415190322</v>
+        <v>0.9661499862603788</v>
       </c>
       <c r="K10">
-        <v>-1.605248793883186E-2</v>
+        <v>0.01130929713203963</v>
       </c>
       <c r="L10">
-        <v>0.91189838284295555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9378689342631706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -956,25 +912,25 @@
         <v>48</v>
       </c>
       <c r="G11">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-3.1906673122880203E-2</v>
+        <v>0.003332010047664792</v>
       </c>
       <c r="J11">
-        <v>0.78376723002502158</v>
+        <v>0.9732533892101075</v>
       </c>
       <c r="K11">
-        <v>-3.0450757918651868E-2</v>
+        <v>0.01235993088052629</v>
       </c>
       <c r="L11">
-        <v>0.83372859902226093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9321098925965412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -994,25 +950,25 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.2441570787714312</v>
+        <v>0.04384172195310927</v>
       </c>
       <c r="J12">
-        <v>3.4554165539190287E-2</v>
+        <v>0.6570720959071299</v>
       </c>
       <c r="K12">
-        <v>-0.3094340106343606</v>
+        <v>0.07369133573268023</v>
       </c>
       <c r="L12">
-        <v>2.8767011302358939E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6110401171103582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1038,19 +994,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.45353942022497418</v>
+        <v>-0.4535394202249742</v>
       </c>
       <c r="J13">
-        <v>8.0702142650775008E-2</v>
+        <v>0.08070214265077501</v>
       </c>
       <c r="K13">
-        <v>-0.55121305011822486</v>
+        <v>-0.5512130501182249</v>
       </c>
       <c r="L13">
-        <v>9.8623981234731539E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.09862398123473154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1076,19 +1032,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-2.387049580131443E-2</v>
+        <v>-0.02387049580131443</v>
       </c>
       <c r="J14">
-        <v>0.92675547372308997</v>
+        <v>0.92675547372309</v>
       </c>
       <c r="K14">
-        <v>-9.2901075862622182E-2</v>
+        <v>-0.09290107586262218</v>
       </c>
       <c r="L14">
-        <v>0.79852375483041349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7985237548304135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1114,19 +1070,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>9.6560909917053517E-2</v>
+        <v>0.09656090991705352</v>
       </c>
       <c r="J15">
-        <v>0.71207939800449394</v>
+        <v>0.7120793980044939</v>
       </c>
       <c r="K15">
-        <v>0.14288194994774761</v>
+        <v>0.1428819499477476</v>
       </c>
       <c r="L15">
-        <v>0.69374882809573024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6937488280957302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1152,19 +1108,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.73998536984074725</v>
+        <v>-0.7399853698407473</v>
       </c>
       <c r="J16">
-        <v>4.375235749920733E-3</v>
+        <v>0.004375235749920733</v>
       </c>
       <c r="K16">
-        <v>-0.86707670805114045</v>
+        <v>-0.8670767080511405</v>
       </c>
       <c r="L16">
-        <v>1.1597682651924429E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.001159768265192443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1190,19 +1146,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.31031644541708758</v>
+        <v>-0.3103164454170876</v>
       </c>
       <c r="J17">
         <v>0.2320634889020341</v>
       </c>
       <c r="K17">
-        <v>-0.41495813885304572</v>
+        <v>-0.4149581388530457</v>
       </c>
       <c r="L17">
         <v>0.233093730241445</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1228,19 +1184,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.45353942022497418</v>
+        <v>0.4535394202249742</v>
       </c>
       <c r="J18">
-        <v>8.0702142650775008E-2</v>
+        <v>0.08070214265077501</v>
       </c>
       <c r="K18">
-        <v>0.56359986023324127</v>
+        <v>0.5635998602332413</v>
       </c>
       <c r="L18">
-        <v>8.9749395582016778E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.08974939558201678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1266,19 +1222,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.48280454958526747</v>
+        <v>0.4828045495852675</v>
       </c>
       <c r="J19">
-        <v>6.4990394720760764E-2</v>
+        <v>0.06499039472076076</v>
       </c>
       <c r="K19">
-        <v>0.59327070521782144</v>
+        <v>0.5932707052178214</v>
       </c>
       <c r="L19">
-        <v>7.0620217929152296E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0706202179291523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1304,19 +1260,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.35805743701971637</v>
+        <v>-0.3580574370197164</v>
       </c>
       <c r="J20">
-        <v>0.16792075329459241</v>
+        <v>0.1679207532945924</v>
       </c>
       <c r="K20">
-        <v>-0.49547240460065162</v>
+        <v>-0.4954724046006516</v>
       </c>
       <c r="L20">
-        <v>0.14532945229106239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1453294522910624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1342,19 +1298,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.45353942022497418</v>
+        <v>-0.4535394202249742</v>
       </c>
       <c r="J21">
-        <v>8.0702142650775008E-2</v>
+        <v>0.08070214265077501</v>
       </c>
       <c r="K21">
-        <v>-0.60076029057829006</v>
+        <v>-0.6007602905782901</v>
       </c>
       <c r="L21">
-        <v>6.6252950743798139E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.06625295074379814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1383,16 +1339,16 @@
         <v>0.1193524790065721</v>
       </c>
       <c r="J22">
-        <v>0.64577567683708237</v>
+        <v>0.6457756768370824</v>
       </c>
       <c r="K22">
-        <v>0.14864172138019549</v>
+        <v>0.1486417213801955</v>
       </c>
       <c r="L22">
-        <v>0.68193556386864729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6819355638686473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1418,19 +1374,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.16709347060920099</v>
+        <v>0.167093470609201</v>
       </c>
       <c r="J23">
-        <v>0.51990361734558355</v>
+        <v>0.5199036173455835</v>
       </c>
       <c r="K23">
-        <v>0.27250982253035838</v>
+        <v>0.2725098225303584</v>
       </c>
       <c r="L23">
-        <v>0.44621564369007899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.446215643690079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1456,19 +1412,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.35805743701971637</v>
+        <v>-0.3580574370197164</v>
       </c>
       <c r="J24">
-        <v>0.16792075329459241</v>
+        <v>0.1679207532945924</v>
       </c>
       <c r="K24">
-        <v>-0.47069878437061913</v>
+        <v>-0.4706987843706191</v>
       </c>
       <c r="L24">
         <v>0.1697475039817557</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1488,25 +1444,25 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.18077538151554681</v>
+        <v>-0.1626978433639921</v>
       </c>
       <c r="J25">
-        <v>0.35419549047641641</v>
+        <v>0.4043745903773081</v>
       </c>
       <c r="K25">
-        <v>-0.25760491865965418</v>
+        <v>-0.2500726110965064</v>
       </c>
       <c r="L25">
-        <v>0.33543451842856847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3502469232913418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1526,25 +1482,25 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.18077538151554681</v>
+        <v>-0.1988529196671015</v>
       </c>
       <c r="J26">
-        <v>0.35419549047641641</v>
+        <v>0.3081411014502622</v>
       </c>
       <c r="K26">
-        <v>-0.26664368773543162</v>
+        <v>-0.2741759952985793</v>
       </c>
       <c r="L26">
-        <v>0.31814146487031808</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3041353554760347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1564,25 +1520,25 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.35399003814832852</v>
+        <v>0.3721433734379864</v>
       </c>
       <c r="J27">
-        <v>7.0561368518920295E-2</v>
+        <v>0.05729901570416417</v>
       </c>
       <c r="K27">
-        <v>0.43418028330340558</v>
+        <v>0.443979491086295</v>
       </c>
       <c r="L27">
-        <v>9.2881780630843944E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.08493122100226924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1602,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -1611,16 +1567,16 @@
         <v>-0.1647705109143269</v>
       </c>
       <c r="J28">
-        <v>0.40275465389762488</v>
+        <v>0.4027546538976249</v>
       </c>
       <c r="K28">
-        <v>-0.2493004677260264</v>
+        <v>-0.2341913484699036</v>
       </c>
       <c r="L28">
-        <v>0.35178584403845531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3826574736700414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1640,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>16</v>
@@ -1649,1109 +1605,27 @@
         <v>-0.1265427670608828</v>
       </c>
       <c r="J29">
-        <v>0.51663737981598823</v>
+        <v>0.5166373798159882</v>
       </c>
       <c r="K29">
-        <v>-0.1491396897503261</v>
+        <v>-0.159684920338733</v>
       </c>
       <c r="L29">
-        <v>0.58145132599759985</v>
+        <v>0.554695992273345</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>-0.2277100170213244</v>
-      </c>
-      <c r="J2">
-        <v>0.20032802218695259</v>
-      </c>
-      <c r="K2">
-        <v>-0.27197235029387162</v>
-      </c>
-      <c r="L2">
-        <v>0.20932509565963231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>-0.26347777762091701</v>
-      </c>
-      <c r="J3">
-        <v>0.1329850671160174</v>
-      </c>
-      <c r="K3">
-        <v>-0.32017787305285961</v>
-      </c>
-      <c r="L3">
-        <v>0.13637641008504059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>0.2297034206521828</v>
-      </c>
-      <c r="J4">
-        <v>0.18729084163390899</v>
-      </c>
-      <c r="K4">
-        <v>0.28096954242303013</v>
-      </c>
-      <c r="L4">
-        <v>0.19405167261558409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>52</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>-0.22890415976703279</v>
-      </c>
-      <c r="J9">
-        <v>4.1540622048766972E-3</v>
-      </c>
-      <c r="K9">
-        <v>-0.28726717466178431</v>
-      </c>
-      <c r="L9">
-        <v>3.7567205497513649E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>83</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10">
-        <v>-1.7889603976091351E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.88317001415190322</v>
-      </c>
-      <c r="K10">
-        <v>-2.1745521452022229E-2</v>
-      </c>
-      <c r="L10">
-        <v>0.88084937555910936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>83</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
-      <c r="I11">
-        <v>-2.439922062337898E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.83378844789272755</v>
-      </c>
-      <c r="K11">
-        <v>-2.8051607294758089E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.84666464123863983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>28</v>
-      </c>
-      <c r="G12">
-        <v>83</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <v>-0.25161225674918491</v>
-      </c>
-      <c r="J12">
-        <v>2.940004335865699E-2</v>
-      </c>
-      <c r="K12">
-        <v>-0.31183200892839741</v>
-      </c>
-      <c r="L12">
-        <v>2.7488825966879269E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0.36514837167011083</v>
-      </c>
-      <c r="J13">
-        <v>0.20082512269514541</v>
-      </c>
-      <c r="K13">
-        <v>0.42640143271122077</v>
-      </c>
-      <c r="L13">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0.73029674334022154</v>
-      </c>
-      <c r="J14">
-        <v>1.0515245935858911E-2</v>
-      </c>
-      <c r="K14">
-        <v>0.85280286542244166</v>
-      </c>
-      <c r="L14">
-        <v>1.712874149321468E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.73854894587599651</v>
-      </c>
-      <c r="J15">
-        <v>1.0282048221948951E-2</v>
-      </c>
-      <c r="K15">
-        <v>0.85539892276830165</v>
-      </c>
-      <c r="L15">
-        <v>1.600453316805279E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>-0.1217161238900369</v>
-      </c>
-      <c r="J16">
-        <v>0.66981535759941657</v>
-      </c>
-      <c r="K16">
-        <v>-0.1421338109037403</v>
-      </c>
-      <c r="L16">
-        <v>0.69528768540126551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>-0.54772255750516619</v>
-      </c>
-      <c r="J17">
-        <v>5.5008833629265723E-2</v>
-      </c>
-      <c r="K17">
-        <v>-0.63960214906683133</v>
-      </c>
-      <c r="L17">
-        <v>4.6434617671581753E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>-0.36514837167011083</v>
-      </c>
-      <c r="J18">
-        <v>0.20082512269514541</v>
-      </c>
-      <c r="K18">
-        <v>-0.42640143271122077</v>
-      </c>
-      <c r="L18">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>-0.30772872744833191</v>
-      </c>
-      <c r="J19">
-        <v>0.28495764066842988</v>
-      </c>
-      <c r="K19">
-        <v>-0.35641621782012572</v>
-      </c>
-      <c r="L19">
-        <v>0.31206113232683802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0.3042903097250923</v>
-      </c>
-      <c r="J20">
-        <v>0.28642202277785878</v>
-      </c>
-      <c r="K20">
-        <v>0.35533452725935072</v>
-      </c>
-      <c r="L20">
-        <v>0.31363736407545367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>-0.36514837167011083</v>
-      </c>
-      <c r="J21">
-        <v>0.20082512269514541</v>
-      </c>
-      <c r="K21">
-        <v>-0.42640143271122077</v>
-      </c>
-      <c r="L21">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0.3042903097250923</v>
-      </c>
-      <c r="J22">
-        <v>0.28642202277785878</v>
-      </c>
-      <c r="K22">
-        <v>0.35533452725935072</v>
-      </c>
-      <c r="L22">
-        <v>0.31363736407545367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0.36514837167011083</v>
-      </c>
-      <c r="J23">
-        <v>0.20082512269514541</v>
-      </c>
-      <c r="K23">
-        <v>0.42640143271122077</v>
-      </c>
-      <c r="L23">
-        <v>0.21913836052287261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>-0.42600643361512919</v>
-      </c>
-      <c r="J24">
-        <v>0.13559300126630219</v>
-      </c>
-      <c r="K24">
-        <v>-0.497468338163091</v>
-      </c>
-      <c r="L24">
-        <v>0.14346146559508571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>-0.10232343558582011</v>
-      </c>
-      <c r="J25">
-        <v>0.63773289005018841</v>
-      </c>
-      <c r="K25">
-        <v>-0.12157835800107809</v>
-      </c>
-      <c r="L25">
-        <v>0.65376710935384819</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>-1.4617633655117149E-2</v>
-      </c>
-      <c r="J26">
-        <v>0.94636892512423998</v>
-      </c>
-      <c r="K26">
-        <v>-1.736833685729687E-2</v>
-      </c>
-      <c r="L26">
-        <v>0.94909603273704102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>0.27889955205754868</v>
-      </c>
-      <c r="J27">
-        <v>0.20089032653971309</v>
-      </c>
-      <c r="K27">
-        <v>0.3302413141237342</v>
-      </c>
-      <c r="L27">
-        <v>0.21158246186830859</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>-0.16284238361758671</v>
-      </c>
-      <c r="J28">
-        <v>0.45801098838521898</v>
-      </c>
-      <c r="K28">
-        <v>-0.19161611347062391</v>
-      </c>
-      <c r="L28">
-        <v>0.4771333722542902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>-0.24849977213699159</v>
-      </c>
-      <c r="J29">
-        <v>0.25281290101640808</v>
-      </c>
-      <c r="K29">
-        <v>-0.29526172657404681</v>
-      </c>
-      <c r="L29">
-        <v>0.26690125229506823</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2763,11 +1637,1092 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>-0.2277100170213244</v>
+      </c>
+      <c r="J2">
+        <v>0.2003280221869526</v>
+      </c>
+      <c r="K2">
+        <v>-0.2719723502938716</v>
+      </c>
+      <c r="L2">
+        <v>0.2093250956596323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>-0.263477777620917</v>
+      </c>
+      <c r="J3">
+        <v>0.1329850671160174</v>
+      </c>
+      <c r="K3">
+        <v>-0.3201778730528596</v>
+      </c>
+      <c r="L3">
+        <v>0.1363764100850406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0.2297034206521828</v>
+      </c>
+      <c r="J4">
+        <v>0.187290841633909</v>
+      </c>
+      <c r="K4">
+        <v>0.2809695424230301</v>
+      </c>
+      <c r="L4">
+        <v>0.1940516726155841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>-0.2289041597670328</v>
+      </c>
+      <c r="J9">
+        <v>0.004154062204876697</v>
+      </c>
+      <c r="K9">
+        <v>-0.2872671746617843</v>
+      </c>
+      <c r="L9">
+        <v>0.003756720549751365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>83</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>-0.2741939043543897</v>
+      </c>
+      <c r="J10">
+        <v>0.01523742906785629</v>
+      </c>
+      <c r="K10">
+        <v>-0.3438060590640694</v>
+      </c>
+      <c r="L10">
+        <v>0.0145005762354219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>83</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>-0.2885159533670518</v>
+      </c>
+      <c r="J11">
+        <v>0.007534224862278689</v>
+      </c>
+      <c r="K11">
+        <v>-0.3916527812158478</v>
+      </c>
+      <c r="L11">
+        <v>0.004913052567611288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>0.1527404930393114</v>
+      </c>
+      <c r="J12">
+        <v>0.1545006958890939</v>
+      </c>
+      <c r="K12">
+        <v>0.1874148805812322</v>
+      </c>
+      <c r="L12">
+        <v>0.192476549579598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>0.3651483716701108</v>
+      </c>
+      <c r="J13">
+        <v>0.2008251226951454</v>
+      </c>
+      <c r="K13">
+        <v>0.4264014327112208</v>
+      </c>
+      <c r="L13">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0.7302967433402215</v>
+      </c>
+      <c r="J14">
+        <v>0.01051524593585891</v>
+      </c>
+      <c r="K14">
+        <v>0.8528028654224417</v>
+      </c>
+      <c r="L14">
+        <v>0.001712874149321468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.7385489458759965</v>
+      </c>
+      <c r="J15">
+        <v>0.01028204822194895</v>
+      </c>
+      <c r="K15">
+        <v>0.8553989227683017</v>
+      </c>
+      <c r="L15">
+        <v>0.001600453316805279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>-0.1217161238900369</v>
+      </c>
+      <c r="J16">
+        <v>0.6698153575994166</v>
+      </c>
+      <c r="K16">
+        <v>-0.1421338109037403</v>
+      </c>
+      <c r="L16">
+        <v>0.6952876854012655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>-0.5477225575051662</v>
+      </c>
+      <c r="J17">
+        <v>0.05500883362926572</v>
+      </c>
+      <c r="K17">
+        <v>-0.6396021490668313</v>
+      </c>
+      <c r="L17">
+        <v>0.04643461767158175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>-0.3651483716701108</v>
+      </c>
+      <c r="J18">
+        <v>0.2008251226951454</v>
+      </c>
+      <c r="K18">
+        <v>-0.4264014327112208</v>
+      </c>
+      <c r="L18">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>-0.3077287274483319</v>
+      </c>
+      <c r="J19">
+        <v>0.2849576406684299</v>
+      </c>
+      <c r="K19">
+        <v>-0.3564162178201257</v>
+      </c>
+      <c r="L19">
+        <v>0.312061132326838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0.3042903097250923</v>
+      </c>
+      <c r="J20">
+        <v>0.2864220227778588</v>
+      </c>
+      <c r="K20">
+        <v>0.3553345272593507</v>
+      </c>
+      <c r="L20">
+        <v>0.3136373640754537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>-0.3651483716701108</v>
+      </c>
+      <c r="J21">
+        <v>0.2008251226951454</v>
+      </c>
+      <c r="K21">
+        <v>-0.4264014327112208</v>
+      </c>
+      <c r="L21">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0.3042903097250923</v>
+      </c>
+      <c r="J22">
+        <v>0.2864220227778588</v>
+      </c>
+      <c r="K22">
+        <v>0.3553345272593507</v>
+      </c>
+      <c r="L22">
+        <v>0.3136373640754537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>0.3651483716701108</v>
+      </c>
+      <c r="J23">
+        <v>0.2008251226951454</v>
+      </c>
+      <c r="K23">
+        <v>0.4264014327112208</v>
+      </c>
+      <c r="L23">
+        <v>0.2191383605228726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>-0.4260064336151292</v>
+      </c>
+      <c r="J24">
+        <v>0.1355930012663022</v>
+      </c>
+      <c r="K24">
+        <v>-0.497468338163091</v>
+      </c>
+      <c r="L24">
+        <v>0.1434614655950857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>-0.1023234355858201</v>
+      </c>
+      <c r="J25">
+        <v>0.6377328900501884</v>
+      </c>
+      <c r="K25">
+        <v>-0.1215783580010781</v>
+      </c>
+      <c r="L25">
+        <v>0.6537671093538482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>-0.01461763365511715</v>
+      </c>
+      <c r="J26">
+        <v>0.94636892512424</v>
+      </c>
+      <c r="K26">
+        <v>-0.01736833685729687</v>
+      </c>
+      <c r="L26">
+        <v>0.949096032737041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0.2788995520575487</v>
+      </c>
+      <c r="J27">
+        <v>0.2008903265397131</v>
+      </c>
+      <c r="K27">
+        <v>0.3302413141237342</v>
+      </c>
+      <c r="L27">
+        <v>0.2115824618683086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>-0.1628423836175867</v>
+      </c>
+      <c r="J28">
+        <v>0.458010988385219</v>
+      </c>
+      <c r="K28">
+        <v>-0.1916161134706239</v>
+      </c>
+      <c r="L28">
+        <v>0.4771333722542902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <v>-0.2484997721369916</v>
+      </c>
+      <c r="J29">
+        <v>0.2528129010164081</v>
+      </c>
+      <c r="K29">
+        <v>-0.2952617265740468</v>
+      </c>
+      <c r="L29">
+        <v>0.2669012522950682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2831,19 +2786,19 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.17078251276599329</v>
+        <v>-0.1707825127659933</v>
       </c>
       <c r="J2">
         <v>0.3368221511559395</v>
       </c>
       <c r="K2">
-        <v>-0.22063279587022341</v>
+        <v>-0.2206327958702234</v>
       </c>
       <c r="L2">
-        <v>0.31170668319455619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3117066831945562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2869,19 +2824,19 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>-0.21557272714438661</v>
+        <v>-0.2155727271443866</v>
       </c>
       <c r="J3">
         <v>0.2189727791934982</v>
       </c>
       <c r="K3">
-        <v>-0.28300682710477038</v>
+        <v>-0.2830068271047704</v>
       </c>
       <c r="L3">
-        <v>0.19070138371258061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1907013837125806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2910,16 +2865,16 @@
         <v>0.182178575000007</v>
       </c>
       <c r="J4">
-        <v>0.29564657602090749</v>
+        <v>0.2956465760209075</v>
       </c>
       <c r="K4">
-        <v>0.24046942819989059</v>
+        <v>0.2404694281998906</v>
       </c>
       <c r="L4">
-        <v>0.26904897632032188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2690489763203219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2945,19 +2900,19 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>-0.11134044285378079</v>
+        <v>-0.1113404428537808</v>
       </c>
       <c r="J5">
-        <v>0.66390790187764881</v>
+        <v>0.6639079018776488</v>
       </c>
       <c r="K5">
-        <v>-0.13101394402234401</v>
+        <v>-0.131013944022344</v>
       </c>
       <c r="L5">
-        <v>0.68484871442737572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6848487144273757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2983,19 +2938,19 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.25979436665882188</v>
+        <v>-0.2597943666588219</v>
       </c>
       <c r="J6">
-        <v>0.31063545633740081</v>
+        <v>0.3106354563374008</v>
       </c>
       <c r="K6">
-        <v>-0.30569920271880269</v>
+        <v>-0.3056992027188027</v>
       </c>
       <c r="L6">
-        <v>0.33389313645066021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3338931364506602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3021,19 +2976,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>0.11134044285378079</v>
+        <v>0.1113404428537808</v>
       </c>
       <c r="J7">
-        <v>0.66390790187764881</v>
+        <v>0.6639079018776488</v>
       </c>
       <c r="K7">
-        <v>0.13101394402234401</v>
+        <v>0.131013944022344</v>
       </c>
       <c r="L7">
-        <v>0.68484871442737572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6848487144273757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3059,19 +3014,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>-0.25979436665882188</v>
+        <v>-0.2597943666588219</v>
       </c>
       <c r="J8">
-        <v>0.31063545633740081</v>
+        <v>0.3106354563374008</v>
       </c>
       <c r="K8">
-        <v>-0.30569920271880269</v>
+        <v>-0.3056992027188027</v>
       </c>
       <c r="L8">
-        <v>0.33389313645066021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3338931364506602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3097,19 +3052,19 @@
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459340999</v>
+        <v>-0.15625137459341</v>
       </c>
       <c r="J9">
-        <v>3.0128615488005099E-2</v>
+        <v>0.0301286154880051</v>
       </c>
       <c r="K9">
         <v>-0.2203331090972887</v>
       </c>
       <c r="L9">
-        <v>2.7610565923995401E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0276105659239954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3135,19 +3090,19 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-1.3914136425848831E-2</v>
+        <v>0.03324642499485375</v>
       </c>
       <c r="J10">
-        <v>0.90900323668647842</v>
+        <v>0.7524695495544889</v>
       </c>
       <c r="K10">
-        <v>-1.0266126007392471E-2</v>
+        <v>0.05369692827151148</v>
       </c>
       <c r="L10">
-        <v>0.94359018578297449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7111154281850389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3173,19 +3128,19 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-2.8152946873129591E-2</v>
+        <v>0.02630142666529713</v>
       </c>
       <c r="J11">
-        <v>0.80868009561069343</v>
+        <v>0.7941029996140164</v>
       </c>
       <c r="K11">
-        <v>-2.99893827986723E-2</v>
+        <v>0.0345247475921612</v>
       </c>
       <c r="L11">
-        <v>0.83621302723678093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8118632018166435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3211,19 +3166,19 @@
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.24788466776030799</v>
+        <v>0.02696081483975262</v>
       </c>
       <c r="J12">
-        <v>3.1887928946905821E-2</v>
+        <v>0.7877495099042957</v>
       </c>
       <c r="K12">
-        <v>-0.30961847204159432</v>
+        <v>0.03904490288887924</v>
       </c>
       <c r="L12">
-        <v>2.8666961474283319E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7877690834629696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3249,19 +3204,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.47875499914502118</v>
+        <v>-0.4787549991450212</v>
       </c>
       <c r="J13">
-        <v>7.2175605494924577E-2</v>
+        <v>0.07217560549492458</v>
       </c>
       <c r="K13">
-        <v>-0.62928530890209089</v>
+        <v>-0.6292853089020909</v>
       </c>
       <c r="L13">
-        <v>5.1248552168422938E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.05124855216842294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3287,19 +3242,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.22677868380553631</v>
+        <v>-0.2267786838055363</v>
       </c>
       <c r="J14">
-        <v>0.39438705940345542</v>
+        <v>0.3943870594034554</v>
       </c>
       <c r="K14">
-        <v>-0.28603877677367773</v>
+        <v>-0.2860387767736777</v>
       </c>
       <c r="L14">
-        <v>0.42302039244413581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4230203924441358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3328,16 +3283,16 @@
         <v>-0.1019294382875251</v>
       </c>
       <c r="J15">
-        <v>0.70405426818971262</v>
+        <v>0.7040542681897126</v>
       </c>
       <c r="K15">
-        <v>-7.6509205567600602E-2</v>
+        <v>-0.0765092055676006</v>
       </c>
       <c r="L15">
         <v>0.8336123677972922</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3363,19 +3318,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.57954552528081504</v>
+        <v>-0.579545525280815</v>
       </c>
       <c r="J16">
-        <v>2.9515128077571919E-2</v>
+        <v>0.02951512807757192</v>
       </c>
       <c r="K16">
-        <v>-0.71191873330337552</v>
+        <v>-0.7119187333033755</v>
       </c>
       <c r="L16">
-        <v>2.091481468718881E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02091481468718881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3401,19 +3356,19 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.12598815766974239</v>
+        <v>-0.1259881576697424</v>
       </c>
       <c r="J17">
-        <v>0.63609887359862261</v>
+        <v>0.6360988735986226</v>
       </c>
       <c r="K17">
-        <v>-0.19069251784911839</v>
+        <v>-0.1906925178491184</v>
       </c>
       <c r="L17">
         <v>0.5977007516614028</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3439,19 +3394,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.57954552528081504</v>
+        <v>0.579545525280815</v>
       </c>
       <c r="J18">
-        <v>2.9515128077571919E-2</v>
+        <v>0.02951512807757192</v>
       </c>
       <c r="K18">
-        <v>0.74370081961156209</v>
+        <v>0.7437008196115621</v>
       </c>
       <c r="L18">
-        <v>1.3669584115271451E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.01366958411527145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -3477,19 +3432,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.56061191058138804</v>
+        <v>0.560611910581388</v>
       </c>
       <c r="J19">
-        <v>3.6690308779303099E-2</v>
+        <v>0.0366903087793031</v>
       </c>
       <c r="K19">
-        <v>0.71727380219625569</v>
+        <v>0.7172738021962557</v>
       </c>
       <c r="L19">
-        <v>1.9542044353685058E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.01954204435368506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3515,19 +3470,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.47875499914502118</v>
+        <v>-0.4787549991450212</v>
       </c>
       <c r="J20">
-        <v>7.2175605494924577E-2</v>
+        <v>0.07217560549492458</v>
       </c>
       <c r="K20">
-        <v>-0.64199814342536554</v>
+        <v>-0.6419981434253655</v>
       </c>
       <c r="L20">
-        <v>4.536158917864154E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.04536158917864154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3553,19 +3508,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.27717394687343327</v>
+        <v>-0.2771739468734333</v>
       </c>
       <c r="J21">
-        <v>0.29789759799234089</v>
+        <v>0.2978975979923409</v>
       </c>
       <c r="K21">
-        <v>-0.37502861843659963</v>
+        <v>-0.3750286184365996</v>
       </c>
       <c r="L21">
-        <v>0.28559690296883122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2855969029688312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3591,19 +3546,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.12598815766974239</v>
+        <v>0.1259881576697424</v>
       </c>
       <c r="J22">
-        <v>0.63609887359862261</v>
+        <v>0.6360988735986226</v>
       </c>
       <c r="K22">
         <v>0.1461975970176575</v>
       </c>
       <c r="L22">
-        <v>0.68694101885385273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6869410188538527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3629,19 +3584,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.12598815766974239</v>
+        <v>0.1259881576697424</v>
       </c>
       <c r="J23">
-        <v>0.63609887359862261</v>
+        <v>0.6360988735986226</v>
       </c>
       <c r="K23">
-        <v>0.21611818689566761</v>
+        <v>0.2161181868956676</v>
       </c>
       <c r="L23">
-        <v>0.54871070607331407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5487107060733141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3667,19 +3622,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.22677868380553631</v>
+        <v>-0.2267786838055363</v>
       </c>
       <c r="J24">
-        <v>0.39438705940345542</v>
+        <v>0.3943870594034554</v>
       </c>
       <c r="K24">
-        <v>-0.31146444582022681</v>
+        <v>-0.3114644458202268</v>
       </c>
       <c r="L24">
-        <v>0.38100895670505941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3810089567050594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3705,19 +3660,19 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>8.4757937952601309E-2</v>
+        <v>0.08475793795260131</v>
       </c>
       <c r="J25">
-        <v>0.69232849002812125</v>
+        <v>0.6923284900281212</v>
       </c>
       <c r="K25">
         <v>0.1099316484014564</v>
       </c>
       <c r="L25">
-        <v>0.68526500553668901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.685265005536689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -3743,19 +3698,19 @@
         <v>16</v>
       </c>
       <c r="I26">
-        <v>8.4757937952601309E-2</v>
+        <v>0.08475793795260131</v>
       </c>
       <c r="J26">
-        <v>0.69232849002812125</v>
+        <v>0.6923284900281212</v>
       </c>
       <c r="K26">
         <v>0.1099316484014564</v>
       </c>
       <c r="L26">
-        <v>0.68526500553668901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.685265005536689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3781,19 +3736,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.34045327482409782</v>
+        <v>0.3404532748240978</v>
       </c>
       <c r="J27">
         <v>0.1131965364706231</v>
       </c>
       <c r="K27">
-        <v>0.40295301713800152</v>
+        <v>0.4029530171380015</v>
       </c>
       <c r="L27">
         <v>0.1217337691688223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3819,19 +3774,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.49785866253711791</v>
+        <v>-0.4978586625371179</v>
       </c>
       <c r="J28">
-        <v>2.1337320545634531E-2</v>
+        <v>0.02133732054563453</v>
       </c>
       <c r="K28">
-        <v>-0.57692307692307687</v>
+        <v>-0.5769230769230769</v>
       </c>
       <c r="L28">
-        <v>1.929785020805572E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.01929785020805572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3857,31 +3812,30 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-1.6951587590520258E-2</v>
+        <v>-0.01695158759052026</v>
       </c>
       <c r="J29">
-        <v>0.93692172809769891</v>
+        <v>0.9369217280976989</v>
       </c>
       <c r="K29">
-        <v>-3.8348249442368518E-2</v>
+        <v>-0.03834824944236852</v>
       </c>
       <c r="L29">
-        <v>0.88786930283188992</v>
+        <v>0.8878693028318899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -3893,11 +3847,11 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3935,7 +3889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3961,7 +3915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3987,7 +3941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4013,7 +3967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4039,7 +3993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4065,7 +4019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4091,7 +4045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4117,7 +4071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4146,16 +4100,16 @@
         <v>-0.1325530043077417</v>
       </c>
       <c r="J9">
-        <v>0.10868264420740591</v>
+        <v>0.1086826442074059</v>
       </c>
       <c r="K9">
-        <v>-0.16122238802734751</v>
+        <v>-0.1612223880273475</v>
       </c>
       <c r="L9">
         <v>0.1090548020620709</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4172,28 +4126,28 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-4.0010884441053322E-3</v>
+        <v>-0.1913882186302207</v>
       </c>
       <c r="J10">
-        <v>0.97393749824887355</v>
+        <v>0.1232008006808224</v>
       </c>
       <c r="K10">
-        <v>-4.0145445731910407E-3</v>
+        <v>-0.2202109622728743</v>
       </c>
       <c r="L10">
-        <v>0.97792597559776806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1243730565524269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4210,28 +4164,28 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-1.8889590382011531E-2</v>
+        <v>-0.1807130786720777</v>
       </c>
       <c r="J11">
-        <v>0.8717029852220165</v>
+        <v>0.1274891908063156</v>
       </c>
       <c r="K11">
-        <v>-2.2061548434927108E-2</v>
+        <v>-0.2177254496446563</v>
       </c>
       <c r="L11">
-        <v>0.87913055885863645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1287880141876493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4248,28 +4202,28 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.24760641624976251</v>
+        <v>-0.04052204492365539</v>
       </c>
       <c r="J12">
-        <v>3.3114212859699399E-2</v>
+        <v>0.7308602875071768</v>
       </c>
       <c r="K12">
-        <v>-0.30991275370518351</v>
+        <v>-0.04914019746654562</v>
       </c>
       <c r="L12">
-        <v>2.850794708171081E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7346926691344551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4307,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4336,16 +4290,16 @@
         <v>0.6085806194501846</v>
       </c>
       <c r="J14">
-        <v>3.300625766123251E-2</v>
+        <v>0.03300625766123251</v>
       </c>
       <c r="K14">
-        <v>0.71066905451870144</v>
+        <v>0.7106690545187014</v>
       </c>
       <c r="L14">
-        <v>2.1244492128774412E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.02124449212877441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4371,19 +4325,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.67700320038633011</v>
+        <v>0.6770032003863301</v>
       </c>
       <c r="J15">
-        <v>1.865536081150319E-2</v>
+        <v>0.01865536081150319</v>
       </c>
       <c r="K15">
-        <v>0.78411567920427649</v>
+        <v>0.7841156792042765</v>
       </c>
       <c r="L15">
-        <v>7.2557895266995576E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.007255789526699558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4412,16 +4366,16 @@
         <v>-0.1217161238900369</v>
       </c>
       <c r="J16">
-        <v>0.66981535759941657</v>
+        <v>0.6698153575994166</v>
       </c>
       <c r="K16">
         <v>-0.1421338109037403</v>
       </c>
       <c r="L16">
-        <v>0.69528768540126551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6952876854012655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4450,16 +4404,16 @@
         <v>-0.3042903097250923</v>
       </c>
       <c r="J17">
-        <v>0.28642202277785878</v>
+        <v>0.2864220227778588</v>
       </c>
       <c r="K17">
-        <v>-0.35533452725935072</v>
+        <v>-0.3553345272593507</v>
       </c>
       <c r="L17">
-        <v>0.31363736407545367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3136373640754537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4485,19 +4439,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>6.0858061945018457E-2</v>
+        <v>0.06085806194501846</v>
       </c>
       <c r="J18">
-        <v>0.83117040954176236</v>
+        <v>0.8311704095417624</v>
       </c>
       <c r="K18">
-        <v>7.1066905451870152E-2</v>
+        <v>0.07106690545187015</v>
       </c>
       <c r="L18">
-        <v>0.84532391369129534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8453239136912953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4523,19 +4477,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>9.2318618234499564E-2</v>
+        <v>0.09231861823449956</v>
       </c>
       <c r="J19">
-        <v>0.74838121229203447</v>
+        <v>0.7483812122920345</v>
       </c>
       <c r="K19">
-        <v>0.10692486534603771</v>
+        <v>0.1069248653460377</v>
       </c>
       <c r="L19">
-        <v>0.76875770339326521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7687577033932652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -4561,19 +4515,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-6.0858061945018457E-2</v>
+        <v>-0.06085806194501846</v>
       </c>
       <c r="J20">
-        <v>0.83117040954176236</v>
+        <v>0.8311704095417624</v>
       </c>
       <c r="K20">
-        <v>-7.1066905451870152E-2</v>
+        <v>-0.07106690545187015</v>
       </c>
       <c r="L20">
-        <v>0.84532391369129534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.8453239136912953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4599,19 +4553,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.24343224778007391</v>
+        <v>-0.2434322477800739</v>
       </c>
       <c r="J21">
-        <v>0.39376863464299272</v>
+        <v>0.3937686346429927</v>
       </c>
       <c r="K21">
-        <v>-0.28426762180748061</v>
+        <v>-0.2842676218074806</v>
       </c>
       <c r="L21">
-        <v>0.42602444842854259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4260244484285426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4640,16 +4594,16 @@
         <v>0.1217161238900369</v>
       </c>
       <c r="J22">
-        <v>0.66981535759941657</v>
+        <v>0.6698153575994166</v>
       </c>
       <c r="K22">
         <v>0.1421338109037403</v>
       </c>
       <c r="L22">
-        <v>0.69528768540126551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6952876854012655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4675,19 +4629,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.24343224778007391</v>
+        <v>0.2434322477800739</v>
       </c>
       <c r="J23">
-        <v>0.39376863464299272</v>
+        <v>0.3937686346429927</v>
       </c>
       <c r="K23">
-        <v>0.28426762180748061</v>
+        <v>0.2842676218074806</v>
       </c>
       <c r="L23">
-        <v>0.42602444842854259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4260244484285426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4713,19 +4667,19 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.24343224778007391</v>
+        <v>-0.2434322477800739</v>
       </c>
       <c r="J24">
-        <v>0.39376863464299272</v>
+        <v>0.3937686346429927</v>
       </c>
       <c r="K24">
-        <v>-0.28426762180748061</v>
+        <v>-0.2842676218074806</v>
       </c>
       <c r="L24">
-        <v>0.42602444842854259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.4260244484285426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4742,28 +4696,16 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
-      <c r="I25">
-        <v>-0.35355339059327368</v>
-      </c>
-      <c r="J25">
-        <v>0.1037416782365415</v>
-      </c>
-      <c r="K25">
-        <v>-0.42008402520840288</v>
-      </c>
-      <c r="L25">
-        <v>0.105228057983522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4780,28 +4722,16 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
-      <c r="I26">
-        <v>-0.16499158227686109</v>
-      </c>
-      <c r="J26">
-        <v>0.4476990724652935</v>
-      </c>
-      <c r="K26">
-        <v>-0.19603921176392139</v>
-      </c>
-      <c r="L26">
-        <v>0.4668248490265503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4818,28 +4748,16 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
-      <c r="I27">
-        <v>2.3669053416557541E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.91356333033778614</v>
-      </c>
-      <c r="K27">
-        <v>2.802621677476181E-2</v>
-      </c>
-      <c r="L27">
-        <v>0.91793879859999294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4856,28 +4774,16 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
-      <c r="I28">
-        <v>-0.26257545381445868</v>
-      </c>
-      <c r="J28">
-        <v>0.23144602710389381</v>
-      </c>
-      <c r="K28">
-        <v>-0.30897169910547828</v>
-      </c>
-      <c r="L28">
-        <v>0.24426062662249609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4894,40 +4800,27 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
-      <c r="I29">
-        <v>0.25927248643506751</v>
-      </c>
-      <c r="J29">
-        <v>0.2328233516916538</v>
-      </c>
-      <c r="K29">
-        <v>0.30806161848616209</v>
-      </c>
-      <c r="L29">
-        <v>0.2457251662216493</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -4937,13 +4830,13 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4981,7 +4874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5007,7 +4900,7 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>-0.25886009157177359</v>
+        <v>-0.2588600915717736</v>
       </c>
       <c r="J2">
         <v>0.1185826134820492</v>
@@ -5019,7 +4912,7 @@
         <v>0.157096814687567</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5048,16 +4941,16 @@
         <v>-0.3630554894720564</v>
       </c>
       <c r="J3">
-        <v>2.6497820867305542E-2</v>
+        <v>0.02649782086730554</v>
       </c>
       <c r="K3">
-        <v>-0.44712286324931549</v>
+        <v>-0.4471228632493155</v>
       </c>
       <c r="L3">
-        <v>3.2426785472927828E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.03242678547292783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5083,19 +4976,19 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>0.38268492933927678</v>
+        <v>0.3826849293392768</v>
       </c>
       <c r="J4">
-        <v>1.856470797931634E-2</v>
+        <v>0.01856470797931634</v>
       </c>
       <c r="K4">
-        <v>0.45327395586631719</v>
+        <v>0.4532739558663172</v>
       </c>
       <c r="L4">
-        <v>2.9842113749669798E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.0298421137496698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5124,16 +5017,16 @@
         <v>-0.2018433569398328</v>
       </c>
       <c r="J5">
-        <v>0.40657129403387082</v>
+        <v>0.4065712940338708</v>
       </c>
       <c r="K5">
         <v>-0.2056848110006326</v>
       </c>
       <c r="L5">
-        <v>0.52130971968204398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.521309719682044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5159,10 +5052,10 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>-0.23854214911071139</v>
+        <v>-0.2385421491107114</v>
       </c>
       <c r="J6">
-        <v>0.32667108863875699</v>
+        <v>0.326671088638757</v>
       </c>
       <c r="K6">
         <v>-0.2437745908155646</v>
@@ -5171,7 +5064,7 @@
         <v>0.4451488240391529</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5197,19 +5090,19 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>-0.49543369430686218</v>
+        <v>-0.4954336943068622</v>
       </c>
       <c r="J7">
-        <v>4.1636856782773603E-2</v>
+        <v>0.0416368567827736</v>
       </c>
       <c r="K7">
-        <v>-0.55611078529800673</v>
+        <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>6.0434956200926593E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.06043495620092659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5235,19 +5128,19 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>0.34863852562334752</v>
+        <v>0.3486385256233475</v>
       </c>
       <c r="J8">
-        <v>0.15170441973059709</v>
+        <v>0.1517044197305971</v>
       </c>
       <c r="K8">
-        <v>0.40375166603827878</v>
+        <v>0.4037516660382788</v>
       </c>
       <c r="L8">
-        <v>0.19305349764481941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1930534976448194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5270,22 +5163,22 @@
         <v>808</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I9">
-        <v>-0.1508932577851104</v>
+        <v>-0.1004064600277419</v>
       </c>
       <c r="J9">
-        <v>3.9765399779986582E-2</v>
+        <v>0.3197996198904468</v>
       </c>
       <c r="K9">
-        <v>-0.21010070634487291</v>
+        <v>-0.1258658290311623</v>
       </c>
       <c r="L9">
-        <v>3.5898902551763437E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3337653039608836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5308,22 +5201,22 @@
         <v>219</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10">
-        <v>-2.584053907657639E-2</v>
+        <v>-0.1679543721361666</v>
       </c>
       <c r="J10">
-        <v>0.83190123178864006</v>
+        <v>0.1236240407674998</v>
       </c>
       <c r="K10">
-        <v>-2.491868767248899E-2</v>
+        <v>-0.1891736836680379</v>
       </c>
       <c r="L10">
-        <v>0.86361703412887092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.1929773116581186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5346,22 +5239,22 @@
         <v>219</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11">
-        <v>-2.439922062337898E-2</v>
+        <v>-0.1257020377320922</v>
       </c>
       <c r="J11">
-        <v>0.83378844789272755</v>
+        <v>0.2278618094667795</v>
       </c>
       <c r="K11">
-        <v>-2.8882082510721319E-2</v>
+        <v>-0.1630362203611797</v>
       </c>
       <c r="L11">
-        <v>0.84218206980413934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2630118256866814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5384,22 +5277,22 @@
         <v>219</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12">
-        <v>-0.25161225674918491</v>
+        <v>0.09860866138702759</v>
       </c>
       <c r="J12">
-        <v>2.940004335865699E-2</v>
+        <v>0.3411530572805948</v>
       </c>
       <c r="K12">
-        <v>-0.31109416329946299</v>
+        <v>0.1348255148415411</v>
       </c>
       <c r="L12">
-        <v>2.7876960391832729E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3556729989431554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5425,19 +5318,19 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>4.9690399499995333E-2</v>
+        <v>0.04969039949999533</v>
       </c>
       <c r="J13">
-        <v>0.85098068703205576</v>
+        <v>0.8509806870320558</v>
       </c>
       <c r="K13">
-        <v>1.262892050706804E-2</v>
+        <v>0.01262892050706804</v>
       </c>
       <c r="L13">
-        <v>0.97237864199207991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.9723786419920799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5463,19 +5356,19 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.14907119849998601</v>
+        <v>-0.149071198499986</v>
       </c>
       <c r="J14">
-        <v>0.57302511935539036</v>
+        <v>0.5730251193553904</v>
       </c>
       <c r="K14">
         <v>-0.1894338076060206</v>
       </c>
       <c r="L14">
-        <v>0.60016643425119731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6001664342511973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5501,19 +5394,19 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.12562972690740151</v>
+        <v>-0.1256297269074015</v>
       </c>
       <c r="J15">
-        <v>0.63740174059588495</v>
+        <v>0.6374017405958849</v>
       </c>
       <c r="K15">
-        <v>-0.15200837758144201</v>
+        <v>-0.152008377581442</v>
       </c>
       <c r="L15">
-        <v>0.67505908893740063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6750590889374006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5539,19 +5432,19 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.29814239699997203</v>
+        <v>-0.298142396999972</v>
       </c>
       <c r="J16">
-        <v>0.25965635637044993</v>
+        <v>0.2596563563704499</v>
       </c>
       <c r="K16">
-        <v>-0.37886761521204121</v>
+        <v>-0.3788676152120412</v>
       </c>
       <c r="L16">
-        <v>0.28029428245233751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2802942824523375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5580,16 +5473,16 @@
         <v>-0.1987615979999813</v>
       </c>
       <c r="J17">
-        <v>0.45237036067736081</v>
+        <v>0.4523703606773608</v>
       </c>
       <c r="K17">
-        <v>-0.34098085369083708</v>
+        <v>-0.3409808536908371</v>
       </c>
       <c r="L17">
-        <v>0.33494569511799033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3349456951179903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5615,19 +5508,19 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.14907119849998601</v>
+        <v>0.149071198499986</v>
       </c>
       <c r="J18">
-        <v>0.57302511935539036</v>
+        <v>0.5730251193553904</v>
       </c>
       <c r="K18">
-        <v>0.16417596659188449</v>
+        <v>0.1641759665918845</v>
       </c>
       <c r="L18">
-        <v>0.65038956216495647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6503895621649565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5653,19 +5546,19 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>7.5377836144440907E-2</v>
+        <v>0.07537783614444091</v>
       </c>
       <c r="J19">
-        <v>0.77732952635542052</v>
+        <v>0.7773295263554205</v>
       </c>
       <c r="K19">
         <v>0.1076726007868547</v>
       </c>
       <c r="L19">
-        <v>0.76717787894205469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7671778789420547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -5691,19 +5584,19 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-9.9380798999990652E-2</v>
+        <v>-0.09938079899999065</v>
       </c>
       <c r="J20">
         <v>0.7071142312899612</v>
       </c>
       <c r="K20">
-        <v>-0.12628920507068039</v>
+        <v>-0.1262892050706804</v>
       </c>
       <c r="L20">
-        <v>0.72810638402168237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7281063840216824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5729,19 +5622,19 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.14907119849998601</v>
+        <v>-0.149071198499986</v>
       </c>
       <c r="J21">
-        <v>0.57302511935539036</v>
+        <v>0.5730251193553904</v>
       </c>
       <c r="K21">
         <v>-0.2399494896342928</v>
       </c>
       <c r="L21">
-        <v>0.50430171903532583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5043017190353258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5767,19 +5660,19 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.39752319599996261</v>
+        <v>0.3975231959999626</v>
       </c>
       <c r="J22">
         <v>0.1328549557310538</v>
       </c>
       <c r="K22">
-        <v>0.53041466129685766</v>
+        <v>0.5304146612968577</v>
       </c>
       <c r="L22">
         <v>0.1147392659290222</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -5805,19 +5698,19 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.29814239699997203</v>
+        <v>0.298142396999972</v>
       </c>
       <c r="J23">
-        <v>0.25965635637044993</v>
+        <v>0.2596563563704499</v>
       </c>
       <c r="K23">
-        <v>0.40412545622617729</v>
+        <v>0.4041254562261773</v>
       </c>
       <c r="L23">
-        <v>0.24675472954223471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2467547295422347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -5846,16 +5739,16 @@
         <v>-0.2484519974999766</v>
       </c>
       <c r="J24">
-        <v>0.34755803674116897</v>
+        <v>0.347558036741169</v>
       </c>
       <c r="K24">
-        <v>-0.42938329724031338</v>
+        <v>-0.4293832972403134</v>
       </c>
       <c r="L24">
-        <v>0.21558241177003129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.2155824117700313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -5881,7 +5774,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441002</v>
+        <v>-0.31352722326441</v>
       </c>
       <c r="J25">
         <v>0.1131685336545776</v>
@@ -5890,10 +5783,10 @@
         <v>-0.4479914656638877</v>
       </c>
       <c r="L25">
-        <v>8.1821435051218708E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.08182143505121871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -5922,16 +5815,16 @@
         <v>-0.3872983346207417</v>
       </c>
       <c r="J26">
-        <v>5.0365975790328012E-2</v>
+        <v>0.05036597579032801</v>
       </c>
       <c r="K26">
-        <v>-0.50701736823446741</v>
+        <v>-0.5070173682344674</v>
       </c>
       <c r="L26">
-        <v>4.5019308756935668E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.04501930875693567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5957,19 +5850,19 @@
         <v>16</v>
       </c>
       <c r="I27">
-        <v>8.3340478742421134E-2</v>
+        <v>0.08334047874242113</v>
       </c>
       <c r="J27">
         <v>0.6747078413451294</v>
       </c>
       <c r="K27">
-        <v>8.0273734629878232E-2</v>
+        <v>0.08027373462987823</v>
       </c>
       <c r="L27">
-        <v>0.76759265155118128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.7675926515511813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -5995,19 +5888,19 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>9.3388635780087617E-2</v>
+        <v>0.09338863578008762</v>
       </c>
       <c r="J28">
-        <v>0.64014984145862264</v>
+        <v>0.6401498414586226</v>
       </c>
       <c r="K28">
         <v>0.1305442024324843</v>
       </c>
       <c r="L28">
-        <v>0.62988406192489643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.6298840619248964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -6033,20 +5926,19 @@
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.12909944487358049</v>
+        <v>0.1290994448735805</v>
       </c>
       <c r="J29">
-        <v>0.51421999881555058</v>
+        <v>0.5142199988155506</v>
       </c>
       <c r="K29">
-        <v>0.16194286089877019</v>
+        <v>0.1619428608987702</v>
       </c>
       <c r="L29">
-        <v>0.54903760923243294</v>
+        <v>0.5490376092324329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -874,22 +874,22 @@
         <v>48</v>
       </c>
       <c r="G10">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.004411049494636653</v>
+        <v>-0.004414751593059719</v>
       </c>
       <c r="J10">
-        <v>0.9661499862603788</v>
+        <v>0.9661430518463994</v>
       </c>
       <c r="K10">
-        <v>0.01130929713203963</v>
+        <v>0.01233315619210278</v>
       </c>
       <c r="L10">
-        <v>0.9378689342631706</v>
+        <v>0.932256616388448</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -912,22 +912,22 @@
         <v>48</v>
       </c>
       <c r="G11">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.003332010047664792</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9732533892101075</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.01235993088052629</v>
+        <v>0.01007744778718968</v>
       </c>
       <c r="L11">
-        <v>0.9321098925965412</v>
+        <v>0.9446252971798705</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -950,22 +950,22 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.04384172195310927</v>
+        <v>0.04719010357797921</v>
       </c>
       <c r="J12">
-        <v>0.6570720959071299</v>
+        <v>0.632959082865391</v>
       </c>
       <c r="K12">
-        <v>0.07369133573268023</v>
+        <v>0.07620564634846749</v>
       </c>
       <c r="L12">
-        <v>0.6110401171103582</v>
+        <v>0.5988937623118764</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1444,22 +1444,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1626978433639921</v>
+        <v>-0.1807753815155468</v>
       </c>
       <c r="J25">
-        <v>0.4043745903773081</v>
+        <v>0.3541954904764164</v>
       </c>
       <c r="K25">
-        <v>-0.2500726110965064</v>
+        <v>-0.2576049186596542</v>
       </c>
       <c r="L25">
-        <v>0.3502469232913418</v>
+        <v>0.3354345184285685</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1482,22 +1482,22 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1988529196671015</v>
+        <v>-0.1807753815155468</v>
       </c>
       <c r="J26">
-        <v>0.3081411014502622</v>
+        <v>0.3541954904764164</v>
       </c>
       <c r="K26">
-        <v>-0.2741759952985793</v>
+        <v>-0.2666436877354316</v>
       </c>
       <c r="L26">
-        <v>0.3041353554760347</v>
+        <v>0.3181414648703181</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3721433734379864</v>
+        <v>0.3539900381483285</v>
       </c>
       <c r="J27">
-        <v>0.05729901570416417</v>
+        <v>0.07056136851892029</v>
       </c>
       <c r="K27">
-        <v>0.443979491086295</v>
+        <v>0.4341802833034056</v>
       </c>
       <c r="L27">
-        <v>0.08493122100226924</v>
+        <v>0.09288178063084394</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -1570,10 +1570,10 @@
         <v>0.4027546538976249</v>
       </c>
       <c r="K28">
-        <v>-0.2341913484699036</v>
+        <v>-0.2493004677260264</v>
       </c>
       <c r="L28">
-        <v>0.3826574736700414</v>
+        <v>0.3517858440384553</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1596,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>16</v>
@@ -1608,10 +1608,10 @@
         <v>0.5166373798159882</v>
       </c>
       <c r="K29">
-        <v>-0.159684920338733</v>
+        <v>-0.1491396897503261</v>
       </c>
       <c r="L29">
-        <v>0.554695992273345</v>
+        <v>0.5814513259975999</v>
       </c>
     </row>
   </sheetData>
@@ -4126,25 +4126,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.1913882186302207</v>
+        <v>-0.1454025530693833</v>
       </c>
       <c r="J10">
-        <v>0.1232008006808224</v>
+        <v>0.2372373518450496</v>
       </c>
       <c r="K10">
-        <v>-0.2202109622728743</v>
+        <v>-0.17271903862684</v>
       </c>
       <c r="L10">
-        <v>0.1243730565524269</v>
+        <v>0.2303502122764337</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4164,25 +4164,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.1807130786720777</v>
+        <v>-0.1395616700784287</v>
       </c>
       <c r="J11">
-        <v>0.1274891908063156</v>
+        <v>0.2348980869048207</v>
       </c>
       <c r="K11">
-        <v>-0.2177254496446563</v>
+        <v>-0.1674579385094694</v>
       </c>
       <c r="L11">
-        <v>0.1287880141876493</v>
+        <v>0.2450782275649824</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4202,25 +4202,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>-0.04052204492365539</v>
+        <v>0.02140819589682411</v>
       </c>
       <c r="J12">
-        <v>0.7308602875071768</v>
+        <v>0.8544862615484419</v>
       </c>
       <c r="K12">
-        <v>-0.04914019746654562</v>
+        <v>0.02708713119452734</v>
       </c>
       <c r="L12">
-        <v>0.7346926691344551</v>
+        <v>0.8518765230635053</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4696,13 +4696,25 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>16</v>
+      </c>
+      <c r="I25">
+        <v>-0.3535533905932737</v>
+      </c>
+      <c r="J25">
+        <v>0.1037416782365415</v>
+      </c>
+      <c r="K25">
+        <v>-0.4200840252084029</v>
+      </c>
+      <c r="L25">
+        <v>0.105228057983522</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -4722,13 +4734,25 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>16</v>
+      </c>
+      <c r="I26">
+        <v>-0.1649915822768611</v>
+      </c>
+      <c r="J26">
+        <v>0.4476990724652935</v>
+      </c>
+      <c r="K26">
+        <v>-0.1960392117639214</v>
+      </c>
+      <c r="L26">
+        <v>0.4668248490265503</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4748,13 +4772,25 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0.02366905341655754</v>
+      </c>
+      <c r="J27">
+        <v>0.9135633303377861</v>
+      </c>
+      <c r="K27">
+        <v>0.02802621677476181</v>
+      </c>
+      <c r="L27">
+        <v>0.9179387985999929</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -4774,13 +4810,25 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>16</v>
+      </c>
+      <c r="I28">
+        <v>-0.2625754538144587</v>
+      </c>
+      <c r="J28">
+        <v>0.2314460271038938</v>
+      </c>
+      <c r="K28">
+        <v>-0.3089716991054783</v>
+      </c>
+      <c r="L28">
+        <v>0.2442606266224961</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4800,13 +4848,25 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>16</v>
+      </c>
+      <c r="I29">
+        <v>0.2592724864350675</v>
+      </c>
+      <c r="J29">
+        <v>0.2328233516916538</v>
+      </c>
+      <c r="K29">
+        <v>0.3080616184861621</v>
+      </c>
+      <c r="L29">
+        <v>0.2457251662216493</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +4891,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
@@ -5201,19 +5261,19 @@
         <v>219</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10">
-        <v>-0.1679543721361666</v>
+        <v>-0.2134569412305524</v>
       </c>
       <c r="J10">
-        <v>0.1236240407674998</v>
+        <v>0.05383248704028133</v>
       </c>
       <c r="K10">
-        <v>-0.1891736836680379</v>
+        <v>-0.254689962010721</v>
       </c>
       <c r="L10">
-        <v>0.1929773116581186</v>
+        <v>0.08064290874044987</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5239,19 +5299,19 @@
         <v>219</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11">
-        <v>-0.1257020377320922</v>
+        <v>-0.1499545016214044</v>
       </c>
       <c r="J11">
-        <v>0.2278618094667795</v>
+        <v>0.1564334829386408</v>
       </c>
       <c r="K11">
-        <v>-0.1630362203611797</v>
+        <v>-0.2015245812013276</v>
       </c>
       <c r="L11">
-        <v>0.2630118256866814</v>
+        <v>0.1695848710732239</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5277,19 +5337,19 @@
         <v>219</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12">
-        <v>0.09860866138702759</v>
+        <v>0.1670554193005554</v>
       </c>
       <c r="J12">
-        <v>0.3411530572805948</v>
+        <v>0.1123317103170471</v>
       </c>
       <c r="K12">
-        <v>0.1348255148415411</v>
+        <v>0.2349915639777836</v>
       </c>
       <c r="L12">
-        <v>0.3556729989431554</v>
+        <v>0.1078882378308313</v>
       </c>
     </row>
     <row r="13" spans="1:12">

--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -836,22 +836,22 @@
         <v>94</v>
       </c>
       <c r="G9">
-        <v>1200</v>
+        <v>1143</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.1679930849817192</v>
+        <v>-0.166102596545867</v>
       </c>
       <c r="J9">
-        <v>0.01571209940531982</v>
+        <v>0.01727604806480851</v>
       </c>
       <c r="K9">
-        <v>-0.2581562594294852</v>
+        <v>-0.2527623213330977</v>
       </c>
       <c r="L9">
-        <v>0.009508181415596517</v>
+        <v>0.01117475265921138</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -874,7 +874,7 @@
         <v>48</v>
       </c>
       <c r="G10">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -912,7 +912,7 @@
         <v>48</v>
       </c>
       <c r="G11">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -950,7 +950,7 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -4891,7 +4891,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
@@ -5220,22 +5220,22 @@
         <v>69</v>
       </c>
       <c r="G9">
-        <v>808</v>
+        <v>751</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.1004064600277419</v>
+        <v>-0.1230941982211943</v>
       </c>
       <c r="J9">
-        <v>0.3197996198904468</v>
+        <v>0.107046316578524</v>
       </c>
       <c r="K9">
-        <v>-0.1258658290311623</v>
+        <v>-0.1671214681732231</v>
       </c>
       <c r="L9">
-        <v>0.3337653039608836</v>
+        <v>0.09653017580355105</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5258,22 +5258,22 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.2134569412305524</v>
+        <v>-0.1410673005708742</v>
       </c>
       <c r="J10">
-        <v>0.05383248704028133</v>
+        <v>0.1918480862059539</v>
       </c>
       <c r="K10">
-        <v>-0.254689962010721</v>
+        <v>-0.1594915550278049</v>
       </c>
       <c r="L10">
-        <v>0.08064290874044987</v>
+        <v>0.2685745446816231</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5296,22 +5296,22 @@
         <v>41</v>
       </c>
       <c r="G11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.1499545016214044</v>
+        <v>-0.1104149035826812</v>
       </c>
       <c r="J11">
-        <v>0.1564334829386408</v>
+        <v>0.285180706372306</v>
       </c>
       <c r="K11">
-        <v>-0.2015245812013276</v>
+        <v>-0.1439811999024739</v>
       </c>
       <c r="L11">
-        <v>0.1695848710732239</v>
+        <v>0.318492693335327</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5334,22 +5334,22 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1670554193005554</v>
+        <v>0.1113864967082373</v>
       </c>
       <c r="J12">
-        <v>0.1123317103170471</v>
+        <v>0.2778961820094916</v>
       </c>
       <c r="K12">
-        <v>0.2349915639777836</v>
+        <v>0.1553560043181458</v>
       </c>
       <c r="L12">
-        <v>0.1078882378308313</v>
+        <v>0.2813439520692285</v>
       </c>
     </row>
     <row r="13" spans="1:12">

--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -506,10 +506,10 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -699,7 +699,7 @@
         <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011266</v>
+        <v>0.3140610795011265</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -833,25 +833,25 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.166102596545867</v>
+        <v>-0.1679137598010589</v>
       </c>
       <c r="J9">
-        <v>0.01727604806480851</v>
+        <v>0.01617158143883987</v>
       </c>
       <c r="K9">
-        <v>-0.2527623213330977</v>
+        <v>-0.250981672795132</v>
       </c>
       <c r="L9">
-        <v>0.01117475265921138</v>
+        <v>0.01177838863852069</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -871,25 +871,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.004414751593059719</v>
+        <v>0.010626678538956</v>
       </c>
       <c r="J10">
-        <v>0.9661430518463994</v>
+        <v>0.9188222442202725</v>
       </c>
       <c r="K10">
-        <v>0.01233315619210278</v>
+        <v>0.03202579660312958</v>
       </c>
       <c r="L10">
-        <v>0.932256616388448</v>
+        <v>0.8252595228886555</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,25 +909,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01755941230348805</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.8601808697516764</v>
       </c>
       <c r="K11">
-        <v>0.01007744778718968</v>
+        <v>0.03638028562484347</v>
       </c>
       <c r="L11">
-        <v>0.9446252971798705</v>
+        <v>0.8019502396625894</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,25 +947,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.04719010357797921</v>
+        <v>0.05314177771146024</v>
       </c>
       <c r="J12">
-        <v>0.632959082865391</v>
+        <v>0.5916324278428817</v>
       </c>
       <c r="K12">
-        <v>0.07620564634846749</v>
+        <v>0.08268210801879666</v>
       </c>
       <c r="L12">
-        <v>0.5988937623118764</v>
+        <v>0.5681066358938315</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -988,22 +988,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4535394202249742</v>
+        <v>-0.3373495424699933</v>
       </c>
       <c r="J13">
-        <v>0.08070214265077501</v>
+        <v>0.2074202127647988</v>
       </c>
       <c r="K13">
-        <v>-0.5512130501182249</v>
+        <v>-0.4296689244236597</v>
       </c>
       <c r="L13">
-        <v>0.09862398123473154</v>
+        <v>0.215243543278886</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1026,22 +1026,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.02387049580131443</v>
+        <v>-0.1816497536376887</v>
       </c>
       <c r="J14">
-        <v>0.92675547372309</v>
+        <v>0.4972433060612282</v>
       </c>
       <c r="K14">
-        <v>-0.09290107586262218</v>
+        <v>-0.2669155439601523</v>
       </c>
       <c r="L14">
-        <v>0.7985237548304135</v>
+        <v>0.4559719917038285</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1064,22 +1064,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.09656090991705352</v>
+        <v>-0.0524863881081478</v>
       </c>
       <c r="J15">
-        <v>0.7120793980044939</v>
+        <v>0.8456867367859529</v>
       </c>
       <c r="K15">
-        <v>0.1428819499477476</v>
+        <v>-0.06856450678985078</v>
       </c>
       <c r="L15">
-        <v>0.6937488280957302</v>
+        <v>0.8507182473580949</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1102,22 +1102,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.7399853698407473</v>
+        <v>-0.7525489793561388</v>
       </c>
       <c r="J16">
-        <v>0.004375235749920733</v>
+        <v>0.004918698145511134</v>
       </c>
       <c r="K16">
-        <v>-0.8670767080511405</v>
+        <v>-0.8788682545029405</v>
       </c>
       <c r="L16">
-        <v>0.001159768265192443</v>
+        <v>0.000811787483996615</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1140,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.3103164454170876</v>
+        <v>-0.1816497536376887</v>
       </c>
       <c r="J17">
-        <v>0.2320634889020341</v>
+        <v>0.4972433060612282</v>
       </c>
       <c r="K17">
-        <v>-0.4149581388530457</v>
+        <v>-0.260405408741612</v>
       </c>
       <c r="L17">
-        <v>0.233093730241445</v>
+        <v>0.4674445466605421</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1178,22 +1178,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.4535394202249742</v>
+        <v>0.4411494016915297</v>
       </c>
       <c r="J18">
-        <v>0.08070214265077501</v>
+        <v>0.09923045565594253</v>
       </c>
       <c r="K18">
-        <v>0.5635998602332413</v>
+        <v>0.5143006822646836</v>
       </c>
       <c r="L18">
-        <v>0.08974939558201678</v>
+        <v>0.1282920587230653</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1216,22 +1216,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.4828045495852675</v>
+        <v>0.4198911048651824</v>
       </c>
       <c r="J19">
-        <v>0.06499039472076076</v>
+        <v>0.1194709867717007</v>
       </c>
       <c r="K19">
-        <v>0.5932707052178214</v>
+        <v>0.5060713596393749</v>
       </c>
       <c r="L19">
-        <v>0.0706202179291523</v>
+        <v>0.1355782583455031</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1254,22 +1254,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.3580574370197164</v>
+        <v>-0.3892494720807615</v>
       </c>
       <c r="J20">
-        <v>0.1679207532945924</v>
+        <v>0.1457680056362324</v>
       </c>
       <c r="K20">
-        <v>-0.4954724046006516</v>
+        <v>-0.5077905470461433</v>
       </c>
       <c r="L20">
-        <v>0.1453294522910624</v>
+        <v>0.1340355823255553</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1292,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.4535394202249742</v>
+        <v>-0.3373495424699933</v>
       </c>
       <c r="J21">
-        <v>0.08070214265077501</v>
+        <v>0.2074202127647988</v>
       </c>
       <c r="K21">
-        <v>-0.6007602905782901</v>
+        <v>-0.4687297357349016</v>
       </c>
       <c r="L21">
-        <v>0.06625295074379814</v>
+        <v>0.1717865787289185</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1330,22 +1330,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1193524790065721</v>
+        <v>0.0778498944161523</v>
       </c>
       <c r="J22">
-        <v>0.6457756768370824</v>
+        <v>0.7711058640185235</v>
       </c>
       <c r="K22">
-        <v>0.1486417213801955</v>
+        <v>0.09765202827810447</v>
       </c>
       <c r="L22">
-        <v>0.6819355638686473</v>
+        <v>0.788411563708648</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,22 +1368,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.167093470609201</v>
+        <v>0.1297498240269205</v>
       </c>
       <c r="J23">
-        <v>0.5199036173455835</v>
+        <v>0.6277606629910362</v>
       </c>
       <c r="K23">
-        <v>0.2725098225303584</v>
+        <v>0.2083243269932896</v>
       </c>
       <c r="L23">
-        <v>0.446215643690079</v>
+        <v>0.5635582121900502</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.3580574370197164</v>
+        <v>-0.2335496832484569</v>
       </c>
       <c r="J24">
-        <v>0.1679207532945924</v>
+        <v>0.3827797056047885</v>
       </c>
       <c r="K24">
-        <v>-0.4706987843706191</v>
+        <v>-0.3320168961455552</v>
       </c>
       <c r="L24">
-        <v>0.1697475039817557</v>
+        <v>0.3486190102393061</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1914,25 +1914,25 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2289041597670328</v>
+        <v>-0.2419880147043038</v>
       </c>
       <c r="J9">
-        <v>0.004154062204876697</v>
+        <v>0.002471409738675847</v>
       </c>
       <c r="K9">
-        <v>-0.2872671746617843</v>
+        <v>-0.303489343721962</v>
       </c>
       <c r="L9">
-        <v>0.003756720549751365</v>
+        <v>0.002144343888314521</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2008,7 +2008,7 @@
         <v>-0.3916527812158478</v>
       </c>
       <c r="L11">
-        <v>0.004913052567611288</v>
+        <v>0.00491305256761129</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3251,7 +3251,7 @@
         <v>-0.2860387767736777</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441358</v>
+        <v>0.4230203924441357</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3848,7 +3848,7 @@
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4088,25 +4088,13 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>100</v>
-      </c>
-      <c r="I9">
-        <v>-0.1325530043077417</v>
-      </c>
-      <c r="J9">
-        <v>0.1086826442074059</v>
-      </c>
-      <c r="K9">
-        <v>-0.1612223880273475</v>
-      </c>
-      <c r="L9">
-        <v>0.1090548020620709</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4126,25 +4114,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.1454025530693833</v>
+        <v>0.01421997815784012</v>
       </c>
       <c r="J10">
-        <v>0.2372373518450496</v>
+        <v>0.9088173646349219</v>
       </c>
       <c r="K10">
-        <v>-0.17271903862684</v>
+        <v>0.01636148293791983</v>
       </c>
       <c r="L10">
-        <v>0.2303502122764337</v>
+        <v>0.9102093962355748</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4164,25 +4152,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.1395616700784287</v>
+        <v>0.001918117792161453</v>
       </c>
       <c r="J11">
-        <v>0.2348980869048207</v>
+        <v>0.9870933347767511</v>
       </c>
       <c r="K11">
-        <v>-0.1674579385094694</v>
+        <v>0.002310973073108823</v>
       </c>
       <c r="L11">
-        <v>0.2450782275649824</v>
+        <v>0.9872920353883015</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4202,25 +4190,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.02140819589682411</v>
+        <v>0.2419047619047619</v>
       </c>
       <c r="J12">
-        <v>0.8544862615484419</v>
+        <v>0.04002718189621234</v>
       </c>
       <c r="K12">
-        <v>0.02708713119452734</v>
+        <v>0.2933526131391836</v>
       </c>
       <c r="L12">
-        <v>0.8518765230635053</v>
+        <v>0.03867934687031337</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4240,25 +4228,13 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>10</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4278,25 +4254,13 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>10</v>
-      </c>
-      <c r="I14">
-        <v>0.6085806194501846</v>
-      </c>
-      <c r="J14">
-        <v>0.03300625766123251</v>
-      </c>
-      <c r="K14">
-        <v>0.7106690545187014</v>
-      </c>
-      <c r="L14">
-        <v>0.02124449212877441</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4316,25 +4280,13 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>10</v>
-      </c>
-      <c r="I15">
-        <v>0.6770032003863301</v>
-      </c>
-      <c r="J15">
-        <v>0.01865536081150319</v>
-      </c>
-      <c r="K15">
-        <v>0.7841156792042765</v>
-      </c>
-      <c r="L15">
-        <v>0.007255789526699558</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4354,25 +4306,13 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>10</v>
-      </c>
-      <c r="I16">
-        <v>-0.1217161238900369</v>
-      </c>
-      <c r="J16">
-        <v>0.6698153575994166</v>
-      </c>
-      <c r="K16">
-        <v>-0.1421338109037403</v>
-      </c>
-      <c r="L16">
-        <v>0.6952876854012655</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4392,25 +4332,13 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>10</v>
-      </c>
-      <c r="I17">
-        <v>-0.3042903097250923</v>
-      </c>
-      <c r="J17">
-        <v>0.2864220227778588</v>
-      </c>
-      <c r="K17">
-        <v>-0.3553345272593507</v>
-      </c>
-      <c r="L17">
-        <v>0.3136373640754537</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4430,25 +4358,13 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>10</v>
-      </c>
-      <c r="I18">
-        <v>0.06085806194501846</v>
-      </c>
-      <c r="J18">
-        <v>0.8311704095417624</v>
-      </c>
-      <c r="K18">
-        <v>0.07106690545187015</v>
-      </c>
-      <c r="L18">
-        <v>0.8453239136912953</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -4468,25 +4384,13 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>10</v>
-      </c>
-      <c r="I19">
-        <v>0.09231861823449956</v>
-      </c>
-      <c r="J19">
-        <v>0.7483812122920345</v>
-      </c>
-      <c r="K19">
-        <v>0.1069248653460377</v>
-      </c>
-      <c r="L19">
-        <v>0.7687577033932652</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4506,25 +4410,13 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>10</v>
-      </c>
-      <c r="I20">
-        <v>-0.06085806194501846</v>
-      </c>
-      <c r="J20">
-        <v>0.8311704095417624</v>
-      </c>
-      <c r="K20">
-        <v>-0.07106690545187015</v>
-      </c>
-      <c r="L20">
-        <v>0.8453239136912953</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -4544,25 +4436,13 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>10</v>
-      </c>
-      <c r="I21">
-        <v>-0.2434322477800739</v>
-      </c>
-      <c r="J21">
-        <v>0.3937686346429927</v>
-      </c>
-      <c r="K21">
-        <v>-0.2842676218074806</v>
-      </c>
-      <c r="L21">
-        <v>0.4260244484285426</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -4582,25 +4462,13 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>10</v>
-      </c>
-      <c r="I22">
-        <v>0.1217161238900369</v>
-      </c>
-      <c r="J22">
-        <v>0.6698153575994166</v>
-      </c>
-      <c r="K22">
-        <v>0.1421338109037403</v>
-      </c>
-      <c r="L22">
-        <v>0.6952876854012655</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -4620,25 +4488,13 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>10</v>
-      </c>
-      <c r="I23">
-        <v>0.2434322477800739</v>
-      </c>
-      <c r="J23">
-        <v>0.3937686346429927</v>
-      </c>
-      <c r="K23">
-        <v>0.2842676218074806</v>
-      </c>
-      <c r="L23">
-        <v>0.4260244484285426</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -4658,25 +4514,13 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>10</v>
-      </c>
-      <c r="I24">
-        <v>-0.2434322477800739</v>
-      </c>
-      <c r="J24">
-        <v>0.3937686346429927</v>
-      </c>
-      <c r="K24">
-        <v>-0.2842676218074806</v>
-      </c>
-      <c r="L24">
-        <v>0.4260244484285426</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5159,7 +5003,7 @@
         <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>0.06043495620092659</v>
+        <v>0.0604349562009266</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5235,7 +5079,7 @@
         <v>-0.1671214681732231</v>
       </c>
       <c r="L9">
-        <v>0.09653017580355105</v>
+        <v>0.09653017580355103</v>
       </c>
     </row>
     <row r="10" spans="1:12">

--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -699,7 +699,7 @@
         <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011265</v>
+        <v>0.3140610795011266</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -836,22 +836,22 @@
         <v>93</v>
       </c>
       <c r="G9">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.1679137598010589</v>
+        <v>-0.1624207945913728</v>
       </c>
       <c r="J9">
-        <v>0.01617158143883987</v>
+        <v>0.01995735599907151</v>
       </c>
       <c r="K9">
-        <v>-0.250981672795132</v>
+        <v>-0.2433748586082731</v>
       </c>
       <c r="L9">
-        <v>0.01177838863852069</v>
+        <v>0.01468902726730107</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1444,22 +1444,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1807753815155468</v>
+        <v>-0.2089183206099184</v>
       </c>
       <c r="J25">
-        <v>0.3541954904764164</v>
+        <v>0.2858071051160878</v>
       </c>
       <c r="K25">
-        <v>-0.2576049186596542</v>
+        <v>-0.2761088800464458</v>
       </c>
       <c r="L25">
-        <v>0.3354345184285685</v>
+        <v>0.3006008438154604</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1482,22 +1482,22 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1807753815155468</v>
+        <v>-0.1907515101220994</v>
       </c>
       <c r="J26">
-        <v>0.3541954904764164</v>
+        <v>0.3297832606788835</v>
       </c>
       <c r="K26">
-        <v>-0.2666436877354316</v>
+        <v>-0.2791264634349316</v>
       </c>
       <c r="L26">
-        <v>0.3181414648703181</v>
+        <v>0.2951316609645892</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3539900381483285</v>
+        <v>0.3648596387010686</v>
       </c>
       <c r="J27">
-        <v>0.07056136851892029</v>
+        <v>0.06317307481323101</v>
       </c>
       <c r="K27">
-        <v>0.4341802833034056</v>
+        <v>0.4446662347157511</v>
       </c>
       <c r="L27">
-        <v>0.09288178063084394</v>
+        <v>0.08439298705280707</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,22 +1558,22 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1647705109143269</v>
+        <v>-0.1563850753205831</v>
       </c>
       <c r="J28">
-        <v>0.4027546538976249</v>
+        <v>0.4285752941987943</v>
       </c>
       <c r="K28">
-        <v>-0.2493004677260264</v>
+        <v>-0.2133681077431026</v>
       </c>
       <c r="L28">
-        <v>0.3517858440384553</v>
+        <v>0.4275202599269713</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1596,22 +1596,22 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.1265427670608828</v>
+        <v>-0.1725846996342804</v>
       </c>
       <c r="J29">
-        <v>0.5166373798159882</v>
+        <v>0.377919481405675</v>
       </c>
       <c r="K29">
-        <v>-0.1491396897503261</v>
+        <v>-0.1931253368630878</v>
       </c>
       <c r="L29">
-        <v>0.5814513259975999</v>
+        <v>0.4736035833560223</v>
       </c>
     </row>
   </sheetData>
@@ -1914,25 +1914,25 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.2419880147043038</v>
+        <v>-0.2260489959509954</v>
       </c>
       <c r="J9">
-        <v>0.002471409738675847</v>
+        <v>0.004741931174898608</v>
       </c>
       <c r="K9">
-        <v>-0.303489343721962</v>
+        <v>-0.2832375756589699</v>
       </c>
       <c r="L9">
-        <v>0.002144343888314521</v>
+        <v>0.004297109542258244</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2008,7 +2008,7 @@
         <v>-0.3916527812158478</v>
       </c>
       <c r="L11">
-        <v>0.00491305256761129</v>
+        <v>0.004913052567611288</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3046,22 +3046,22 @@
         <v>88</v>
       </c>
       <c r="G9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>-0.15625137459341</v>
+        <v>-0.1509654696395568</v>
       </c>
       <c r="J9">
-        <v>0.0301286154880051</v>
+        <v>0.03611918064522761</v>
       </c>
       <c r="K9">
-        <v>-0.2203331090972887</v>
+        <v>-0.2132165514106953</v>
       </c>
       <c r="L9">
-        <v>0.0276105659239954</v>
+        <v>0.0331785702669911</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3251,7 +3251,7 @@
         <v>-0.2860387767736777</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441357</v>
+        <v>0.4230203924441358</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4208,7 +4208,7 @@
         <v>0.2933526131391836</v>
       </c>
       <c r="L12">
-        <v>0.03867934687031337</v>
+        <v>0.03867934687031339</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4735,7 +4735,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
@@ -5003,7 +5003,7 @@
         <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>0.0604349562009266</v>
+        <v>0.06043495620092659</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5079,7 +5079,7 @@
         <v>-0.1671214681732231</v>
       </c>
       <c r="L9">
-        <v>0.09653017580355103</v>
+        <v>0.09653017580355105</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5669,25 +5669,25 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.3244079990200284</v>
       </c>
       <c r="J25">
-        <v>0.1131685336545776</v>
+        <v>0.1020809611324846</v>
       </c>
       <c r="K25">
-        <v>-0.4479914656638877</v>
+        <v>-0.4824165900576836</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
+        <v>0.05842088299110668</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5707,25 +5707,25 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.3872983346207417</v>
+        <v>-0.4170959987400364</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>0.03555790569992093</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.5355127556300702</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
+        <v>0.03253137976639191</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5745,25 +5745,25 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>0.2047685867790963</v>
       </c>
       <c r="J27">
-        <v>0.6747078413451294</v>
+        <v>0.3037024766857317</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>0.2170954499333818</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
+        <v>0.4192967698838219</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5783,25 +5783,25 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>0.08448190755542286</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.6731676659685988</v>
       </c>
       <c r="K28">
-        <v>0.1305442024324843</v>
+        <v>0.1201996807657877</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
+        <v>0.6574684200274921</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5821,25 +5821,25 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.009268799972000809</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.9627444106905073</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.01365329971861369</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.9599750222894384</v>
       </c>
     </row>
   </sheetData>

--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -508,7 +508,7 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,7 +699,7 @@
         <v>-0.3178304128441319</v>
       </c>
       <c r="L5">
-        <v>0.3140610795011265</v>
+        <v>0.3140610795011266</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -874,22 +874,22 @@
         <v>47</v>
       </c>
       <c r="G10">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.010626678538956</v>
+        <v>0.06638871101246042</v>
       </c>
       <c r="J10">
-        <v>0.9188222442202725</v>
+        <v>0.5241976206998125</v>
       </c>
       <c r="K10">
-        <v>0.03202579660312958</v>
+        <v>0.1087892441483137</v>
       </c>
       <c r="L10">
-        <v>0.8252595228886555</v>
+        <v>0.4520296292937946</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -912,22 +912,22 @@
         <v>47</v>
       </c>
       <c r="G11">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.01755941230348805</v>
+        <v>0.06519314919005002</v>
       </c>
       <c r="J11">
-        <v>0.8601808697516764</v>
+        <v>0.5130154911468982</v>
       </c>
       <c r="K11">
-        <v>0.03638028562484347</v>
+        <v>0.1040008254890629</v>
       </c>
       <c r="L11">
-        <v>0.8019502396625894</v>
+        <v>0.4722954701943655</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -950,22 +950,22 @@
         <v>47</v>
       </c>
       <c r="G12">
-        <v>840</v>
+        <v>813</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.05314177771146024</v>
+        <v>0.09046889345911402</v>
       </c>
       <c r="J12">
-        <v>0.5916324278428817</v>
+        <v>0.3609587655131743</v>
       </c>
       <c r="K12">
-        <v>0.08268210801879666</v>
+        <v>0.1449012170769664</v>
       </c>
       <c r="L12">
-        <v>0.5681066358938315</v>
+        <v>0.3153774517425035</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -988,22 +988,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.3373495424699933</v>
+        <v>-0.5284193913361779</v>
       </c>
       <c r="J13">
-        <v>0.2074202127647988</v>
+        <v>0.05682819683984795</v>
       </c>
       <c r="K13">
-        <v>-0.4296689244236597</v>
+        <v>-0.6292532049656926</v>
       </c>
       <c r="L13">
-        <v>0.215243543278886</v>
+        <v>0.05126402824042627</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1026,22 +1026,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.1816497536376887</v>
+        <v>-0.4662524041201569</v>
       </c>
       <c r="J14">
-        <v>0.4972433060612282</v>
+        <v>0.09284922807157968</v>
       </c>
       <c r="K14">
-        <v>-0.2669155439601523</v>
+        <v>-0.5618332187193684</v>
       </c>
       <c r="L14">
-        <v>0.4559719917038285</v>
+        <v>0.090982576216914</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1064,22 +1064,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.0524863881081478</v>
+        <v>-0.3143473067309657</v>
       </c>
       <c r="J15">
-        <v>0.8456867367859529</v>
+        <v>0.2610207247026572</v>
       </c>
       <c r="K15">
-        <v>-0.06856450678985078</v>
+        <v>-0.3719387243003159</v>
       </c>
       <c r="L15">
-        <v>0.8507182473580949</v>
+        <v>0.2899037448075479</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1102,22 +1102,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.7525489793561388</v>
+        <v>-0.5905863785521988</v>
       </c>
       <c r="J16">
-        <v>0.004918698145511134</v>
+        <v>0.03327875704510121</v>
       </c>
       <c r="K16">
-        <v>-0.8788682545029405</v>
+        <v>-0.6741998624632421</v>
       </c>
       <c r="L16">
-        <v>0.000811787483996615</v>
+        <v>0.03251559932021606</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1140,22 +1140,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1816497536376887</v>
+        <v>0.03108349360801046</v>
       </c>
       <c r="J17">
-        <v>0.4972433060612282</v>
+        <v>0.9107940274245708</v>
       </c>
       <c r="K17">
-        <v>-0.260405408741612</v>
+        <v>0.02247332874877474</v>
       </c>
       <c r="L17">
-        <v>0.4674445466605421</v>
+        <v>0.9508644143273767</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1178,22 +1178,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.4411494016915297</v>
+        <v>0.404085416904136</v>
       </c>
       <c r="J18">
-        <v>0.09923045565594253</v>
+        <v>0.1452595077432854</v>
       </c>
       <c r="K18">
-        <v>0.5143006822646836</v>
+        <v>0.4944132324730443</v>
       </c>
       <c r="L18">
-        <v>0.1282920587230653</v>
+        <v>0.1463267160789159</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1216,22 +1216,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.4198911048651824</v>
+        <v>0.4400862294233521</v>
       </c>
       <c r="J19">
-        <v>0.1194709867717007</v>
+        <v>0.1155858306979473</v>
       </c>
       <c r="K19">
-        <v>0.5060713596393749</v>
+        <v>0.5297309103671165</v>
       </c>
       <c r="L19">
-        <v>0.1355782583455031</v>
+        <v>0.1152952650343875</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1254,22 +1254,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.3892494720807615</v>
+        <v>-0.404085416904136</v>
       </c>
       <c r="J20">
-        <v>0.1457680056362324</v>
+        <v>0.1452595077432854</v>
       </c>
       <c r="K20">
-        <v>-0.5077905470461433</v>
+        <v>-0.4494665749754947</v>
       </c>
       <c r="L20">
-        <v>0.1340355823255553</v>
+        <v>0.1925017251163437</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1292,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.3373495424699933</v>
+        <v>-0.2175844552560732</v>
       </c>
       <c r="J21">
-        <v>0.2074202127647988</v>
+        <v>0.4328879340133424</v>
       </c>
       <c r="K21">
-        <v>-0.4687297357349016</v>
+        <v>-0.3146266024828463</v>
       </c>
       <c r="L21">
-        <v>0.1717865787289185</v>
+        <v>0.3759325783116143</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1330,22 +1330,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.0778498944161523</v>
+        <v>-0.2175844552560732</v>
       </c>
       <c r="J22">
-        <v>0.7711058640185235</v>
+        <v>0.4328879340133424</v>
       </c>
       <c r="K22">
-        <v>0.09765202827810447</v>
+        <v>-0.2696799449852968</v>
       </c>
       <c r="L22">
-        <v>0.788411563708648</v>
+        <v>0.4511390079856625</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,22 +1368,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1297498240269205</v>
+        <v>-0.1554174680400523</v>
       </c>
       <c r="J23">
-        <v>0.6277606629910362</v>
+        <v>0.5753530764008791</v>
       </c>
       <c r="K23">
-        <v>0.2083243269932896</v>
+        <v>-0.1573133012414231</v>
       </c>
       <c r="L23">
-        <v>0.5635582121900502</v>
+        <v>0.6642676178335104</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2335496832484569</v>
+        <v>-0.03108349360801046</v>
       </c>
       <c r="J24">
-        <v>0.3827797056047885</v>
+        <v>0.9107940274245708</v>
       </c>
       <c r="K24">
-        <v>-0.3320168961455552</v>
+        <v>-0.04494665749754947</v>
       </c>
       <c r="L24">
-        <v>0.3486190102393061</v>
+        <v>0.9018775739844269</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1444,22 +1444,22 @@
         <v>15</v>
       </c>
       <c r="G25">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.1807753815155468</v>
+        <v>-0.2089183206099184</v>
       </c>
       <c r="J25">
-        <v>0.3541954904764164</v>
+        <v>0.2858071051160878</v>
       </c>
       <c r="K25">
-        <v>-0.2576049186596542</v>
+        <v>-0.2761088800464458</v>
       </c>
       <c r="L25">
-        <v>0.3354345184285685</v>
+        <v>0.3006008438154604</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1482,22 +1482,22 @@
         <v>15</v>
       </c>
       <c r="G26">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.1807753815155468</v>
+        <v>-0.1907515101220994</v>
       </c>
       <c r="J26">
-        <v>0.3541954904764164</v>
+        <v>0.3297832606788835</v>
       </c>
       <c r="K26">
-        <v>-0.2666436877354316</v>
+        <v>-0.2791264634349316</v>
       </c>
       <c r="L26">
-        <v>0.3181414648703181</v>
+        <v>0.2951316609645892</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,22 +1520,22 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.3539900381483285</v>
+        <v>0.3648596387010686</v>
       </c>
       <c r="J27">
-        <v>0.07056136851892029</v>
+        <v>0.06317307481323101</v>
       </c>
       <c r="K27">
-        <v>0.4341802833034056</v>
+        <v>0.4446662347157511</v>
       </c>
       <c r="L27">
-        <v>0.09288178063084394</v>
+        <v>0.08439298705280707</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,22 +1558,22 @@
         <v>15</v>
       </c>
       <c r="G28">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>-0.1647705109143269</v>
+        <v>-0.1563850753205831</v>
       </c>
       <c r="J28">
-        <v>0.4027546538976249</v>
+        <v>0.4285752941987943</v>
       </c>
       <c r="K28">
-        <v>-0.2493004677260264</v>
+        <v>-0.2133681077431026</v>
       </c>
       <c r="L28">
-        <v>0.3517858440384553</v>
+        <v>0.4275202599269713</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1596,22 +1596,22 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>-0.1265427670608828</v>
+        <v>-0.1725846996342804</v>
       </c>
       <c r="J29">
-        <v>0.5166373798159882</v>
+        <v>0.377919481405675</v>
       </c>
       <c r="K29">
-        <v>-0.1491396897503261</v>
+        <v>-0.1931253368630878</v>
       </c>
       <c r="L29">
-        <v>0.5814513259975999</v>
+        <v>0.4736035833560223</v>
       </c>
     </row>
   </sheetData>
@@ -1952,25 +1952,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.2741939043543897</v>
+        <v>-0.1719856383383667</v>
       </c>
       <c r="J10">
-        <v>0.01523742906785629</v>
+        <v>0.1316238040142544</v>
       </c>
       <c r="K10">
-        <v>-0.3438060590640694</v>
+        <v>-0.2170916607282444</v>
       </c>
       <c r="L10">
-        <v>0.0145005762354219</v>
+        <v>0.1299324388039652</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1990,25 +1990,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.2885159533670518</v>
+        <v>-0.2220671589132321</v>
       </c>
       <c r="J11">
-        <v>0.007534224862278689</v>
+        <v>0.0416011054294208</v>
       </c>
       <c r="K11">
-        <v>-0.3916527812158478</v>
+        <v>-0.3044028033210576</v>
       </c>
       <c r="L11">
-        <v>0.00491305256761129</v>
+        <v>0.03161022555609473</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2028,25 +2028,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1527404930393114</v>
+        <v>0.2554933792020658</v>
       </c>
       <c r="J12">
-        <v>0.1545006958890939</v>
+        <v>0.01830915752272128</v>
       </c>
       <c r="K12">
-        <v>0.1874148805812322</v>
+        <v>0.3206647291565351</v>
       </c>
       <c r="L12">
-        <v>0.192476549579598</v>
+        <v>0.02318249883445114</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2066,25 +2066,25 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.3651483716701108</v>
+        <v>0.07453559924999299</v>
       </c>
       <c r="J13">
-        <v>0.2008251226951454</v>
+        <v>0.794002680192762</v>
       </c>
       <c r="K13">
-        <v>0.4264014327112208</v>
+        <v>0.08703882797784893</v>
       </c>
       <c r="L13">
-        <v>0.2191383605228726</v>
+        <v>0.8110384240587123</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2104,25 +2104,25 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>0.7302967433402215</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="J14">
-        <v>0.01051524593585891</v>
+        <v>0.191694602051888</v>
       </c>
       <c r="K14">
-        <v>0.8528028654224417</v>
+        <v>0.4351941398892446</v>
       </c>
       <c r="L14">
-        <v>0.001712874149321468</v>
+        <v>0.2087486300875882</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2142,25 +2142,25 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>0.7385489458759965</v>
+        <v>0.3768891807222045</v>
       </c>
       <c r="J15">
-        <v>0.01028204822194895</v>
+        <v>0.1903458092612167</v>
       </c>
       <c r="K15">
-        <v>0.8553989227683017</v>
+        <v>0.4365189348559864</v>
       </c>
       <c r="L15">
-        <v>0.001600453316805279</v>
+        <v>0.2072083540976897</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2180,25 +2180,25 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.1217161238900369</v>
+        <v>0.149071198499986</v>
       </c>
       <c r="J16">
-        <v>0.6698153575994166</v>
+        <v>0.6015081344405899</v>
       </c>
       <c r="K16">
-        <v>-0.1421338109037403</v>
+        <v>0.1740776559556979</v>
       </c>
       <c r="L16">
-        <v>0.6952876854012655</v>
+        <v>0.6305360755569764</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2218,25 +2218,25 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.5477225575051662</v>
+        <v>-0.223606797749979</v>
       </c>
       <c r="J17">
-        <v>0.05500883362926572</v>
+        <v>0.4334219309560737</v>
       </c>
       <c r="K17">
-        <v>-0.6396021490668313</v>
+        <v>-0.2611164839335468</v>
       </c>
       <c r="L17">
-        <v>0.04643461767158175</v>
+        <v>0.4661852835040308</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2256,25 +2256,25 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-0.3651483716701108</v>
+        <v>-0.4472135954999579</v>
       </c>
       <c r="J18">
-        <v>0.2008251226951454</v>
+        <v>0.117185087198138</v>
       </c>
       <c r="K18">
-        <v>-0.4264014327112208</v>
+        <v>-0.5222329678670935</v>
       </c>
       <c r="L18">
-        <v>0.2191383605228726</v>
+        <v>0.1215029188171132</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2294,25 +2294,25 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-0.3077287274483319</v>
+        <v>-0.3015113445777636</v>
       </c>
       <c r="J19">
-        <v>0.2849576406684299</v>
+        <v>0.2948019919337048</v>
       </c>
       <c r="K19">
-        <v>-0.3564162178201257</v>
+        <v>-0.3492151478847891</v>
       </c>
       <c r="L19">
-        <v>0.312061132326838</v>
+        <v>0.3226327672991101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2332,25 +2332,25 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>0.3042903097250923</v>
+        <v>0.4472135954999579</v>
       </c>
       <c r="J20">
-        <v>0.2864220227778588</v>
+        <v>0.117185087198138</v>
       </c>
       <c r="K20">
-        <v>0.3553345272593507</v>
+        <v>0.5222329678670935</v>
       </c>
       <c r="L20">
-        <v>0.3136373640754537</v>
+        <v>0.1215029188171132</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2370,25 +2370,25 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.3651483716701108</v>
+        <v>-0.223606797749979</v>
       </c>
       <c r="J21">
-        <v>0.2008251226951454</v>
+        <v>0.4334219309560737</v>
       </c>
       <c r="K21">
-        <v>-0.4264014327112208</v>
+        <v>-0.2611164839335468</v>
       </c>
       <c r="L21">
-        <v>0.2191383605228726</v>
+        <v>0.4661852835040308</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2408,25 +2408,25 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3042903097250923</v>
+        <v>-0.223606797749979</v>
       </c>
       <c r="J22">
-        <v>0.2864220227778588</v>
+        <v>0.4334219309560737</v>
       </c>
       <c r="K22">
-        <v>0.3553345272593507</v>
+        <v>-0.2611164839335468</v>
       </c>
       <c r="L22">
-        <v>0.3136373640754537</v>
+        <v>0.4661852835040308</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2446,25 +2446,25 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.3651483716701108</v>
+        <v>-0.149071198499986</v>
       </c>
       <c r="J23">
-        <v>0.2008251226951454</v>
+        <v>0.6015081344405899</v>
       </c>
       <c r="K23">
-        <v>0.4264014327112208</v>
+        <v>-0.1740776559556979</v>
       </c>
       <c r="L23">
-        <v>0.2191383605228726</v>
+        <v>0.6305360755569764</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2484,25 +2484,25 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.4260064336151292</v>
+        <v>-0.07453559924999299</v>
       </c>
       <c r="J24">
-        <v>0.1355930012663022</v>
+        <v>0.794002680192762</v>
       </c>
       <c r="K24">
-        <v>-0.497468338163091</v>
+        <v>-0.08703882797784893</v>
       </c>
       <c r="L24">
-        <v>0.1434614655950857</v>
+        <v>0.8110384240587123</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2716,9 +2716,9 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3084,22 +3084,22 @@
         <v>40</v>
       </c>
       <c r="G10">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.03324642499485375</v>
+        <v>0.08712167584961492</v>
       </c>
       <c r="J10">
-        <v>0.7524695495544889</v>
+        <v>0.4083766752312095</v>
       </c>
       <c r="K10">
-        <v>0.05369692827151148</v>
+        <v>0.1227687641955272</v>
       </c>
       <c r="L10">
-        <v>0.7111154281850389</v>
+        <v>0.3956759834281137</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3122,22 +3122,22 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.02630142666529713</v>
+        <v>0.07462967377124524</v>
       </c>
       <c r="J11">
-        <v>0.7941029996140164</v>
+        <v>0.4588124610579571</v>
       </c>
       <c r="K11">
-        <v>0.0345247475921612</v>
+        <v>0.09255821810809323</v>
       </c>
       <c r="L11">
-        <v>0.8118632018166435</v>
+        <v>0.5226237277667096</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3160,22 +3160,22 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.02696081483975262</v>
+        <v>0.0648462728029752</v>
       </c>
       <c r="J12">
-        <v>0.7877495099042957</v>
+        <v>0.5171200381290717</v>
       </c>
       <c r="K12">
-        <v>0.03904490288887924</v>
+        <v>0.08638478532010939</v>
       </c>
       <c r="L12">
-        <v>0.7877690834629696</v>
+        <v>0.5508414269428876</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3198,22 +3198,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-0.4787549991450212</v>
+        <v>-0.6366820122120065</v>
       </c>
       <c r="J13">
-        <v>0.07217560549492458</v>
+        <v>0.01869720062275651</v>
       </c>
       <c r="K13">
-        <v>-0.6292853089020909</v>
+        <v>-0.8019532181238483</v>
       </c>
       <c r="L13">
-        <v>0.05124855216842294</v>
+        <v>0.005259237421010194</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3236,22 +3236,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.2267786838055363</v>
+        <v>-0.4705910525045265</v>
       </c>
       <c r="J14">
-        <v>0.3943870594034554</v>
+        <v>0.08219753762575091</v>
       </c>
       <c r="K14">
-        <v>-0.2860387767736777</v>
+        <v>-0.5414897797588377</v>
       </c>
       <c r="L14">
-        <v>0.4230203924441357</v>
+        <v>0.1059666504898876</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3274,22 +3274,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1019294382875251</v>
+        <v>-0.3359355065735126</v>
       </c>
       <c r="J15">
-        <v>0.7040542681897126</v>
+        <v>0.218311625181403</v>
       </c>
       <c r="K15">
-        <v>-0.0765092055676006</v>
+        <v>-0.3506334920077187</v>
       </c>
       <c r="L15">
-        <v>0.8336123677972922</v>
+        <v>0.3205360031284263</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3312,22 +3312,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.579545525280815</v>
+        <v>-0.3598637460328732</v>
       </c>
       <c r="J16">
-        <v>0.02951512807757192</v>
+        <v>0.1838095557893692</v>
       </c>
       <c r="K16">
-        <v>-0.7119187333033755</v>
+        <v>-0.4592381676435712</v>
       </c>
       <c r="L16">
-        <v>0.02091481468718881</v>
+        <v>0.1818195500051732</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3350,22 +3350,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1259881576697424</v>
+        <v>0.08304547985373997</v>
       </c>
       <c r="J17">
-        <v>0.6360988735986226</v>
+        <v>0.7590571299004958</v>
       </c>
       <c r="K17">
-        <v>-0.1906925178491184</v>
+        <v>0.08910591312487204</v>
       </c>
       <c r="L17">
-        <v>0.5977007516614028</v>
+        <v>0.8066210879575378</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3388,22 +3388,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.579545525280815</v>
+        <v>0.5259547057403532</v>
       </c>
       <c r="J18">
-        <v>0.02951512807757192</v>
+        <v>0.05206997227535645</v>
       </c>
       <c r="K18">
-        <v>0.7437008196115621</v>
+        <v>0.7128473049989763</v>
       </c>
       <c r="L18">
-        <v>0.01366958411527145</v>
+        <v>0.02067214786469852</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3426,22 +3426,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.560611910581388</v>
+        <v>0.5598925109558542</v>
       </c>
       <c r="J19">
-        <v>0.0366903087793031</v>
+        <v>0.04019719781553128</v>
       </c>
       <c r="K19">
-        <v>0.7172738021962557</v>
+        <v>0.7253300668002809</v>
       </c>
       <c r="L19">
-        <v>0.01954204435368506</v>
+        <v>0.01759621904480188</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3464,22 +3464,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.4787549991450212</v>
+        <v>-0.4705910525045265</v>
       </c>
       <c r="J20">
-        <v>0.07217560549492458</v>
+        <v>0.08219753762575091</v>
       </c>
       <c r="K20">
-        <v>-0.6419981434253655</v>
+        <v>-0.5689069837972599</v>
       </c>
       <c r="L20">
-        <v>0.04536158917864154</v>
+        <v>0.08610936073892451</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3502,22 +3502,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.2771739468734333</v>
+        <v>-0.1384091330895666</v>
       </c>
       <c r="J21">
-        <v>0.2978975979923409</v>
+        <v>0.6092119761915052</v>
       </c>
       <c r="K21">
-        <v>-0.3750286184365996</v>
+        <v>-0.1987747292785607</v>
       </c>
       <c r="L21">
-        <v>0.2855969029688312</v>
+        <v>0.5819571528087297</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3540,22 +3540,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.1259881576697424</v>
+        <v>-0.1384091330895666</v>
       </c>
       <c r="J22">
-        <v>0.6360988735986226</v>
+        <v>0.6092119761915052</v>
       </c>
       <c r="K22">
-        <v>0.1461975970176575</v>
+        <v>-0.1919204282689551</v>
       </c>
       <c r="L22">
-        <v>0.6869410188538527</v>
+        <v>0.595298950736874</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3578,22 +3578,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.1259881576697424</v>
+        <v>-0.1384091330895666</v>
       </c>
       <c r="J23">
-        <v>0.6360988735986226</v>
+        <v>0.6092119761915052</v>
       </c>
       <c r="K23">
-        <v>0.2161181868956676</v>
+        <v>-0.1302317191825053</v>
       </c>
       <c r="L23">
-        <v>0.5487107060733141</v>
+        <v>0.7199008272052645</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3616,22 +3616,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2267786838055363</v>
+        <v>-0.02768182661791332</v>
       </c>
       <c r="J24">
-        <v>0.3943870594034554</v>
+        <v>0.9185663957730847</v>
       </c>
       <c r="K24">
-        <v>-0.3114644458202268</v>
+        <v>-0.02741720403842217</v>
       </c>
       <c r="L24">
-        <v>0.3810089567050594</v>
+        <v>0.9400699293286143</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4208,7 +4208,7 @@
         <v>0.2933526131391836</v>
       </c>
       <c r="L12">
-        <v>0.03867934687031337</v>
+        <v>0.03867934687031339</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4735,7 +4735,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
@@ -5003,7 +5003,7 @@
         <v>-0.5561107852980067</v>
       </c>
       <c r="L7">
-        <v>0.0604349562009266</v>
+        <v>0.06043495620092659</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5079,7 +5079,7 @@
         <v>-0.1671214681732231</v>
       </c>
       <c r="L9">
-        <v>0.09653017580355103</v>
+        <v>0.09653017580355105</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5216,22 +5216,22 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>0.04969039949999533</v>
+        <v>0.05270462766947299</v>
       </c>
       <c r="J13">
-        <v>0.8509806870320558</v>
+        <v>0.8464505968765906</v>
       </c>
       <c r="K13">
-        <v>0.01262892050706804</v>
+        <v>0.0259499648053841</v>
       </c>
       <c r="L13">
-        <v>0.9723786419920799</v>
+        <v>0.9432726625041241</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5254,22 +5254,22 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.149071198499986</v>
+        <v>-0.2635231383473649</v>
       </c>
       <c r="J14">
-        <v>0.5730251193553904</v>
+        <v>0.3329216080655659</v>
       </c>
       <c r="K14">
-        <v>-0.1894338076060206</v>
+        <v>-0.3503245248726853</v>
       </c>
       <c r="L14">
-        <v>0.6001664342511973</v>
+        <v>0.3209921486658833</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5292,22 +5292,22 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-0.1256297269074015</v>
+        <v>-0.2398508059000617</v>
       </c>
       <c r="J15">
-        <v>0.6374017405958849</v>
+        <v>0.3819327979196356</v>
       </c>
       <c r="K15">
-        <v>-0.152008377581442</v>
+        <v>-0.3448837241706717</v>
       </c>
       <c r="L15">
-        <v>0.6750590889374006</v>
+        <v>0.3290799383310438</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5330,22 +5330,22 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-0.298142396999972</v>
+        <v>-0.210818510677892</v>
       </c>
       <c r="J16">
-        <v>0.2596563563704499</v>
+        <v>0.4385780260809998</v>
       </c>
       <c r="K16">
-        <v>-0.3788676152120412</v>
+        <v>-0.259499648053841</v>
       </c>
       <c r="L16">
-        <v>0.2802942824523375</v>
+        <v>0.4690507582155354</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5368,22 +5368,22 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>-0.1987615979999813</v>
+        <v>-0.105409255338946</v>
       </c>
       <c r="J17">
-        <v>0.4523703606773608</v>
+        <v>0.6985353583033387</v>
       </c>
       <c r="K17">
-        <v>-0.3409808536908371</v>
+        <v>-0.1686747712349966</v>
       </c>
       <c r="L17">
-        <v>0.3349456951179903</v>
+        <v>0.6413437507268416</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5406,22 +5406,22 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>0.149071198499986</v>
+        <v>0.105409255338946</v>
       </c>
       <c r="J18">
-        <v>0.5730251193553904</v>
+        <v>0.6985353583033387</v>
       </c>
       <c r="K18">
-        <v>0.1641759665918845</v>
+        <v>0.1037998592215364</v>
       </c>
       <c r="L18">
-        <v>0.6503895621649565</v>
+        <v>0.7753684943458543</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5444,22 +5444,22 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>0.07537783614444091</v>
+        <v>0.0266500895444513</v>
       </c>
       <c r="J19">
-        <v>0.7773295263554205</v>
+        <v>0.9226081041997291</v>
       </c>
       <c r="K19">
-        <v>0.1076726007868547</v>
+        <v>0.04555068055084343</v>
       </c>
       <c r="L19">
-        <v>0.7671778789420547</v>
+        <v>0.9005643729271482</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5482,22 +5482,22 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-0.09938079899999065</v>
+        <v>-0.105409255338946</v>
       </c>
       <c r="J20">
-        <v>0.7071142312899612</v>
+        <v>0.6985353583033387</v>
       </c>
       <c r="K20">
-        <v>-0.1262892050706804</v>
+        <v>-0.07784989441615228</v>
       </c>
       <c r="L20">
-        <v>0.7281063840216824</v>
+        <v>0.8307317091592451</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5520,22 +5520,22 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-0.149071198499986</v>
+        <v>-0.05270462766947299</v>
       </c>
       <c r="J21">
-        <v>0.5730251193553904</v>
+        <v>0.8464505968765906</v>
       </c>
       <c r="K21">
-        <v>-0.2399494896342928</v>
+        <v>-0.1037998592215364</v>
       </c>
       <c r="L21">
-        <v>0.5043017190353258</v>
+        <v>0.7753684943458543</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5558,22 +5558,22 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.3975231959999626</v>
+        <v>0.3162277660168379</v>
       </c>
       <c r="J22">
-        <v>0.1328549557310538</v>
+        <v>0.2452781168067728</v>
       </c>
       <c r="K22">
-        <v>0.5304146612968577</v>
+        <v>0.3892494720807614</v>
       </c>
       <c r="L22">
-        <v>0.1147392659290222</v>
+        <v>0.2662240730692272</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5596,22 +5596,22 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.298142396999972</v>
+        <v>0.210818510677892</v>
       </c>
       <c r="J23">
-        <v>0.2596563563704499</v>
+        <v>0.4385780260809998</v>
       </c>
       <c r="K23">
-        <v>0.4041254562261773</v>
+        <v>0.2465246656511489</v>
       </c>
       <c r="L23">
-        <v>0.2467547295422347</v>
+        <v>0.492323476312569</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5634,22 +5634,22 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>-0.2484519974999766</v>
+        <v>-0.1581138830084189</v>
       </c>
       <c r="J24">
-        <v>0.347558036741169</v>
+        <v>0.5612758361345778</v>
       </c>
       <c r="K24">
-        <v>-0.4293832972403134</v>
+        <v>-0.259499648053841</v>
       </c>
       <c r="L24">
-        <v>0.2155824117700313</v>
+        <v>0.4690507582155354</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5669,25 +5669,25 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>-0.31352722326441</v>
+        <v>-0.3244079990200284</v>
       </c>
       <c r="J25">
-        <v>0.1131685336545776</v>
+        <v>0.1020809611324846</v>
       </c>
       <c r="K25">
-        <v>-0.4479914656638877</v>
+        <v>-0.4824165900576836</v>
       </c>
       <c r="L25">
-        <v>0.08182143505121871</v>
+        <v>0.05842088299110668</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5707,25 +5707,25 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>16</v>
       </c>
       <c r="I26">
-        <v>-0.3872983346207417</v>
+        <v>-0.4170959987400364</v>
       </c>
       <c r="J26">
-        <v>0.05036597579032801</v>
+        <v>0.03555790569992093</v>
       </c>
       <c r="K26">
-        <v>-0.5070173682344674</v>
+        <v>-0.5355127556300702</v>
       </c>
       <c r="L26">
-        <v>0.04501930875693567</v>
+        <v>0.03253137976639191</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5745,25 +5745,25 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>16</v>
       </c>
       <c r="I27">
-        <v>0.08334047874242113</v>
+        <v>0.2047685867790963</v>
       </c>
       <c r="J27">
-        <v>0.6747078413451294</v>
+        <v>0.3037024766857317</v>
       </c>
       <c r="K27">
-        <v>0.08027373462987823</v>
+        <v>0.2170954499333818</v>
       </c>
       <c r="L27">
-        <v>0.7675926515511813</v>
+        <v>0.4192967698838219</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5783,25 +5783,25 @@
         <v>16</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>16</v>
       </c>
       <c r="I28">
-        <v>0.09338863578008762</v>
+        <v>0.08448190755542286</v>
       </c>
       <c r="J28">
-        <v>0.6401498414586226</v>
+        <v>0.6731676659685988</v>
       </c>
       <c r="K28">
-        <v>0.1305442024324843</v>
+        <v>0.1201996807657877</v>
       </c>
       <c r="L28">
-        <v>0.6298840619248964</v>
+        <v>0.6574684200274921</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5821,25 +5821,25 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>16</v>
       </c>
       <c r="I29">
-        <v>0.1290994448735805</v>
+        <v>0.009268799972000809</v>
       </c>
       <c r="J29">
-        <v>0.5142199988155506</v>
+        <v>0.9627444106905073</v>
       </c>
       <c r="K29">
-        <v>0.1619428608987702</v>
+        <v>0.01365329971861369</v>
       </c>
       <c r="L29">
-        <v>0.5490376092324329</v>
+        <v>0.9599750222894384</v>
       </c>
     </row>
   </sheetData>

--- a/data/correlation_analysis_timeout_max.xlsx
+++ b/data/correlation_analysis_timeout_max.xlsx
@@ -871,25 +871,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.06638871101246042</v>
+        <v>0.09989928307027053</v>
       </c>
       <c r="J10">
-        <v>0.5241976206998125</v>
+        <v>0.3372677737988888</v>
       </c>
       <c r="K10">
-        <v>0.1087892441483137</v>
+        <v>0.1559244610842745</v>
       </c>
       <c r="L10">
-        <v>0.4520296292937946</v>
+        <v>0.2795654654406445</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,25 +909,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.06519314919005002</v>
+        <v>0.08931863763595778</v>
       </c>
       <c r="J11">
-        <v>0.5130154911468982</v>
+        <v>0.3695323356271473</v>
       </c>
       <c r="K11">
-        <v>0.1040008254890629</v>
+        <v>0.1375884906942706</v>
       </c>
       <c r="L11">
-        <v>0.4722954701943655</v>
+        <v>0.3406751919077503</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,25 +947,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.09046889345911402</v>
+        <v>0.1193675355124785</v>
       </c>
       <c r="J12">
-        <v>0.3609587655131743</v>
+        <v>0.2274845227161654</v>
       </c>
       <c r="K12">
-        <v>0.1449012170769664</v>
+        <v>0.1890061392789798</v>
       </c>
       <c r="L12">
-        <v>0.3153774517425035</v>
+        <v>0.1886589730863144</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1952,25 +1952,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.1719856383383667</v>
+        <v>-0.1127953217534384</v>
       </c>
       <c r="J10">
-        <v>0.1316238040142544</v>
+        <v>0.3246303816462205</v>
       </c>
       <c r="K10">
-        <v>-0.2170916607282444</v>
+        <v>-0.141785465198251</v>
       </c>
       <c r="L10">
-        <v>0.1299324388039652</v>
+        <v>0.3260061663372782</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1990,25 +1990,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.2220671589132321</v>
+        <v>-0.1657843576414015</v>
       </c>
       <c r="J11">
-        <v>0.0416011054294208</v>
+        <v>0.1297187088392248</v>
       </c>
       <c r="K11">
-        <v>-0.3044028033210576</v>
+        <v>-0.228149078380763</v>
       </c>
       <c r="L11">
-        <v>0.03161022555609473</v>
+        <v>0.1110368177920856</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2028,25 +2028,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.2554933792020658</v>
+        <v>0.2135201189924139</v>
       </c>
       <c r="J12">
-        <v>0.01830915752272128</v>
+        <v>0.04951827186158275</v>
       </c>
       <c r="K12">
-        <v>0.3206647291565351</v>
+        <v>0.2585375793536707</v>
       </c>
       <c r="L12">
-        <v>0.02318249883445114</v>
+        <v>0.06985387930445178</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3084,22 +3084,22 @@
         <v>40</v>
       </c>
       <c r="G10">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.08712167584961492</v>
+        <v>0.08993343971074573</v>
       </c>
       <c r="J10">
-        <v>0.4083766752312095</v>
+        <v>0.3939555332313259</v>
       </c>
       <c r="K10">
-        <v>0.1227687641955272</v>
+        <v>0.1261078291007821</v>
       </c>
       <c r="L10">
-        <v>0.3956759834281137</v>
+        <v>0.3828516225378101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3122,22 +3122,22 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.07462967377124524</v>
+        <v>0.07727463833790227</v>
       </c>
       <c r="J11">
-        <v>0.4588124610579571</v>
+        <v>0.4435614692500816</v>
       </c>
       <c r="K11">
-        <v>0.09255821810809323</v>
+        <v>0.09527592158164427</v>
       </c>
       <c r="L11">
-        <v>0.5226237277667096</v>
+        <v>0.5104337983014946</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3160,22 +3160,22 @@
         <v>40</v>
       </c>
       <c r="G12">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.0648462728029752</v>
+        <v>0.06408768791953229</v>
       </c>
       <c r="J12">
-        <v>0.5171200381290717</v>
+        <v>0.5225032783206667</v>
       </c>
       <c r="K12">
-        <v>0.08638478532010939</v>
+        <v>0.08576989054836207</v>
       </c>
       <c r="L12">
-        <v>0.5508414269428876</v>
+        <v>0.5536912247004897</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3846,8 +3846,8 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4114,25 +4114,25 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>0.01421997815784012</v>
+        <v>-0.07463933708620761</v>
       </c>
       <c r="J10">
-        <v>0.9088173646349219</v>
+        <v>0.547733910068501</v>
       </c>
       <c r="K10">
-        <v>0.01636148293791983</v>
+        <v>-0.08587989564247843</v>
       </c>
       <c r="L10">
-        <v>0.9102093962355748</v>
+        <v>0.5531808807861933</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4152,25 +4152,25 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>0.001918117792161453</v>
+        <v>-0.02642855544759036</v>
       </c>
       <c r="J11">
-        <v>0.9870933347767511</v>
+        <v>0.8236209225496525</v>
       </c>
       <c r="K11">
-        <v>0.002310973073108823</v>
+        <v>-0.03184146471615851</v>
       </c>
       <c r="L11">
-        <v>0.9872920353883015</v>
+        <v>0.8262496889100787</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4190,25 +4190,25 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.2419047619047619</v>
+        <v>0.2391168558431198</v>
       </c>
       <c r="J12">
-        <v>0.04002718189621234</v>
+        <v>0.04237662250330112</v>
       </c>
       <c r="K12">
-        <v>0.2933526131391836</v>
+        <v>0.2899717804431688</v>
       </c>
       <c r="L12">
-        <v>0.03867934687031339</v>
+        <v>0.04108542769241475</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5102,22 +5102,22 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10">
-        <v>-0.1410673005708742</v>
+        <v>0.02781643858671354</v>
       </c>
       <c r="J10">
-        <v>0.1918480862059539</v>
+        <v>0.7967876810602408</v>
       </c>
       <c r="K10">
-        <v>-0.1594915550278049</v>
+        <v>0.0356633742276846</v>
       </c>
       <c r="L10">
-        <v>0.2685745446816231</v>
+        <v>0.8057766752165008</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5140,22 +5140,22 @@
         <v>41</v>
       </c>
       <c r="G11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H11">
         <v>50</v>
       </c>
       <c r="I11">
-        <v>-0.1104149035826812</v>
+        <v>0.0464013402367485</v>
       </c>
       <c r="J11">
-        <v>0.285180706372306</v>
+        <v>0.6531397458483266</v>
       </c>
       <c r="K11">
-        <v>-0.1439811999024739</v>
+        <v>0.06459222671217832</v>
       </c>
       <c r="L11">
-        <v>0.318492693335327</v>
+        <v>0.6558502732479303</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5178,22 +5178,22 @@
         <v>41</v>
       </c>
       <c r="G12">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12">
-        <v>0.1113864967082373</v>
+        <v>0.1651861681364787</v>
       </c>
       <c r="J12">
-        <v>0.2778961820094916</v>
+        <v>0.1073776851625311</v>
       </c>
       <c r="K12">
-        <v>0.1553560043181458</v>
+        <v>0.2294861708178067</v>
       </c>
       <c r="L12">
-        <v>0.2813439520692285</v>
+        <v>0.1089023642733105</v>
       </c>
     </row>
     <row r="13" spans="1:12">
